--- a/newrpl/docs/newRPL Command Database.xlsx
+++ b/newrpl/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="829">
   <si>
     <t>!</t>
   </si>
@@ -2503,6 +2503,9 @@
   </si>
   <si>
     <t>Lists with one element return the elem.</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2951,8 +2954,8 @@
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2972,7 +2975,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.14267352185089974</v>
+        <v>0.16580976863753213</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3036,7 +3039,7 @@
     </row>
     <row r="7" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="10">
-        <f>A6+1</f>
+        <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -3054,7 +3057,7 @@
     </row>
     <row r="8" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="10">
-        <f>A7+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -3070,7 +3073,7 @@
     </row>
     <row r="9" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="10">
-        <f>A8+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -3086,7 +3089,7 @@
     </row>
     <row r="10" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="10">
-        <f>A9+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -3102,7 +3105,7 @@
     </row>
     <row r="11" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="10">
-        <f>A10+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -3118,7 +3121,7 @@
     </row>
     <row r="12" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="10">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3136,7 +3139,7 @@
     </row>
     <row r="13" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="10">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -3154,7 +3157,7 @@
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="10">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -3172,7 +3175,7 @@
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="10">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -3190,7 +3193,7 @@
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="10">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -3206,7 +3209,7 @@
     </row>
     <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="10">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -3222,7 +3225,7 @@
     </row>
     <row r="18" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="10">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -3240,7 +3243,7 @@
     </row>
     <row r="19" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="10">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -3258,7 +3261,7 @@
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="10">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -3274,7 +3277,7 @@
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="10">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -3292,7 +3295,7 @@
     </row>
     <row r="22" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="10">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -3310,7 +3313,7 @@
     </row>
     <row r="23" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="10">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -3328,7 +3331,7 @@
     </row>
     <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="10">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -3346,7 +3349,7 @@
     </row>
     <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="10">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3364,7 +3367,7 @@
     </row>
     <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="10">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3380,7 +3383,7 @@
     </row>
     <row r="27" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="10">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3398,7 +3401,7 @@
     </row>
     <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="10">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3414,7 +3417,7 @@
     </row>
     <row r="29" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="10">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3432,7 +3435,7 @@
     </row>
     <row r="30" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="10">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3450,7 +3453,7 @@
     </row>
     <row r="31" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A31" s="10">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -3466,7 +3469,7 @@
     </row>
     <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="10">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3482,7 +3485,7 @@
     </row>
     <row r="33" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A33" s="10">
-        <f>A32+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3500,7 +3503,7 @@
     </row>
     <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="10">
-        <f>A33+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3509,14 +3512,16 @@
       <c r="C34" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="10">
-        <f>A34+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -3525,14 +3530,16 @@
       <c r="C35" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="10">
-        <f>A35+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -3548,7 +3555,7 @@
     </row>
     <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="10">
-        <f>A36+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3564,7 +3571,7 @@
     </row>
     <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="10">
-        <f>A37+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -3580,7 +3587,7 @@
     </row>
     <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="10">
-        <f>A38+1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -3596,7 +3603,7 @@
     </row>
     <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="10">
-        <f>A39+1</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -3612,7 +3619,7 @@
     </row>
     <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="10">
-        <f>A40+1</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -3628,7 +3635,7 @@
     </row>
     <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="10">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -3644,7 +3651,7 @@
     </row>
     <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="10">
-        <f>A42+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -3660,7 +3667,7 @@
     </row>
     <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="10">
-        <f>A43+1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -3676,7 +3683,7 @@
     </row>
     <row r="45" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="10">
-        <f>A44+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -3694,7 +3701,7 @@
     </row>
     <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="10">
-        <f>A45+1</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -3710,7 +3717,7 @@
     </row>
     <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="10">
-        <f>A46+1</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -3726,7 +3733,7 @@
     </row>
     <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="10">
-        <f>A47+1</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -3742,7 +3749,7 @@
     </row>
     <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="10">
-        <f>A48+1</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -3758,7 +3765,7 @@
     </row>
     <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A50" s="10">
-        <f>A49+1</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -3774,7 +3781,7 @@
     </row>
     <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="10">
-        <f>A50+1</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -3783,14 +3790,16 @@
       <c r="C51" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="10">
-        <f>A51+1</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -3808,7 +3817,7 @@
     </row>
     <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="10">
-        <f>A52+1</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -3824,7 +3833,7 @@
     </row>
     <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A54" s="10">
-        <f>A53+1</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -3840,7 +3849,7 @@
     </row>
     <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A55" s="10">
-        <f>A54+1</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -3856,7 +3865,7 @@
     </row>
     <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="10">
-        <f>A55+1</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -3872,7 +3881,7 @@
     </row>
     <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="10">
-        <f>A56+1</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3888,7 +3897,7 @@
     </row>
     <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A58" s="10">
-        <f>A57+1</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -3904,7 +3913,7 @@
     </row>
     <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A59" s="10">
-        <f>A58+1</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -3920,7 +3929,7 @@
     </row>
     <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="10">
-        <f>A59+1</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -3936,7 +3945,7 @@
     </row>
     <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="10">
-        <f>A60+1</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -3952,7 +3961,7 @@
     </row>
     <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="10">
-        <f>A61+1</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -3968,7 +3977,7 @@
     </row>
     <row r="63" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="10">
-        <f>A62+1</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -3986,7 +3995,7 @@
     </row>
     <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="10">
-        <f>A63+1</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -4002,7 +4011,7 @@
     </row>
     <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A65" s="10">
-        <f>A64+1</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -4018,7 +4027,7 @@
     </row>
     <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A66" s="10">
-        <f>A65+1</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -4036,7 +4045,7 @@
     </row>
     <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="10">
-        <f>A66+1</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -4052,7 +4061,7 @@
     </row>
     <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A68" s="10">
-        <f>A67+1</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -4070,7 +4079,7 @@
     </row>
     <row r="69" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A69" s="10">
-        <f>A68+1</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -4088,7 +4097,7 @@
     </row>
     <row r="70" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="10">
-        <f>A69+1</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -4104,7 +4113,7 @@
     </row>
     <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A71" s="10">
-        <f>A70+1</f>
+        <f t="shared" ref="A71:A134" si="1">A70+1</f>
         <v>66</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -4120,7 +4129,7 @@
     </row>
     <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="10">
-        <f>A71+1</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -4136,7 +4145,7 @@
     </row>
     <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A73" s="10">
-        <f>A72+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -4152,7 +4161,7 @@
     </row>
     <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A74" s="10">
-        <f>A73+1</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -4168,7 +4177,7 @@
     </row>
     <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="10">
-        <f>A74+1</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -4186,7 +4195,7 @@
     </row>
     <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A76" s="10">
-        <f>A75+1</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -4202,7 +4211,7 @@
     </row>
     <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A77" s="10">
-        <f>A76+1</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -4218,7 +4227,7 @@
     </row>
     <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A78" s="10">
-        <f>A77+1</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -4234,7 +4243,7 @@
     </row>
     <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A79" s="10">
-        <f>A78+1</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -4250,7 +4259,7 @@
     </row>
     <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A80" s="10">
-        <f>A79+1</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -4266,7 +4275,7 @@
     </row>
     <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A81" s="10">
-        <f>A80+1</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -4282,7 +4291,7 @@
     </row>
     <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="10">
-        <f>A81+1</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -4300,7 +4309,7 @@
     </row>
     <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A83" s="10">
-        <f>A82+1</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -4316,7 +4325,7 @@
     </row>
     <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A84" s="10">
-        <f>A83+1</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -4332,7 +4341,7 @@
     </row>
     <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A85" s="10">
-        <f>A84+1</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -4341,14 +4350,16 @@
       <c r="C85" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="D85" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
     <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A86" s="10">
-        <f>A85+1</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -4366,7 +4377,7 @@
     </row>
     <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A87" s="10">
-        <f>A86+1</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -4382,7 +4393,7 @@
     </row>
     <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A88" s="10">
-        <f>A87+1</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -4398,7 +4409,7 @@
     </row>
     <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A89" s="10">
-        <f>A88+1</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -4416,7 +4427,7 @@
     </row>
     <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="10">
-        <f>A89+1</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -4432,7 +4443,7 @@
     </row>
     <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A91" s="10">
-        <f>A90+1</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -4448,7 +4459,7 @@
     </row>
     <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A92" s="10">
-        <f>A91+1</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -4464,7 +4475,7 @@
     </row>
     <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A93" s="10">
-        <f>A92+1</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -4480,7 +4491,7 @@
     </row>
     <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A94" s="10">
-        <f>A93+1</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -4496,7 +4507,7 @@
     </row>
     <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A95" s="10">
-        <f>A94+1</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -4512,7 +4523,7 @@
     </row>
     <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A96" s="10">
-        <f>A95+1</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -4528,7 +4539,7 @@
     </row>
     <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A97" s="10">
-        <f>A96+1</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -4546,7 +4557,7 @@
     </row>
     <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A98" s="10">
-        <f>A97+1</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -4562,7 +4573,7 @@
     </row>
     <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A99" s="10">
-        <f>A98+1</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -4580,7 +4591,7 @@
     </row>
     <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A100" s="10">
-        <f>A99+1</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -4596,7 +4607,7 @@
     </row>
     <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A101" s="10">
-        <f>A100+1</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -4612,7 +4623,7 @@
     </row>
     <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A102" s="10">
-        <f>A101+1</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -4628,7 +4639,7 @@
     </row>
     <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A103" s="10">
-        <f>A102+1</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -4644,7 +4655,7 @@
     </row>
     <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A104" s="10">
-        <f>A103+1</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -4660,7 +4671,7 @@
     </row>
     <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A105" s="10">
-        <f>A104+1</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -4676,7 +4687,7 @@
     </row>
     <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A106" s="10">
-        <f>A105+1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -4692,7 +4703,7 @@
     </row>
     <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A107" s="10">
-        <f>A106+1</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -4708,7 +4719,7 @@
     </row>
     <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A108" s="10">
-        <f>A107+1</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -4717,14 +4728,16 @@
       <c r="C108" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D108" s="10"/>
+      <c r="D108" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A109" s="10">
-        <f>A108+1</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -4740,7 +4753,7 @@
     </row>
     <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A110" s="10">
-        <f>A109+1</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -4756,7 +4769,7 @@
     </row>
     <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A111" s="10">
-        <f>A110+1</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -4772,7 +4785,7 @@
     </row>
     <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A112" s="10">
-        <f>A111+1</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -4788,7 +4801,7 @@
     </row>
     <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A113" s="10">
-        <f>A112+1</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -4804,7 +4817,7 @@
     </row>
     <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A114" s="10">
-        <f>A113+1</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B114" s="11" t="s">
@@ -4820,7 +4833,7 @@
     </row>
     <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A115" s="10">
-        <f>A114+1</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -4836,7 +4849,7 @@
     </row>
     <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A116" s="10">
-        <f>A115+1</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -4852,7 +4865,7 @@
     </row>
     <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A117" s="10">
-        <f>A116+1</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -4868,7 +4881,7 @@
     </row>
     <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A118" s="10">
-        <f>A117+1</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -4884,7 +4897,7 @@
     </row>
     <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A119" s="10">
-        <f>A118+1</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -4900,7 +4913,7 @@
     </row>
     <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A120" s="10">
-        <f>A119+1</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -4916,7 +4929,7 @@
     </row>
     <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A121" s="10">
-        <f>A120+1</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -4932,7 +4945,7 @@
     </row>
     <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A122" s="10">
-        <f>A121+1</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -4948,7 +4961,7 @@
     </row>
     <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A123" s="10">
-        <f>A122+1</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -4966,7 +4979,7 @@
     </row>
     <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A124" s="10">
-        <f>A123+1</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -4982,7 +4995,7 @@
     </row>
     <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A125" s="10">
-        <f>A124+1</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -4998,7 +5011,7 @@
     </row>
     <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A126" s="10">
-        <f>A125+1</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -5014,7 +5027,7 @@
     </row>
     <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A127" s="10">
-        <f>A126+1</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -5032,7 +5045,7 @@
     </row>
     <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A128" s="10">
-        <f>A127+1</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -5050,7 +5063,7 @@
     </row>
     <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A129" s="10">
-        <f>A128+1</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -5066,7 +5079,7 @@
     </row>
     <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A130" s="10">
-        <f>A129+1</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -5075,14 +5088,16 @@
       <c r="C130" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D130" s="10"/>
+      <c r="D130" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
     <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A131" s="10">
-        <f>A130+1</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -5098,7 +5113,7 @@
     </row>
     <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A132" s="10">
-        <f>A131+1</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -5114,7 +5129,7 @@
     </row>
     <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A133" s="10">
-        <f>A132+1</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -5130,7 +5145,7 @@
     </row>
     <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A134" s="10">
-        <f>A133+1</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -5146,7 +5161,7 @@
     </row>
     <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A135" s="10">
-        <f>A134+1</f>
+        <f t="shared" ref="A135:A198" si="2">A134+1</f>
         <v>130</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -5162,7 +5177,7 @@
     </row>
     <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A136" s="10">
-        <f>A135+1</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -5178,7 +5193,7 @@
     </row>
     <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A137" s="10">
-        <f>A136+1</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -5196,7 +5211,7 @@
     </row>
     <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A138" s="10">
-        <f>A137+1</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -5212,7 +5227,7 @@
     </row>
     <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A139" s="10">
-        <f>A138+1</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B139" s="11" t="s">
@@ -5228,7 +5243,7 @@
     </row>
     <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A140" s="10">
-        <f>A139+1</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B140" s="11" t="s">
@@ -5244,7 +5259,7 @@
     </row>
     <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A141" s="10">
-        <f>A140+1</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -5260,7 +5275,7 @@
     </row>
     <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A142" s="10">
-        <f>A141+1</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B142" s="11" t="s">
@@ -5276,7 +5291,7 @@
     </row>
     <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A143" s="10">
-        <f>A142+1</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -5292,7 +5307,7 @@
     </row>
     <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A144" s="10">
-        <f>A143+1</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -5308,7 +5323,7 @@
     </row>
     <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A145" s="10">
-        <f>A144+1</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -5317,14 +5332,16 @@
       <c r="C145" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D145" s="10"/>
+      <c r="D145" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
     <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A146" s="10">
-        <f>A145+1</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -5333,14 +5350,16 @@
       <c r="C146" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D146" s="10"/>
+      <c r="D146" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
     <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A147" s="10">
-        <f>A146+1</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -5349,14 +5368,16 @@
       <c r="C147" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D147" s="10"/>
+      <c r="D147" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
     <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A148" s="10">
-        <f>A147+1</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -5372,7 +5393,7 @@
     </row>
     <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A149" s="10">
-        <f>A148+1</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -5388,7 +5409,7 @@
     </row>
     <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A150" s="10">
-        <f>A149+1</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -5404,7 +5425,7 @@
     </row>
     <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A151" s="10">
-        <f>A150+1</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -5420,7 +5441,7 @@
     </row>
     <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A152" s="10">
-        <f>A151+1</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -5436,7 +5457,7 @@
     </row>
     <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A153" s="10">
-        <f>A152+1</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -5452,7 +5473,7 @@
     </row>
     <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A154" s="10">
-        <f>A153+1</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -5468,7 +5489,7 @@
     </row>
     <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A155" s="10">
-        <f>A154+1</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -5486,7 +5507,7 @@
     </row>
     <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A156" s="10">
-        <f>A155+1</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -5502,7 +5523,7 @@
     </row>
     <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A157" s="10">
-        <f>A156+1</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -5518,7 +5539,7 @@
     </row>
     <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A158" s="10">
-        <f>A157+1</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -5534,7 +5555,7 @@
     </row>
     <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A159" s="10">
-        <f>A158+1</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -5550,7 +5571,7 @@
     </row>
     <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A160" s="10">
-        <f>A159+1</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -5566,7 +5587,7 @@
     </row>
     <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A161" s="10">
-        <f>A160+1</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -5582,7 +5603,7 @@
     </row>
     <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A162" s="10">
-        <f>A161+1</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -5600,7 +5621,7 @@
     </row>
     <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A163" s="10">
-        <f>A162+1</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -5618,7 +5639,7 @@
     </row>
     <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A164" s="10">
-        <f>A163+1</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -5634,7 +5655,7 @@
     </row>
     <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A165" s="10">
-        <f>A164+1</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -5650,7 +5671,7 @@
     </row>
     <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A166" s="10">
-        <f>A165+1</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -5668,7 +5689,7 @@
     </row>
     <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A167" s="10">
-        <f>A166+1</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -5684,7 +5705,7 @@
     </row>
     <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A168" s="10">
-        <f>A167+1</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -5700,7 +5721,7 @@
     </row>
     <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A169" s="10">
-        <f>A168+1</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -5716,7 +5737,7 @@
     </row>
     <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A170" s="10">
-        <f>A169+1</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -5732,7 +5753,7 @@
     </row>
     <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A171" s="10">
-        <f>A170+1</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -5748,7 +5769,7 @@
     </row>
     <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A172" s="10">
-        <f>A171+1</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -5764,7 +5785,7 @@
     </row>
     <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A173" s="10">
-        <f>A172+1</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -5780,7 +5801,7 @@
     </row>
     <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A174" s="10">
-        <f>A173+1</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -5796,7 +5817,7 @@
     </row>
     <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A175" s="10">
-        <f>A174+1</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -5812,7 +5833,7 @@
     </row>
     <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A176" s="10">
-        <f>A175+1</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -5828,7 +5849,7 @@
     </row>
     <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A177" s="10">
-        <f>A176+1</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -5844,7 +5865,7 @@
     </row>
     <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A178" s="10">
-        <f>A177+1</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -5860,7 +5881,7 @@
     </row>
     <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A179" s="10">
-        <f>A178+1</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -5876,7 +5897,7 @@
     </row>
     <row r="180" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A180" s="10">
-        <f>A179+1</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -5894,7 +5915,7 @@
     </row>
     <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A181" s="10">
-        <f>A180+1</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -5910,7 +5931,7 @@
     </row>
     <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A182" s="10">
-        <f>A181+1</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -5926,7 +5947,7 @@
     </row>
     <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A183" s="10">
-        <f>A182+1</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -5942,7 +5963,7 @@
     </row>
     <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A184" s="10">
-        <f>A183+1</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -5951,14 +5972,16 @@
       <c r="C184" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D184" s="10"/>
+      <c r="D184" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
     <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A185" s="10">
-        <f>A184+1</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -5974,7 +5997,7 @@
     </row>
     <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A186" s="10">
-        <f>A185+1</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -5990,7 +6013,7 @@
     </row>
     <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A187" s="10">
-        <f>A186+1</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -6006,7 +6029,7 @@
     </row>
     <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A188" s="10">
-        <f>A187+1</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -6022,7 +6045,7 @@
     </row>
     <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A189" s="10">
-        <f>A188+1</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -6038,7 +6061,7 @@
     </row>
     <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A190" s="10">
-        <f>A189+1</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -6056,7 +6079,7 @@
     </row>
     <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A191" s="10">
-        <f>A190+1</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -6072,7 +6095,7 @@
     </row>
     <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A192" s="10">
-        <f>A191+1</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -6088,7 +6111,7 @@
     </row>
     <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A193" s="10">
-        <f>A192+1</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -6104,7 +6127,7 @@
     </row>
     <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A194" s="10">
-        <f>A193+1</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -6120,7 +6143,7 @@
     </row>
     <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A195" s="10">
-        <f>A194+1</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -6136,7 +6159,7 @@
     </row>
     <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A196" s="10">
-        <f>A195+1</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -6152,7 +6175,7 @@
     </row>
     <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A197" s="10">
-        <f>A196+1</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -6168,7 +6191,7 @@
     </row>
     <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A198" s="10">
-        <f>A197+1</f>
+        <f t="shared" si="2"/>
         <v>193</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -6184,7 +6207,7 @@
     </row>
     <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A199" s="10">
-        <f>A198+1</f>
+        <f t="shared" ref="A199:A262" si="3">A198+1</f>
         <v>194</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -6200,7 +6223,7 @@
     </row>
     <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A200" s="10">
-        <f>A199+1</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -6216,7 +6239,7 @@
     </row>
     <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A201" s="10">
-        <f>A200+1</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -6232,7 +6255,7 @@
     </row>
     <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A202" s="10">
-        <f>A201+1</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -6248,7 +6271,7 @@
     </row>
     <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A203" s="10">
-        <f>A202+1</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -6264,7 +6287,7 @@
     </row>
     <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A204" s="10">
-        <f>A203+1</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B204" s="11" t="s">
@@ -6280,7 +6303,7 @@
     </row>
     <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A205" s="10">
-        <f>A204+1</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -6296,7 +6319,7 @@
     </row>
     <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A206" s="10">
-        <f>A205+1</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -6312,7 +6335,7 @@
     </row>
     <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A207" s="10">
-        <f>A206+1</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B207" s="11" t="s">
@@ -6328,7 +6351,7 @@
     </row>
     <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A208" s="10">
-        <f>A207+1</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B208" s="11" t="s">
@@ -6344,7 +6367,7 @@
     </row>
     <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A209" s="10">
-        <f>A208+1</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -6360,7 +6383,7 @@
     </row>
     <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A210" s="10">
-        <f>A209+1</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -6378,7 +6401,7 @@
     </row>
     <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A211" s="10">
-        <f>A210+1</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B211" s="11" t="s">
@@ -6394,7 +6417,7 @@
     </row>
     <row r="212" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A212" s="10">
-        <f>A211+1</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B212" s="11" t="s">
@@ -6414,7 +6437,7 @@
     </row>
     <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A213" s="10">
-        <f>A212+1</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B213" s="11" t="s">
@@ -6430,7 +6453,7 @@
     </row>
     <row r="214" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A214" s="10">
-        <f>A213+1</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -6450,7 +6473,7 @@
     </row>
     <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A215" s="10">
-        <f>A214+1</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B215" s="11" t="s">
@@ -6466,7 +6489,7 @@
     </row>
     <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A216" s="10">
-        <f>A215+1</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -6482,7 +6505,7 @@
     </row>
     <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A217" s="10">
-        <f>A216+1</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B217" s="11" t="s">
@@ -6498,7 +6521,7 @@
     </row>
     <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A218" s="10">
-        <f>A217+1</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -6514,7 +6537,7 @@
     </row>
     <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A219" s="10">
-        <f>A218+1</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B219" s="11" t="s">
@@ -6530,7 +6553,7 @@
     </row>
     <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A220" s="10">
-        <f>A219+1</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -6548,7 +6571,7 @@
     </row>
     <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A221" s="10">
-        <f>A220+1</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -6566,7 +6589,7 @@
     </row>
     <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A222" s="10">
-        <f>A221+1</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -6584,7 +6607,7 @@
     </row>
     <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A223" s="10">
-        <f>A222+1</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B223" s="11" t="s">
@@ -6600,7 +6623,7 @@
     </row>
     <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A224" s="10">
-        <f>A223+1</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B224" s="11" t="s">
@@ -6618,7 +6641,7 @@
     </row>
     <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A225" s="10">
-        <f>A224+1</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B225" s="11" t="s">
@@ -6636,7 +6659,7 @@
     </row>
     <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A226" s="10">
-        <f>A225+1</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B226" s="11" t="s">
@@ -6654,7 +6677,7 @@
     </row>
     <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A227" s="10">
-        <f>A226+1</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -6672,7 +6695,7 @@
     </row>
     <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A228" s="10">
-        <f>A227+1</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B228" s="11" t="s">
@@ -6688,7 +6711,7 @@
     </row>
     <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A229" s="10">
-        <f>A228+1</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B229" s="11" t="s">
@@ -6704,7 +6727,7 @@
     </row>
     <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A230" s="10">
-        <f>A229+1</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B230" s="11" t="s">
@@ -6720,7 +6743,7 @@
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A231" s="10">
-        <f>A230+1</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B231" s="11" t="s">
@@ -6736,7 +6759,7 @@
     </row>
     <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A232" s="10">
-        <f>A231+1</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B232" s="11" t="s">
@@ -6752,7 +6775,7 @@
     </row>
     <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A233" s="10">
-        <f>A232+1</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B233" s="11" t="s">
@@ -6768,7 +6791,7 @@
     </row>
     <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A234" s="10">
-        <f>A233+1</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B234" s="11" t="s">
@@ -6786,7 +6809,7 @@
     </row>
     <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A235" s="10">
-        <f>A234+1</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B235" s="11" t="s">
@@ -6804,7 +6827,7 @@
     </row>
     <row r="236" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A236" s="10">
-        <f>A235+1</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B236" s="11" t="s">
@@ -6822,7 +6845,7 @@
     </row>
     <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A237" s="10">
-        <f>A236+1</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -6838,7 +6861,7 @@
     </row>
     <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A238" s="10">
-        <f>A237+1</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B238" s="11" t="s">
@@ -6854,7 +6877,7 @@
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A239" s="10">
-        <f>A238+1</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B239" s="11" t="s">
@@ -6870,7 +6893,7 @@
     </row>
     <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A240" s="10">
-        <f>A239+1</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B240" s="11" t="s">
@@ -6886,7 +6909,7 @@
     </row>
     <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A241" s="10">
-        <f>A240+1</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="B241" s="11" t="s">
@@ -6902,7 +6925,7 @@
     </row>
     <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A242" s="10">
-        <f>A241+1</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B242" s="11" t="s">
@@ -6918,7 +6941,7 @@
     </row>
     <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A243" s="10">
-        <f>A242+1</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B243" s="11" t="s">
@@ -6934,7 +6957,7 @@
     </row>
     <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A244" s="10">
-        <f>A243+1</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B244" s="11" t="s">
@@ -6950,7 +6973,7 @@
     </row>
     <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A245" s="10">
-        <f>A244+1</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B245" s="11" t="s">
@@ -6966,7 +6989,7 @@
     </row>
     <row r="246" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A246" s="10">
-        <f>A245+1</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B246" s="11" t="s">
@@ -6982,7 +7005,7 @@
     </row>
     <row r="247" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A247" s="10">
-        <f>A246+1</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B247" s="11" t="s">
@@ -7000,7 +7023,7 @@
     </row>
     <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A248" s="10">
-        <f>A247+1</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B248" s="11" t="s">
@@ -7016,7 +7039,7 @@
     </row>
     <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A249" s="10">
-        <f>A248+1</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B249" s="11" t="s">
@@ -7034,7 +7057,7 @@
     </row>
     <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A250" s="10">
-        <f>A249+1</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B250" s="11" t="s">
@@ -7050,7 +7073,7 @@
     </row>
     <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A251" s="10">
-        <f>A250+1</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B251" s="11" t="s">
@@ -7066,7 +7089,7 @@
     </row>
     <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A252" s="10">
-        <f>A251+1</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B252" s="11" t="s">
@@ -7082,7 +7105,7 @@
     </row>
     <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A253" s="10">
-        <f>A252+1</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B253" s="11" t="s">
@@ -7098,7 +7121,7 @@
     </row>
     <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A254" s="10">
-        <f>A253+1</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B254" s="11" t="s">
@@ -7114,7 +7137,7 @@
     </row>
     <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A255" s="10">
-        <f>A254+1</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B255" s="11" t="s">
@@ -7130,7 +7153,7 @@
     </row>
     <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A256" s="10">
-        <f>A255+1</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B256" s="11" t="s">
@@ -7146,7 +7169,7 @@
     </row>
     <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A257" s="10">
-        <f>A256+1</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B257" s="11" t="s">
@@ -7162,7 +7185,7 @@
     </row>
     <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A258" s="10">
-        <f>A257+1</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B258" s="11" t="s">
@@ -7178,7 +7201,7 @@
     </row>
     <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A259" s="10">
-        <f>A258+1</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B259" s="11" t="s">
@@ -7194,7 +7217,7 @@
     </row>
     <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A260" s="10">
-        <f>A259+1</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B260" s="11" t="s">
@@ -7210,7 +7233,7 @@
     </row>
     <row r="261" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A261" s="10">
-        <f>A260+1</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B261" s="11" t="s">
@@ -7226,7 +7249,7 @@
     </row>
     <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A262" s="10">
-        <f>A261+1</f>
+        <f t="shared" si="3"/>
         <v>257</v>
       </c>
       <c r="B262" s="11" t="s">
@@ -7242,7 +7265,7 @@
     </row>
     <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A263" s="10">
-        <f>A262+1</f>
+        <f t="shared" ref="A263:A326" si="4">A262+1</f>
         <v>258</v>
       </c>
       <c r="B263" s="11" t="s">
@@ -7258,7 +7281,7 @@
     </row>
     <row r="264" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A264" s="10">
-        <f>A263+1</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="B264" s="11" t="s">
@@ -7274,7 +7297,7 @@
     </row>
     <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A265" s="10">
-        <f>A264+1</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B265" s="11" t="s">
@@ -7290,7 +7313,7 @@
     </row>
     <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A266" s="10">
-        <f>A265+1</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B266" s="11" t="s">
@@ -7306,7 +7329,7 @@
     </row>
     <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A267" s="10">
-        <f>A266+1</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B267" s="11" t="s">
@@ -7322,7 +7345,7 @@
     </row>
     <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A268" s="10">
-        <f>A267+1</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="B268" s="11" t="s">
@@ -7338,7 +7361,7 @@
     </row>
     <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A269" s="10">
-        <f>A268+1</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="B269" s="11" t="s">
@@ -7354,7 +7377,7 @@
     </row>
     <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A270" s="10">
-        <f>A269+1</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="B270" s="11" t="s">
@@ -7370,7 +7393,7 @@
     </row>
     <row r="271" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A271" s="10">
-        <f>A270+1</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B271" s="11" t="s">
@@ -7386,7 +7409,7 @@
     </row>
     <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A272" s="10">
-        <f>A271+1</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B272" s="11" t="s">
@@ -7402,7 +7425,7 @@
     </row>
     <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A273" s="10">
-        <f>A272+1</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B273" s="11" t="s">
@@ -7418,7 +7441,7 @@
     </row>
     <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A274" s="10">
-        <f>A273+1</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B274" s="11" t="s">
@@ -7434,7 +7457,7 @@
     </row>
     <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A275" s="10">
-        <f>A274+1</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B275" s="11" t="s">
@@ -7450,7 +7473,7 @@
     </row>
     <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A276" s="10">
-        <f>A275+1</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B276" s="11" t="s">
@@ -7466,7 +7489,7 @@
     </row>
     <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A277" s="10">
-        <f>A276+1</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="B277" s="11" t="s">
@@ -7484,7 +7507,7 @@
     </row>
     <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A278" s="10">
-        <f>A277+1</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B278" s="11" t="s">
@@ -7500,7 +7523,7 @@
     </row>
     <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A279" s="10">
-        <f>A278+1</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B279" s="11" t="s">
@@ -7516,7 +7539,7 @@
     </row>
     <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A280" s="10">
-        <f>A279+1</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="B280" s="11" t="s">
@@ -7532,7 +7555,7 @@
     </row>
     <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A281" s="10">
-        <f>A280+1</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="B281" s="11" t="s">
@@ -7548,7 +7571,7 @@
     </row>
     <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A282" s="10">
-        <f>A281+1</f>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="B282" s="11" t="s">
@@ -7566,7 +7589,7 @@
     </row>
     <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A283" s="10">
-        <f>A282+1</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="B283" s="11" t="s">
@@ -7582,7 +7605,7 @@
     </row>
     <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A284" s="10">
-        <f>A283+1</f>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="B284" s="11" t="s">
@@ -7600,7 +7623,7 @@
     </row>
     <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A285" s="10">
-        <f>A284+1</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B285" s="11" t="s">
@@ -7616,7 +7639,7 @@
     </row>
     <row r="286" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A286" s="10">
-        <f>A285+1</f>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="B286" s="11" t="s">
@@ -7632,7 +7655,7 @@
     </row>
     <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A287" s="10">
-        <f>A286+1</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="B287" s="11" t="s">
@@ -7648,7 +7671,7 @@
     </row>
     <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A288" s="10">
-        <f>A287+1</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="B288" s="11" t="s">
@@ -7664,7 +7687,7 @@
     </row>
     <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A289" s="10">
-        <f>A288+1</f>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="B289" s="11" t="s">
@@ -7680,7 +7703,7 @@
     </row>
     <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A290" s="10">
-        <f>A289+1</f>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="B290" s="11" t="s">
@@ -7696,7 +7719,7 @@
     </row>
     <row r="291" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A291" s="10">
-        <f>A290+1</f>
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="B291" s="11" t="s">
@@ -7712,7 +7735,7 @@
     </row>
     <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A292" s="10">
-        <f>A291+1</f>
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B292" s="11" t="s">
@@ -7728,7 +7751,7 @@
     </row>
     <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A293" s="10">
-        <f>A292+1</f>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="B293" s="11" t="s">
@@ -7744,7 +7767,7 @@
     </row>
     <row r="294" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A294" s="10">
-        <f>A293+1</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B294" s="11" t="s">
@@ -7760,7 +7783,7 @@
     </row>
     <row r="295" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A295" s="10">
-        <f>A294+1</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="B295" s="11" t="s">
@@ -7776,7 +7799,7 @@
     </row>
     <row r="296" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A296" s="10">
-        <f>A295+1</f>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="B296" s="11" t="s">
@@ -7794,7 +7817,7 @@
     </row>
     <row r="297" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A297" s="10">
-        <f>A296+1</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="B297" s="11" t="s">
@@ -7812,7 +7835,7 @@
     </row>
     <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A298" s="10">
-        <f>A297+1</f>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="B298" s="11" t="s">
@@ -7828,7 +7851,7 @@
     </row>
     <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A299" s="10">
-        <f>A298+1</f>
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="B299" s="11" t="s">
@@ -7844,7 +7867,7 @@
     </row>
     <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A300" s="10">
-        <f>A299+1</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="B300" s="11" t="s">
@@ -7860,7 +7883,7 @@
     </row>
     <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A301" s="10">
-        <f>A300+1</f>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="B301" s="11" t="s">
@@ -7876,7 +7899,7 @@
     </row>
     <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A302" s="10">
-        <f>A301+1</f>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="B302" s="11" t="s">
@@ -7892,7 +7915,7 @@
     </row>
     <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A303" s="10">
-        <f>A302+1</f>
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="B303" s="11" t="s">
@@ -7908,7 +7931,7 @@
     </row>
     <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A304" s="10">
-        <f>A303+1</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="B304" s="11" t="s">
@@ -7924,7 +7947,7 @@
     </row>
     <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="10">
-        <f>A304+1</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="B305" s="11" t="s">
@@ -7940,7 +7963,7 @@
     </row>
     <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A306" s="10">
-        <f>A305+1</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="B306" s="11" t="s">
@@ -7956,7 +7979,7 @@
     </row>
     <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A307" s="10">
-        <f>A306+1</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="B307" s="11" t="s">
@@ -7972,7 +7995,7 @@
     </row>
     <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A308" s="10">
-        <f>A307+1</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="B308" s="11" t="s">
@@ -7988,7 +8011,7 @@
     </row>
     <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A309" s="10">
-        <f>A308+1</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="B309" s="11" t="s">
@@ -8004,7 +8027,7 @@
     </row>
     <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A310" s="10">
-        <f>A309+1</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="B310" s="11" t="s">
@@ -8020,7 +8043,7 @@
     </row>
     <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A311" s="10">
-        <f>A310+1</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="B311" s="11" t="s">
@@ -8036,7 +8059,7 @@
     </row>
     <row r="312" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A312" s="10">
-        <f>A311+1</f>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="B312" s="11" t="s">
@@ -8054,7 +8077,7 @@
     </row>
     <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A313" s="10">
-        <f>A312+1</f>
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B313" s="11" t="s">
@@ -8070,7 +8093,7 @@
     </row>
     <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A314" s="10">
-        <f>A313+1</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="B314" s="11" t="s">
@@ -8086,7 +8109,7 @@
     </row>
     <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A315" s="10">
-        <f>A314+1</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="B315" s="11" t="s">
@@ -8102,7 +8125,7 @@
     </row>
     <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A316" s="10">
-        <f>A315+1</f>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="B316" s="11" t="s">
@@ -8118,7 +8141,7 @@
     </row>
     <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A317" s="10">
-        <f>A316+1</f>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B317" s="11" t="s">
@@ -8134,7 +8157,7 @@
     </row>
     <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A318" s="10">
-        <f>A317+1</f>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B318" s="11" t="s">
@@ -8150,7 +8173,7 @@
     </row>
     <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A319" s="10">
-        <f>A318+1</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B319" s="11" t="s">
@@ -8166,7 +8189,7 @@
     </row>
     <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A320" s="10">
-        <f>A319+1</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B320" s="11" t="s">
@@ -8182,7 +8205,7 @@
     </row>
     <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A321" s="10">
-        <f>A320+1</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="B321" s="11" t="s">
@@ -8198,7 +8221,7 @@
     </row>
     <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A322" s="10">
-        <f>A321+1</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B322" s="11" t="s">
@@ -8214,7 +8237,7 @@
     </row>
     <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A323" s="10">
-        <f>A322+1</f>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="B323" s="11" t="s">
@@ -8230,7 +8253,7 @@
     </row>
     <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A324" s="10">
-        <f>A323+1</f>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="B324" s="11" t="s">
@@ -8248,7 +8271,7 @@
     </row>
     <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A325" s="10">
-        <f>A324+1</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="B325" s="11" t="s">
@@ -8264,7 +8287,7 @@
     </row>
     <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A326" s="10">
-        <f>A325+1</f>
+        <f t="shared" si="4"/>
         <v>321</v>
       </c>
       <c r="B326" s="11" t="s">
@@ -8280,7 +8303,7 @@
     </row>
     <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A327" s="10">
-        <f>A326+1</f>
+        <f t="shared" ref="A327:A390" si="5">A326+1</f>
         <v>322</v>
       </c>
       <c r="B327" s="11" t="s">
@@ -8296,7 +8319,7 @@
     </row>
     <row r="328" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A328" s="10">
-        <f>A327+1</f>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
       <c r="B328" s="11" t="s">
@@ -8312,7 +8335,7 @@
     </row>
     <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A329" s="10">
-        <f>A328+1</f>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B329" s="11" t="s">
@@ -8328,7 +8351,7 @@
     </row>
     <row r="330" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A330" s="10">
-        <f>A329+1</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B330" s="11" t="s">
@@ -8344,7 +8367,7 @@
     </row>
     <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A331" s="10">
-        <f>A330+1</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="B331" s="11" t="s">
@@ -8360,7 +8383,7 @@
     </row>
     <row r="332" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A332" s="10">
-        <f>A331+1</f>
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="B332" s="11" t="s">
@@ -8376,7 +8399,7 @@
     </row>
     <row r="333" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A333" s="10">
-        <f>A332+1</f>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="B333" s="11" t="s">
@@ -8392,7 +8415,7 @@
     </row>
     <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A334" s="10">
-        <f>A333+1</f>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="B334" s="11" t="s">
@@ -8408,7 +8431,7 @@
     </row>
     <row r="335" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A335" s="10">
-        <f>A334+1</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="B335" s="11" t="s">
@@ -8424,7 +8447,7 @@
     </row>
     <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A336" s="10">
-        <f>A335+1</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="B336" s="11" t="s">
@@ -8442,7 +8465,7 @@
     </row>
     <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A337" s="10">
-        <f>A336+1</f>
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
       <c r="B337" s="11" t="s">
@@ -8460,7 +8483,7 @@
     </row>
     <row r="338" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A338" s="10">
-        <f>A337+1</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="B338" s="11" t="s">
@@ -8476,7 +8499,7 @@
     </row>
     <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A339" s="10">
-        <f>A338+1</f>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="B339" s="11" t="s">
@@ -8492,7 +8515,7 @@
     </row>
     <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A340" s="10">
-        <f>A339+1</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="B340" s="11" t="s">
@@ -8508,7 +8531,7 @@
     </row>
     <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A341" s="10">
-        <f>A340+1</f>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="B341" s="11" t="s">
@@ -8524,7 +8547,7 @@
     </row>
     <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A342" s="10">
-        <f>A341+1</f>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="B342" s="11" t="s">
@@ -8542,7 +8565,7 @@
     </row>
     <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A343" s="10">
-        <f>A342+1</f>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="B343" s="11" t="s">
@@ -8558,7 +8581,7 @@
     </row>
     <row r="344" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A344" s="10">
-        <f>A343+1</f>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="B344" s="11" t="s">
@@ -8576,7 +8599,7 @@
     </row>
     <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A345" s="10">
-        <f>A344+1</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="B345" s="11" t="s">
@@ -8592,7 +8615,7 @@
     </row>
     <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A346" s="10">
-        <f>A345+1</f>
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="B346" s="11" t="s">
@@ -8608,7 +8631,7 @@
     </row>
     <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A347" s="10">
-        <f>A346+1</f>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="B347" s="11" t="s">
@@ -8624,7 +8647,7 @@
     </row>
     <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A348" s="10">
-        <f>A347+1</f>
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="B348" s="11" t="s">
@@ -8640,7 +8663,7 @@
     </row>
     <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A349" s="10">
-        <f>A348+1</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="B349" s="11" t="s">
@@ -8656,7 +8679,7 @@
     </row>
     <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A350" s="10">
-        <f>A349+1</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="B350" s="11" t="s">
@@ -8672,7 +8695,7 @@
     </row>
     <row r="351" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A351" s="10">
-        <f>A350+1</f>
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="B351" s="11" t="s">
@@ -8690,7 +8713,7 @@
     </row>
     <row r="352" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A352" s="10">
-        <f>A351+1</f>
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="B352" s="11" t="s">
@@ -8706,7 +8729,7 @@
     </row>
     <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A353" s="10">
-        <f>A352+1</f>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="B353" s="11" t="s">
@@ -8724,7 +8747,7 @@
     </row>
     <row r="354" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A354" s="10">
-        <f>A353+1</f>
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="B354" s="11" t="s">
@@ -8740,7 +8763,7 @@
     </row>
     <row r="355" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A355" s="10">
-        <f>A354+1</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="B355" s="11" t="s">
@@ -8756,7 +8779,7 @@
     </row>
     <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A356" s="10">
-        <f>A355+1</f>
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
       <c r="B356" s="11" t="s">
@@ -8772,7 +8795,7 @@
     </row>
     <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A357" s="10">
-        <f>A356+1</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="B357" s="11" t="s">
@@ -8788,7 +8811,7 @@
     </row>
     <row r="358" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A358" s="10">
-        <f>A357+1</f>
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="B358" s="11" t="s">
@@ -8804,7 +8827,7 @@
     </row>
     <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A359" s="10">
-        <f>A358+1</f>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="B359" s="11" t="s">
@@ -8820,7 +8843,7 @@
     </row>
     <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A360" s="10">
-        <f>A359+1</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="B360" s="11" t="s">
@@ -8836,7 +8859,7 @@
     </row>
     <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A361" s="10">
-        <f>A360+1</f>
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
       <c r="B361" s="11" t="s">
@@ -8852,7 +8875,7 @@
     </row>
     <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A362" s="10">
-        <f>A361+1</f>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="B362" s="11" t="s">
@@ -8868,7 +8891,7 @@
     </row>
     <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A363" s="10">
-        <f>A362+1</f>
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
       <c r="B363" s="11" t="s">
@@ -8884,7 +8907,7 @@
     </row>
     <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A364" s="10">
-        <f>A363+1</f>
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
       <c r="B364" s="11" t="s">
@@ -8900,7 +8923,7 @@
     </row>
     <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A365" s="10">
-        <f>A364+1</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="B365" s="11" t="s">
@@ -8916,7 +8939,7 @@
     </row>
     <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A366" s="10">
-        <f>A365+1</f>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="B366" s="11" t="s">
@@ -8932,7 +8955,7 @@
     </row>
     <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A367" s="10">
-        <f>A366+1</f>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="B367" s="11" t="s">
@@ -8948,7 +8971,7 @@
     </row>
     <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A368" s="10">
-        <f>A367+1</f>
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
       <c r="B368" s="11" t="s">
@@ -8964,7 +8987,7 @@
     </row>
     <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A369" s="10">
-        <f>A368+1</f>
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
       <c r="B369" s="11" t="s">
@@ -8980,7 +9003,7 @@
     </row>
     <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A370" s="10">
-        <f>A369+1</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="B370" s="11" t="s">
@@ -8996,7 +9019,7 @@
     </row>
     <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A371" s="10">
-        <f>A370+1</f>
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
       <c r="B371" s="11" t="s">
@@ -9012,7 +9035,7 @@
     </row>
     <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A372" s="10">
-        <f>A371+1</f>
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
       <c r="B372" s="11" t="s">
@@ -9028,7 +9051,7 @@
     </row>
     <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A373" s="10">
-        <f>A372+1</f>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="B373" s="11" t="s">
@@ -9044,7 +9067,7 @@
     </row>
     <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A374" s="10">
-        <f>A373+1</f>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="B374" s="11" t="s">
@@ -9060,7 +9083,7 @@
     </row>
     <row r="375" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A375" s="10">
-        <f>A374+1</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="B375" s="11" t="s">
@@ -9076,7 +9099,7 @@
     </row>
     <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A376" s="10">
-        <f>A375+1</f>
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
       <c r="B376" s="11" t="s">
@@ -9092,7 +9115,7 @@
     </row>
     <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A377" s="10">
-        <f>A376+1</f>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="B377" s="11" t="s">
@@ -9108,7 +9131,7 @@
     </row>
     <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A378" s="10">
-        <f>A377+1</f>
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
       <c r="B378" s="11" t="s">
@@ -9124,7 +9147,7 @@
     </row>
     <row r="379" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A379" s="10">
-        <f>A378+1</f>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="B379" s="11" t="s">
@@ -9140,7 +9163,7 @@
     </row>
     <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A380" s="10">
-        <f>A379+1</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="B380" s="11" t="s">
@@ -9156,7 +9179,7 @@
     </row>
     <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A381" s="10">
-        <f>A380+1</f>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
       <c r="B381" s="11" t="s">
@@ -9172,7 +9195,7 @@
     </row>
     <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A382" s="10">
-        <f>A381+1</f>
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="B382" s="11" t="s">
@@ -9188,7 +9211,7 @@
     </row>
     <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A383" s="10">
-        <f>A382+1</f>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="B383" s="11" t="s">
@@ -9204,7 +9227,7 @@
     </row>
     <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A384" s="10">
-        <f>A383+1</f>
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
       <c r="B384" s="11" t="s">
@@ -9220,7 +9243,7 @@
     </row>
     <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A385" s="10">
-        <f>A384+1</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="B385" s="11" t="s">
@@ -9236,7 +9259,7 @@
     </row>
     <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A386" s="10">
-        <f>A385+1</f>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="B386" s="11" t="s">
@@ -9252,7 +9275,7 @@
     </row>
     <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A387" s="10">
-        <f>A386+1</f>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="B387" s="11" t="s">
@@ -9268,7 +9291,7 @@
     </row>
     <row r="388" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A388" s="10">
-        <f>A387+1</f>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="B388" s="11" t="s">
@@ -9286,7 +9309,7 @@
     </row>
     <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A389" s="10">
-        <f>A388+1</f>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="B389" s="11" t="s">
@@ -9304,7 +9327,7 @@
     </row>
     <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A390" s="10">
-        <f>A389+1</f>
+        <f t="shared" si="5"/>
         <v>385</v>
       </c>
       <c r="B390" s="11" t="s">
@@ -9320,7 +9343,7 @@
     </row>
     <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A391" s="10">
-        <f>A390+1</f>
+        <f t="shared" ref="A391:A454" si="6">A390+1</f>
         <v>386</v>
       </c>
       <c r="B391" s="11" t="s">
@@ -9336,7 +9359,7 @@
     </row>
     <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A392" s="10">
-        <f>A391+1</f>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="B392" s="11" t="s">
@@ -9352,7 +9375,7 @@
     </row>
     <row r="393" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A393" s="10">
-        <f>A392+1</f>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="B393" s="11" t="s">
@@ -9368,7 +9391,7 @@
     </row>
     <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A394" s="10">
-        <f>A393+1</f>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="B394" s="11" t="s">
@@ -9384,7 +9407,7 @@
     </row>
     <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A395" s="10">
-        <f>A394+1</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="B395" s="11" t="s">
@@ -9400,7 +9423,7 @@
     </row>
     <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A396" s="10">
-        <f>A395+1</f>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="B396" s="11" t="s">
@@ -9416,7 +9439,7 @@
     </row>
     <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A397" s="10">
-        <f>A396+1</f>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="B397" s="11" t="s">
@@ -9432,7 +9455,7 @@
     </row>
     <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A398" s="10">
-        <f>A397+1</f>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="B398" s="11" t="s">
@@ -9448,7 +9471,7 @@
     </row>
     <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A399" s="10">
-        <f>A398+1</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="B399" s="11" t="s">
@@ -9464,7 +9487,7 @@
     </row>
     <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A400" s="10">
-        <f>A399+1</f>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="B400" s="11" t="s">
@@ -9480,7 +9503,7 @@
     </row>
     <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A401" s="10">
-        <f>A400+1</f>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="B401" s="11" t="s">
@@ -9496,7 +9519,7 @@
     </row>
     <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A402" s="10">
-        <f>A401+1</f>
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
       <c r="B402" s="11" t="s">
@@ -9512,7 +9535,7 @@
     </row>
     <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A403" s="10">
-        <f>A402+1</f>
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
       <c r="B403" s="11" t="s">
@@ -9528,7 +9551,7 @@
     </row>
     <row r="404" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A404" s="10">
-        <f>A403+1</f>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="B404" s="11" t="s">
@@ -9546,7 +9569,7 @@
     </row>
     <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A405" s="10">
-        <f>A404+1</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="B405" s="11" t="s">
@@ -9562,7 +9585,7 @@
     </row>
     <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A406" s="10">
-        <f>A405+1</f>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="B406" s="11" t="s">
@@ -9578,7 +9601,7 @@
     </row>
     <row r="407" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A407" s="10">
-        <f>A406+1</f>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="B407" s="11" t="s">
@@ -9594,7 +9617,7 @@
     </row>
     <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A408" s="10">
-        <f>A407+1</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="B408" s="11" t="s">
@@ -9610,7 +9633,7 @@
     </row>
     <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A409" s="10">
-        <f>A408+1</f>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="B409" s="11" t="s">
@@ -9626,7 +9649,7 @@
     </row>
     <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A410" s="10">
-        <f>A409+1</f>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="B410" s="11" t="s">
@@ -9642,7 +9665,7 @@
     </row>
     <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A411" s="10">
-        <f>A410+1</f>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="B411" s="11" t="s">
@@ -9658,7 +9681,7 @@
     </row>
     <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A412" s="10">
-        <f>A411+1</f>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="B412" s="11" t="s">
@@ -9674,7 +9697,7 @@
     </row>
     <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A413" s="10">
-        <f>A412+1</f>
+        <f t="shared" si="6"/>
         <v>408</v>
       </c>
       <c r="B413" s="11" t="s">
@@ -9690,7 +9713,7 @@
     </row>
     <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A414" s="10">
-        <f>A413+1</f>
+        <f t="shared" si="6"/>
         <v>409</v>
       </c>
       <c r="B414" s="11" t="s">
@@ -9706,7 +9729,7 @@
     </row>
     <row r="415" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A415" s="10">
-        <f>A414+1</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="B415" s="11" t="s">
@@ -9722,7 +9745,7 @@
     </row>
     <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A416" s="10">
-        <f>A415+1</f>
+        <f t="shared" si="6"/>
         <v>411</v>
       </c>
       <c r="B416" s="11" t="s">
@@ -9738,7 +9761,7 @@
     </row>
     <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A417" s="10">
-        <f>A416+1</f>
+        <f t="shared" si="6"/>
         <v>412</v>
       </c>
       <c r="B417" s="11" t="s">
@@ -9754,7 +9777,7 @@
     </row>
     <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A418" s="10">
-        <f>A417+1</f>
+        <f t="shared" si="6"/>
         <v>413</v>
       </c>
       <c r="B418" s="11" t="s">
@@ -9770,7 +9793,7 @@
     </row>
     <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A419" s="10">
-        <f>A418+1</f>
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="B419" s="11" t="s">
@@ -9786,7 +9809,7 @@
     </row>
     <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A420" s="10">
-        <f>A419+1</f>
+        <f t="shared" si="6"/>
         <v>415</v>
       </c>
       <c r="B420" s="11" t="s">
@@ -9802,7 +9825,7 @@
     </row>
     <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A421" s="10">
-        <f>A420+1</f>
+        <f t="shared" si="6"/>
         <v>416</v>
       </c>
       <c r="B421" s="11" t="s">
@@ -9818,7 +9841,7 @@
     </row>
     <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A422" s="10">
-        <f>A421+1</f>
+        <f t="shared" si="6"/>
         <v>417</v>
       </c>
       <c r="B422" s="11" t="s">
@@ -9834,7 +9857,7 @@
     </row>
     <row r="423" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A423" s="10">
-        <f>A422+1</f>
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
       <c r="B423" s="11" t="s">
@@ -9850,7 +9873,7 @@
     </row>
     <row r="424" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A424" s="10">
-        <f>A423+1</f>
+        <f t="shared" si="6"/>
         <v>419</v>
       </c>
       <c r="B424" s="11" t="s">
@@ -9866,7 +9889,7 @@
     </row>
     <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A425" s="10">
-        <f>A424+1</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
       <c r="B425" s="11" t="s">
@@ -9882,7 +9905,7 @@
     </row>
     <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A426" s="10">
-        <f>A425+1</f>
+        <f t="shared" si="6"/>
         <v>421</v>
       </c>
       <c r="B426" s="11" t="s">
@@ -9898,7 +9921,7 @@
     </row>
     <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A427" s="10">
-        <f>A426+1</f>
+        <f t="shared" si="6"/>
         <v>422</v>
       </c>
       <c r="B427" s="11" t="s">
@@ -9914,7 +9937,7 @@
     </row>
     <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A428" s="10">
-        <f>A427+1</f>
+        <f t="shared" si="6"/>
         <v>423</v>
       </c>
       <c r="B428" s="11" t="s">
@@ -9930,7 +9953,7 @@
     </row>
     <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A429" s="10">
-        <f>A428+1</f>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
       <c r="B429" s="11" t="s">
@@ -9946,7 +9969,7 @@
     </row>
     <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A430" s="10">
-        <f>A429+1</f>
+        <f t="shared" si="6"/>
         <v>425</v>
       </c>
       <c r="B430" s="11" t="s">
@@ -9962,7 +9985,7 @@
     </row>
     <row r="431" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A431" s="10">
-        <f>A430+1</f>
+        <f t="shared" si="6"/>
         <v>426</v>
       </c>
       <c r="B431" s="11" t="s">
@@ -9978,7 +10001,7 @@
     </row>
     <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A432" s="10">
-        <f>A431+1</f>
+        <f t="shared" si="6"/>
         <v>427</v>
       </c>
       <c r="B432" s="11" t="s">
@@ -9994,7 +10017,7 @@
     </row>
     <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A433" s="10">
-        <f>A432+1</f>
+        <f t="shared" si="6"/>
         <v>428</v>
       </c>
       <c r="B433" s="11" t="s">
@@ -10010,7 +10033,7 @@
     </row>
     <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A434" s="10">
-        <f>A433+1</f>
+        <f t="shared" si="6"/>
         <v>429</v>
       </c>
       <c r="B434" s="11" t="s">
@@ -10028,7 +10051,7 @@
     </row>
     <row r="435" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A435" s="10">
-        <f>A434+1</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="B435" s="11" t="s">
@@ -10046,7 +10069,7 @@
     </row>
     <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A436" s="10">
-        <f>A435+1</f>
+        <f t="shared" si="6"/>
         <v>431</v>
       </c>
       <c r="B436" s="11" t="s">
@@ -10062,7 +10085,7 @@
     </row>
     <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A437" s="10">
-        <f>A436+1</f>
+        <f t="shared" si="6"/>
         <v>432</v>
       </c>
       <c r="B437" s="11" t="s">
@@ -10080,7 +10103,7 @@
     </row>
     <row r="438" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A438" s="10">
-        <f>A437+1</f>
+        <f t="shared" si="6"/>
         <v>433</v>
       </c>
       <c r="B438" s="11" t="s">
@@ -10096,7 +10119,7 @@
     </row>
     <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A439" s="10">
-        <f>A438+1</f>
+        <f t="shared" si="6"/>
         <v>434</v>
       </c>
       <c r="B439" s="11" t="s">
@@ -10114,7 +10137,7 @@
     </row>
     <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A440" s="10">
-        <f>A439+1</f>
+        <f t="shared" si="6"/>
         <v>435</v>
       </c>
       <c r="B440" s="11" t="s">
@@ -10132,7 +10155,7 @@
     </row>
     <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A441" s="10">
-        <f>A440+1</f>
+        <f t="shared" si="6"/>
         <v>436</v>
       </c>
       <c r="B441" s="11" t="s">
@@ -10148,7 +10171,7 @@
     </row>
     <row r="442" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A442" s="10">
-        <f>A441+1</f>
+        <f t="shared" si="6"/>
         <v>437</v>
       </c>
       <c r="B442" s="11" t="s">
@@ -10166,7 +10189,7 @@
     </row>
     <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A443" s="10">
-        <f>A442+1</f>
+        <f t="shared" si="6"/>
         <v>438</v>
       </c>
       <c r="B443" s="11" t="s">
@@ -10182,7 +10205,7 @@
     </row>
     <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A444" s="10">
-        <f>A443+1</f>
+        <f t="shared" si="6"/>
         <v>439</v>
       </c>
       <c r="B444" s="11" t="s">
@@ -10198,7 +10221,7 @@
     </row>
     <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A445" s="10">
-        <f>A444+1</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="B445" s="11" t="s">
@@ -10214,7 +10237,7 @@
     </row>
     <row r="446" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A446" s="10">
-        <f>A445+1</f>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
       <c r="B446" s="11" t="s">
@@ -10230,7 +10253,7 @@
     </row>
     <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A447" s="10">
-        <f>A446+1</f>
+        <f t="shared" si="6"/>
         <v>442</v>
       </c>
       <c r="B447" s="11" t="s">
@@ -10246,7 +10269,7 @@
     </row>
     <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A448" s="10">
-        <f>A447+1</f>
+        <f t="shared" si="6"/>
         <v>443</v>
       </c>
       <c r="B448" s="11" t="s">
@@ -10262,7 +10285,7 @@
     </row>
     <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A449" s="10">
-        <f>A448+1</f>
+        <f t="shared" si="6"/>
         <v>444</v>
       </c>
       <c r="B449" s="11" t="s">
@@ -10278,7 +10301,7 @@
     </row>
     <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A450" s="10">
-        <f>A449+1</f>
+        <f t="shared" si="6"/>
         <v>445</v>
       </c>
       <c r="B450" s="11" t="s">
@@ -10294,7 +10317,7 @@
     </row>
     <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A451" s="10">
-        <f>A450+1</f>
+        <f t="shared" si="6"/>
         <v>446</v>
       </c>
       <c r="B451" s="11" t="s">
@@ -10312,7 +10335,7 @@
     </row>
     <row r="452" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A452" s="10">
-        <f>A451+1</f>
+        <f t="shared" si="6"/>
         <v>447</v>
       </c>
       <c r="B452" s="11" t="s">
@@ -10328,7 +10351,7 @@
     </row>
     <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A453" s="10">
-        <f>A452+1</f>
+        <f t="shared" si="6"/>
         <v>448</v>
       </c>
       <c r="B453" s="11" t="s">
@@ -10346,7 +10369,7 @@
     </row>
     <row r="454" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A454" s="10">
-        <f>A453+1</f>
+        <f t="shared" si="6"/>
         <v>449</v>
       </c>
       <c r="B454" s="11" t="s">
@@ -10362,7 +10385,7 @@
     </row>
     <row r="455" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A455" s="10">
-        <f>A454+1</f>
+        <f t="shared" ref="A455:A518" si="7">A454+1</f>
         <v>450</v>
       </c>
       <c r="B455" s="11" t="s">
@@ -10378,7 +10401,7 @@
     </row>
     <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A456" s="10">
-        <f>A455+1</f>
+        <f t="shared" si="7"/>
         <v>451</v>
       </c>
       <c r="B456" s="11" t="s">
@@ -10394,7 +10417,7 @@
     </row>
     <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A457" s="10">
-        <f>A456+1</f>
+        <f t="shared" si="7"/>
         <v>452</v>
       </c>
       <c r="B457" s="11" t="s">
@@ -10410,7 +10433,7 @@
     </row>
     <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A458" s="10">
-        <f>A457+1</f>
+        <f t="shared" si="7"/>
         <v>453</v>
       </c>
       <c r="B458" s="11" t="s">
@@ -10426,7 +10449,7 @@
     </row>
     <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A459" s="10">
-        <f>A458+1</f>
+        <f t="shared" si="7"/>
         <v>454</v>
       </c>
       <c r="B459" s="11" t="s">
@@ -10442,7 +10465,7 @@
     </row>
     <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A460" s="10">
-        <f>A459+1</f>
+        <f t="shared" si="7"/>
         <v>455</v>
       </c>
       <c r="B460" s="11" t="s">
@@ -10458,7 +10481,7 @@
     </row>
     <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A461" s="10">
-        <f>A460+1</f>
+        <f t="shared" si="7"/>
         <v>456</v>
       </c>
       <c r="B461" s="11" t="s">
@@ -10474,7 +10497,7 @@
     </row>
     <row r="462" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A462" s="10">
-        <f>A461+1</f>
+        <f t="shared" si="7"/>
         <v>457</v>
       </c>
       <c r="B462" s="11" t="s">
@@ -10490,7 +10513,7 @@
     </row>
     <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A463" s="10">
-        <f>A462+1</f>
+        <f t="shared" si="7"/>
         <v>458</v>
       </c>
       <c r="B463" s="11" t="s">
@@ -10506,7 +10529,7 @@
     </row>
     <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A464" s="10">
-        <f>A463+1</f>
+        <f t="shared" si="7"/>
         <v>459</v>
       </c>
       <c r="B464" s="11" t="s">
@@ -10522,7 +10545,7 @@
     </row>
     <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A465" s="10">
-        <f>A464+1</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
       <c r="B465" s="11" t="s">
@@ -10538,7 +10561,7 @@
     </row>
     <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A466" s="10">
-        <f>A465+1</f>
+        <f t="shared" si="7"/>
         <v>461</v>
       </c>
       <c r="B466" s="11" t="s">
@@ -10554,7 +10577,7 @@
     </row>
     <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A467" s="10">
-        <f>A466+1</f>
+        <f t="shared" si="7"/>
         <v>462</v>
       </c>
       <c r="B467" s="11" t="s">
@@ -10570,7 +10593,7 @@
     </row>
     <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A468" s="10">
-        <f>A467+1</f>
+        <f t="shared" si="7"/>
         <v>463</v>
       </c>
       <c r="B468" s="11" t="s">
@@ -10586,7 +10609,7 @@
     </row>
     <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A469" s="10">
-        <f>A468+1</f>
+        <f t="shared" si="7"/>
         <v>464</v>
       </c>
       <c r="B469" s="11" t="s">
@@ -10602,7 +10625,7 @@
     </row>
     <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A470" s="10">
-        <f>A469+1</f>
+        <f t="shared" si="7"/>
         <v>465</v>
       </c>
       <c r="B470" s="11" t="s">
@@ -10618,7 +10641,7 @@
     </row>
     <row r="471" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A471" s="10">
-        <f>A470+1</f>
+        <f t="shared" si="7"/>
         <v>466</v>
       </c>
       <c r="B471" s="11" t="s">
@@ -10634,7 +10657,7 @@
     </row>
     <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A472" s="10">
-        <f>A471+1</f>
+        <f t="shared" si="7"/>
         <v>467</v>
       </c>
       <c r="B472" s="11" t="s">
@@ -10650,7 +10673,7 @@
     </row>
     <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A473" s="10">
-        <f>A472+1</f>
+        <f t="shared" si="7"/>
         <v>468</v>
       </c>
       <c r="B473" s="11" t="s">
@@ -10668,7 +10691,7 @@
     </row>
     <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A474" s="10">
-        <f>A473+1</f>
+        <f t="shared" si="7"/>
         <v>469</v>
       </c>
       <c r="B474" s="11" t="s">
@@ -10686,7 +10709,7 @@
     </row>
     <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A475" s="10">
-        <f>A474+1</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="B475" s="11" t="s">
@@ -10702,7 +10725,7 @@
     </row>
     <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A476" s="10">
-        <f>A475+1</f>
+        <f t="shared" si="7"/>
         <v>471</v>
       </c>
       <c r="B476" s="11" t="s">
@@ -10718,7 +10741,7 @@
     </row>
     <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A477" s="10">
-        <f>A476+1</f>
+        <f t="shared" si="7"/>
         <v>472</v>
       </c>
       <c r="B477" s="11" t="s">
@@ -10734,7 +10757,7 @@
     </row>
     <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A478" s="10">
-        <f>A477+1</f>
+        <f t="shared" si="7"/>
         <v>473</v>
       </c>
       <c r="B478" s="11" t="s">
@@ -10750,7 +10773,7 @@
     </row>
     <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A479" s="10">
-        <f>A478+1</f>
+        <f t="shared" si="7"/>
         <v>474</v>
       </c>
       <c r="B479" s="11" t="s">
@@ -10766,7 +10789,7 @@
     </row>
     <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A480" s="10">
-        <f>A479+1</f>
+        <f t="shared" si="7"/>
         <v>475</v>
       </c>
       <c r="B480" s="11" t="s">
@@ -10782,7 +10805,7 @@
     </row>
     <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A481" s="10">
-        <f>A480+1</f>
+        <f t="shared" si="7"/>
         <v>476</v>
       </c>
       <c r="B481" s="11" t="s">
@@ -10798,7 +10821,7 @@
     </row>
     <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A482" s="10">
-        <f>A481+1</f>
+        <f t="shared" si="7"/>
         <v>477</v>
       </c>
       <c r="B482" s="11" t="s">
@@ -10814,7 +10837,7 @@
     </row>
     <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A483" s="10">
-        <f>A482+1</f>
+        <f t="shared" si="7"/>
         <v>478</v>
       </c>
       <c r="B483" s="11" t="s">
@@ -10830,7 +10853,7 @@
     </row>
     <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A484" s="10">
-        <f>A483+1</f>
+        <f t="shared" si="7"/>
         <v>479</v>
       </c>
       <c r="B484" s="11" t="s">
@@ -10846,7 +10869,7 @@
     </row>
     <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A485" s="10">
-        <f>A484+1</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="B485" s="11" t="s">
@@ -10862,7 +10885,7 @@
     </row>
     <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A486" s="10">
-        <f>A485+1</f>
+        <f t="shared" si="7"/>
         <v>481</v>
       </c>
       <c r="B486" s="11" t="s">
@@ -10878,7 +10901,7 @@
     </row>
     <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A487" s="10">
-        <f>A486+1</f>
+        <f t="shared" si="7"/>
         <v>482</v>
       </c>
       <c r="B487" s="11" t="s">
@@ -10894,7 +10917,7 @@
     </row>
     <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A488" s="10">
-        <f>A487+1</f>
+        <f t="shared" si="7"/>
         <v>483</v>
       </c>
       <c r="B488" s="11" t="s">
@@ -10910,7 +10933,7 @@
     </row>
     <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A489" s="10">
-        <f>A488+1</f>
+        <f t="shared" si="7"/>
         <v>484</v>
       </c>
       <c r="B489" s="11" t="s">
@@ -10926,7 +10949,7 @@
     </row>
     <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A490" s="10">
-        <f>A489+1</f>
+        <f t="shared" si="7"/>
         <v>485</v>
       </c>
       <c r="B490" s="11" t="s">
@@ -10942,7 +10965,7 @@
     </row>
     <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A491" s="10">
-        <f>A490+1</f>
+        <f t="shared" si="7"/>
         <v>486</v>
       </c>
       <c r="B491" s="11" t="s">
@@ -10958,7 +10981,7 @@
     </row>
     <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A492" s="10">
-        <f>A491+1</f>
+        <f t="shared" si="7"/>
         <v>487</v>
       </c>
       <c r="B492" s="11" t="s">
@@ -10974,7 +10997,7 @@
     </row>
     <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A493" s="10">
-        <f>A492+1</f>
+        <f t="shared" si="7"/>
         <v>488</v>
       </c>
       <c r="B493" s="11" t="s">
@@ -10990,7 +11013,7 @@
     </row>
     <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A494" s="10">
-        <f>A493+1</f>
+        <f t="shared" si="7"/>
         <v>489</v>
       </c>
       <c r="B494" s="11" t="s">
@@ -11006,7 +11029,7 @@
     </row>
     <row r="495" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A495" s="10">
-        <f>A494+1</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="B495" s="11" t="s">
@@ -11022,7 +11045,7 @@
     </row>
     <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A496" s="10">
-        <f>A495+1</f>
+        <f t="shared" si="7"/>
         <v>491</v>
       </c>
       <c r="B496" s="11" t="s">
@@ -11038,7 +11061,7 @@
     </row>
     <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A497" s="10">
-        <f>A496+1</f>
+        <f t="shared" si="7"/>
         <v>492</v>
       </c>
       <c r="B497" s="11" t="s">
@@ -11054,7 +11077,7 @@
     </row>
     <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A498" s="10">
-        <f>A497+1</f>
+        <f t="shared" si="7"/>
         <v>493</v>
       </c>
       <c r="B498" s="11" t="s">
@@ -11070,7 +11093,7 @@
     </row>
     <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A499" s="10">
-        <f>A498+1</f>
+        <f t="shared" si="7"/>
         <v>494</v>
       </c>
       <c r="B499" s="11" t="s">
@@ -11086,7 +11109,7 @@
     </row>
     <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A500" s="10">
-        <f>A499+1</f>
+        <f t="shared" si="7"/>
         <v>495</v>
       </c>
       <c r="B500" s="11" t="s">
@@ -11102,7 +11125,7 @@
     </row>
     <row r="501" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A501" s="10">
-        <f>A500+1</f>
+        <f t="shared" si="7"/>
         <v>496</v>
       </c>
       <c r="B501" s="11" t="s">
@@ -11118,7 +11141,7 @@
     </row>
     <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A502" s="10">
-        <f>A501+1</f>
+        <f t="shared" si="7"/>
         <v>497</v>
       </c>
       <c r="B502" s="11" t="s">
@@ -11134,7 +11157,7 @@
     </row>
     <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A503" s="10">
-        <f>A502+1</f>
+        <f t="shared" si="7"/>
         <v>498</v>
       </c>
       <c r="B503" s="11" t="s">
@@ -11150,7 +11173,7 @@
     </row>
     <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A504" s="10">
-        <f>A503+1</f>
+        <f t="shared" si="7"/>
         <v>499</v>
       </c>
       <c r="B504" s="11" t="s">
@@ -11166,7 +11189,7 @@
     </row>
     <row r="505" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A505" s="10">
-        <f>A504+1</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="B505" s="11" t="s">
@@ -11182,7 +11205,7 @@
     </row>
     <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A506" s="10">
-        <f>A505+1</f>
+        <f t="shared" si="7"/>
         <v>501</v>
       </c>
       <c r="B506" s="11" t="s">
@@ -11198,7 +11221,7 @@
     </row>
     <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A507" s="10">
-        <f>A506+1</f>
+        <f t="shared" si="7"/>
         <v>502</v>
       </c>
       <c r="B507" s="11" t="s">
@@ -11214,7 +11237,7 @@
     </row>
     <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A508" s="10">
-        <f>A507+1</f>
+        <f t="shared" si="7"/>
         <v>503</v>
       </c>
       <c r="B508" s="11" t="s">
@@ -11230,7 +11253,7 @@
     </row>
     <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A509" s="10">
-        <f>A508+1</f>
+        <f t="shared" si="7"/>
         <v>504</v>
       </c>
       <c r="B509" s="11" t="s">
@@ -11246,7 +11269,7 @@
     </row>
     <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A510" s="10">
-        <f>A509+1</f>
+        <f t="shared" si="7"/>
         <v>505</v>
       </c>
       <c r="B510" s="11" t="s">
@@ -11262,7 +11285,7 @@
     </row>
     <row r="511" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A511" s="10">
-        <f>A510+1</f>
+        <f t="shared" si="7"/>
         <v>506</v>
       </c>
       <c r="B511" s="11" t="s">
@@ -11278,7 +11301,7 @@
     </row>
     <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A512" s="10">
-        <f>A511+1</f>
+        <f t="shared" si="7"/>
         <v>507</v>
       </c>
       <c r="B512" s="11" t="s">
@@ -11294,7 +11317,7 @@
     </row>
     <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A513" s="10">
-        <f>A512+1</f>
+        <f t="shared" si="7"/>
         <v>508</v>
       </c>
       <c r="B513" s="11" t="s">
@@ -11310,7 +11333,7 @@
     </row>
     <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A514" s="10">
-        <f>A513+1</f>
+        <f t="shared" si="7"/>
         <v>509</v>
       </c>
       <c r="B514" s="11" t="s">
@@ -11326,7 +11349,7 @@
     </row>
     <row r="515" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A515" s="10">
-        <f>A514+1</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
       <c r="B515" s="11" t="s">
@@ -11342,7 +11365,7 @@
     </row>
     <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A516" s="10">
-        <f>A515+1</f>
+        <f t="shared" si="7"/>
         <v>511</v>
       </c>
       <c r="B516" s="11" t="s">
@@ -11358,7 +11381,7 @@
     </row>
     <row r="517" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A517" s="10">
-        <f>A516+1</f>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="B517" s="11" t="s">
@@ -11376,7 +11399,7 @@
     </row>
     <row r="518" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A518" s="10">
-        <f>A517+1</f>
+        <f t="shared" si="7"/>
         <v>513</v>
       </c>
       <c r="B518" s="11" t="s">
@@ -11394,7 +11417,7 @@
     </row>
     <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A519" s="10">
-        <f>A518+1</f>
+        <f t="shared" ref="A519:A582" si="8">A518+1</f>
         <v>514</v>
       </c>
       <c r="B519" s="11" t="s">
@@ -11410,7 +11433,7 @@
     </row>
     <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A520" s="10">
-        <f>A519+1</f>
+        <f t="shared" si="8"/>
         <v>515</v>
       </c>
       <c r="B520" s="11" t="s">
@@ -11426,7 +11449,7 @@
     </row>
     <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A521" s="10">
-        <f>A520+1</f>
+        <f t="shared" si="8"/>
         <v>516</v>
       </c>
       <c r="B521" s="11" t="s">
@@ -11442,7 +11465,7 @@
     </row>
     <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A522" s="10">
-        <f>A521+1</f>
+        <f t="shared" si="8"/>
         <v>517</v>
       </c>
       <c r="B522" s="11" t="s">
@@ -11458,7 +11481,7 @@
     </row>
     <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A523" s="10">
-        <f>A522+1</f>
+        <f t="shared" si="8"/>
         <v>518</v>
       </c>
       <c r="B523" s="11" t="s">
@@ -11474,7 +11497,7 @@
     </row>
     <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A524" s="10">
-        <f>A523+1</f>
+        <f t="shared" si="8"/>
         <v>519</v>
       </c>
       <c r="B524" s="11" t="s">
@@ -11490,7 +11513,7 @@
     </row>
     <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A525" s="10">
-        <f>A524+1</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="B525" s="11" t="s">
@@ -11506,7 +11529,7 @@
     </row>
     <row r="526" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A526" s="10">
-        <f>A525+1</f>
+        <f t="shared" si="8"/>
         <v>521</v>
       </c>
       <c r="B526" s="11" t="s">
@@ -11522,7 +11545,7 @@
     </row>
     <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A527" s="10">
-        <f>A526+1</f>
+        <f t="shared" si="8"/>
         <v>522</v>
       </c>
       <c r="B527" s="11" t="s">
@@ -11538,7 +11561,7 @@
     </row>
     <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A528" s="10">
-        <f>A527+1</f>
+        <f t="shared" si="8"/>
         <v>523</v>
       </c>
       <c r="B528" s="11" t="s">
@@ -11554,7 +11577,7 @@
     </row>
     <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A529" s="10">
-        <f>A528+1</f>
+        <f t="shared" si="8"/>
         <v>524</v>
       </c>
       <c r="B529" s="11" t="s">
@@ -11563,14 +11586,16 @@
       <c r="C529" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D529" s="10"/>
+      <c r="D529" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="E529" s="10"/>
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
     <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A530" s="10">
-        <f>A529+1</f>
+        <f t="shared" si="8"/>
         <v>525</v>
       </c>
       <c r="B530" s="11" t="s">
@@ -11588,7 +11613,7 @@
     </row>
     <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A531" s="10">
-        <f>A530+1</f>
+        <f t="shared" si="8"/>
         <v>526</v>
       </c>
       <c r="B531" s="11" t="s">
@@ -11604,7 +11629,7 @@
     </row>
     <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A532" s="10">
-        <f>A531+1</f>
+        <f t="shared" si="8"/>
         <v>527</v>
       </c>
       <c r="B532" s="11" t="s">
@@ -11620,7 +11645,7 @@
     </row>
     <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A533" s="10">
-        <f>A532+1</f>
+        <f t="shared" si="8"/>
         <v>528</v>
       </c>
       <c r="B533" s="11" t="s">
@@ -11629,14 +11654,16 @@
       <c r="C533" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D533" s="10"/>
+      <c r="D533" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E533" s="10"/>
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
     <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A534" s="10">
-        <f>A533+1</f>
+        <f t="shared" si="8"/>
         <v>529</v>
       </c>
       <c r="B534" s="11" t="s">
@@ -11652,7 +11679,7 @@
     </row>
     <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A535" s="10">
-        <f>A534+1</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
       <c r="B535" s="11" t="s">
@@ -11668,7 +11695,7 @@
     </row>
     <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A536" s="10">
-        <f>A535+1</f>
+        <f t="shared" si="8"/>
         <v>531</v>
       </c>
       <c r="B536" s="11" t="s">
@@ -11684,7 +11711,7 @@
     </row>
     <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A537" s="10">
-        <f>A536+1</f>
+        <f t="shared" si="8"/>
         <v>532</v>
       </c>
       <c r="B537" s="11" t="s">
@@ -11700,7 +11727,7 @@
     </row>
     <row r="538" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A538" s="10">
-        <f>A537+1</f>
+        <f t="shared" si="8"/>
         <v>533</v>
       </c>
       <c r="B538" s="11" t="s">
@@ -11716,7 +11743,7 @@
     </row>
     <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A539" s="10">
-        <f>A538+1</f>
+        <f t="shared" si="8"/>
         <v>534</v>
       </c>
       <c r="B539" s="11" t="s">
@@ -11732,7 +11759,7 @@
     </row>
     <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A540" s="10">
-        <f>A539+1</f>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="B540" s="11" t="s">
@@ -11748,7 +11775,7 @@
     </row>
     <row r="541" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A541" s="10">
-        <f>A540+1</f>
+        <f t="shared" si="8"/>
         <v>536</v>
       </c>
       <c r="B541" s="11" t="s">
@@ -11764,7 +11791,7 @@
     </row>
     <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A542" s="10">
-        <f>A541+1</f>
+        <f t="shared" si="8"/>
         <v>537</v>
       </c>
       <c r="B542" s="11" t="s">
@@ -11780,7 +11807,7 @@
     </row>
     <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A543" s="10">
-        <f>A542+1</f>
+        <f t="shared" si="8"/>
         <v>538</v>
       </c>
       <c r="B543" s="11" t="s">
@@ -11796,7 +11823,7 @@
     </row>
     <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A544" s="10">
-        <f>A543+1</f>
+        <f t="shared" si="8"/>
         <v>539</v>
       </c>
       <c r="B544" s="11" t="s">
@@ -11812,7 +11839,7 @@
     </row>
     <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A545" s="10">
-        <f>A544+1</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="B545" s="11" t="s">
@@ -11828,7 +11855,7 @@
     </row>
     <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A546" s="10">
-        <f>A545+1</f>
+        <f t="shared" si="8"/>
         <v>541</v>
       </c>
       <c r="B546" s="11" t="s">
@@ -11844,7 +11871,7 @@
     </row>
     <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A547" s="10">
-        <f>A546+1</f>
+        <f t="shared" si="8"/>
         <v>542</v>
       </c>
       <c r="B547" s="11" t="s">
@@ -11860,7 +11887,7 @@
     </row>
     <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A548" s="10">
-        <f>A547+1</f>
+        <f t="shared" si="8"/>
         <v>543</v>
       </c>
       <c r="B548" s="11" t="s">
@@ -11869,14 +11896,16 @@
       <c r="C548" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D548" s="10"/>
+      <c r="D548" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E548" s="10"/>
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
     <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A549" s="10">
-        <f>A548+1</f>
+        <f t="shared" si="8"/>
         <v>544</v>
       </c>
       <c r="B549" s="11" t="s">
@@ -11892,7 +11921,7 @@
     </row>
     <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A550" s="10">
-        <f>A549+1</f>
+        <f t="shared" si="8"/>
         <v>545</v>
       </c>
       <c r="B550" s="11" t="s">
@@ -11908,7 +11937,7 @@
     </row>
     <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A551" s="10">
-        <f>A550+1</f>
+        <f t="shared" si="8"/>
         <v>546</v>
       </c>
       <c r="B551" s="11" t="s">
@@ -11926,7 +11955,7 @@
     </row>
     <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A552" s="10">
-        <f>A551+1</f>
+        <f t="shared" si="8"/>
         <v>547</v>
       </c>
       <c r="B552" s="11" t="s">
@@ -11942,7 +11971,7 @@
     </row>
     <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A553" s="10">
-        <f>A552+1</f>
+        <f t="shared" si="8"/>
         <v>548</v>
       </c>
       <c r="B553" s="11" t="s">
@@ -11958,7 +11987,7 @@
     </row>
     <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A554" s="10">
-        <f>A553+1</f>
+        <f t="shared" si="8"/>
         <v>549</v>
       </c>
       <c r="B554" s="11" t="s">
@@ -11974,7 +12003,7 @@
     </row>
     <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A555" s="10">
-        <f>A554+1</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="B555" s="11" t="s">
@@ -11990,7 +12019,7 @@
     </row>
     <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A556" s="10">
-        <f>A555+1</f>
+        <f t="shared" si="8"/>
         <v>551</v>
       </c>
       <c r="B556" s="11" t="s">
@@ -12006,7 +12035,7 @@
     </row>
     <row r="557" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A557" s="10">
-        <f>A556+1</f>
+        <f t="shared" si="8"/>
         <v>552</v>
       </c>
       <c r="B557" s="11" t="s">
@@ -12022,7 +12051,7 @@
     </row>
     <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A558" s="10">
-        <f>A557+1</f>
+        <f t="shared" si="8"/>
         <v>553</v>
       </c>
       <c r="B558" s="11" t="s">
@@ -12038,7 +12067,7 @@
     </row>
     <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A559" s="10">
-        <f>A558+1</f>
+        <f t="shared" si="8"/>
         <v>554</v>
       </c>
       <c r="B559" s="11" t="s">
@@ -12056,7 +12085,7 @@
     </row>
     <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A560" s="10">
-        <f>A559+1</f>
+        <f t="shared" si="8"/>
         <v>555</v>
       </c>
       <c r="B560" s="11" t="s">
@@ -12072,7 +12101,7 @@
     </row>
     <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A561" s="10">
-        <f>A560+1</f>
+        <f t="shared" si="8"/>
         <v>556</v>
       </c>
       <c r="B561" s="11" t="s">
@@ -12088,7 +12117,7 @@
     </row>
     <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A562" s="10">
-        <f>A561+1</f>
+        <f t="shared" si="8"/>
         <v>557</v>
       </c>
       <c r="B562" s="11" t="s">
@@ -12104,7 +12133,7 @@
     </row>
     <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A563" s="10">
-        <f>A562+1</f>
+        <f t="shared" si="8"/>
         <v>558</v>
       </c>
       <c r="B563" s="11" t="s">
@@ -12120,7 +12149,7 @@
     </row>
     <row r="564" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A564" s="10">
-        <f>A563+1</f>
+        <f t="shared" si="8"/>
         <v>559</v>
       </c>
       <c r="B564" s="11" t="s">
@@ -12138,7 +12167,7 @@
     </row>
     <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A565" s="10">
-        <f>A564+1</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="B565" s="11" t="s">
@@ -12154,7 +12183,7 @@
     </row>
     <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A566" s="10">
-        <f>A565+1</f>
+        <f t="shared" si="8"/>
         <v>561</v>
       </c>
       <c r="B566" s="11" t="s">
@@ -12170,7 +12199,7 @@
     </row>
     <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A567" s="10">
-        <f>A566+1</f>
+        <f t="shared" si="8"/>
         <v>562</v>
       </c>
       <c r="B567" s="11" t="s">
@@ -12186,7 +12215,7 @@
     </row>
     <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A568" s="10">
-        <f>A567+1</f>
+        <f t="shared" si="8"/>
         <v>563</v>
       </c>
       <c r="B568" s="11" t="s">
@@ -12202,7 +12231,7 @@
     </row>
     <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A569" s="10">
-        <f>A568+1</f>
+        <f t="shared" si="8"/>
         <v>564</v>
       </c>
       <c r="B569" s="11" t="s">
@@ -12218,7 +12247,7 @@
     </row>
     <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A570" s="10">
-        <f>A569+1</f>
+        <f t="shared" si="8"/>
         <v>565</v>
       </c>
       <c r="B570" s="11" t="s">
@@ -12234,7 +12263,7 @@
     </row>
     <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A571" s="10">
-        <f>A570+1</f>
+        <f t="shared" si="8"/>
         <v>566</v>
       </c>
       <c r="B571" s="11" t="s">
@@ -12250,7 +12279,7 @@
     </row>
     <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A572" s="10">
-        <f>A571+1</f>
+        <f t="shared" si="8"/>
         <v>567</v>
       </c>
       <c r="B572" s="11" t="s">
@@ -12266,7 +12295,7 @@
     </row>
     <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A573" s="10">
-        <f>A572+1</f>
+        <f t="shared" si="8"/>
         <v>568</v>
       </c>
       <c r="B573" s="11" t="s">
@@ -12282,7 +12311,7 @@
     </row>
     <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A574" s="10">
-        <f>A573+1</f>
+        <f t="shared" si="8"/>
         <v>569</v>
       </c>
       <c r="B574" s="11" t="s">
@@ -12300,7 +12329,7 @@
     </row>
     <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A575" s="10">
-        <f>A574+1</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
       <c r="B575" s="11" t="s">
@@ -12318,7 +12347,7 @@
     </row>
     <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A576" s="10">
-        <f>A575+1</f>
+        <f t="shared" si="8"/>
         <v>571</v>
       </c>
       <c r="B576" s="11" t="s">
@@ -12334,7 +12363,7 @@
     </row>
     <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A577" s="10">
-        <f>A576+1</f>
+        <f t="shared" si="8"/>
         <v>572</v>
       </c>
       <c r="B577" s="11" t="s">
@@ -12352,7 +12381,7 @@
     </row>
     <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A578" s="10">
-        <f>A577+1</f>
+        <f t="shared" si="8"/>
         <v>573</v>
       </c>
       <c r="B578" s="11" t="s">
@@ -12361,14 +12390,16 @@
       <c r="C578" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D578" s="10"/>
+      <c r="D578" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E578" s="10"/>
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
     <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A579" s="10">
-        <f>A578+1</f>
+        <f t="shared" si="8"/>
         <v>574</v>
       </c>
       <c r="B579" s="11" t="s">
@@ -12377,14 +12408,16 @@
       <c r="C579" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D579" s="10"/>
+      <c r="D579" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E579" s="10"/>
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
     <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A580" s="10">
-        <f>A579+1</f>
+        <f t="shared" si="8"/>
         <v>575</v>
       </c>
       <c r="B580" s="11" t="s">
@@ -12393,14 +12426,16 @@
       <c r="C580" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D580" s="10"/>
+      <c r="D580" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E580" s="10"/>
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
     <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A581" s="10">
-        <f>A580+1</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="B581" s="11" t="s">
@@ -12416,7 +12451,7 @@
     </row>
     <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A582" s="10">
-        <f>A581+1</f>
+        <f t="shared" si="8"/>
         <v>577</v>
       </c>
       <c r="B582" s="11" t="s">
@@ -12432,7 +12467,7 @@
     </row>
     <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A583" s="10">
-        <f>A582+1</f>
+        <f t="shared" ref="A583:A646" si="9">A582+1</f>
         <v>578</v>
       </c>
       <c r="B583" s="11" t="s">
@@ -12448,7 +12483,7 @@
     </row>
     <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A584" s="10">
-        <f>A583+1</f>
+        <f t="shared" si="9"/>
         <v>579</v>
       </c>
       <c r="B584" s="11" t="s">
@@ -12464,7 +12499,7 @@
     </row>
     <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A585" s="10">
-        <f>A584+1</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
       <c r="B585" s="11" t="s">
@@ -12480,7 +12515,7 @@
     </row>
     <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A586" s="10">
-        <f>A585+1</f>
+        <f t="shared" si="9"/>
         <v>581</v>
       </c>
       <c r="B586" s="11" t="s">
@@ -12496,7 +12531,7 @@
     </row>
     <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A587" s="10">
-        <f>A586+1</f>
+        <f t="shared" si="9"/>
         <v>582</v>
       </c>
       <c r="B587" s="11" t="s">
@@ -12512,7 +12547,7 @@
     </row>
     <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A588" s="10">
-        <f>A587+1</f>
+        <f t="shared" si="9"/>
         <v>583</v>
       </c>
       <c r="B588" s="11" t="s">
@@ -12528,7 +12563,7 @@
     </row>
     <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A589" s="10">
-        <f>A588+1</f>
+        <f t="shared" si="9"/>
         <v>584</v>
       </c>
       <c r="B589" s="11" t="s">
@@ -12544,7 +12579,7 @@
     </row>
     <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A590" s="10">
-        <f>A589+1</f>
+        <f t="shared" si="9"/>
         <v>585</v>
       </c>
       <c r="B590" s="11" t="s">
@@ -12560,7 +12595,7 @@
     </row>
     <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A591" s="10">
-        <f>A590+1</f>
+        <f t="shared" si="9"/>
         <v>586</v>
       </c>
       <c r="B591" s="11" t="s">
@@ -12576,7 +12611,7 @@
     </row>
     <row r="592" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A592" s="10">
-        <f>A591+1</f>
+        <f t="shared" si="9"/>
         <v>587</v>
       </c>
       <c r="B592" s="11" t="s">
@@ -12594,7 +12629,7 @@
     </row>
     <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A593" s="10">
-        <f>A592+1</f>
+        <f t="shared" si="9"/>
         <v>588</v>
       </c>
       <c r="B593" s="11" t="s">
@@ -12610,7 +12645,7 @@
     </row>
     <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A594" s="10">
-        <f>A593+1</f>
+        <f t="shared" si="9"/>
         <v>589</v>
       </c>
       <c r="B594" s="11" t="s">
@@ -12626,7 +12661,7 @@
     </row>
     <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A595" s="10">
-        <f>A594+1</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
       <c r="B595" s="11" t="s">
@@ -12642,7 +12677,7 @@
     </row>
     <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A596" s="10">
-        <f>A595+1</f>
+        <f t="shared" si="9"/>
         <v>591</v>
       </c>
       <c r="B596" s="11" t="s">
@@ -12658,7 +12693,7 @@
     </row>
     <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A597" s="10">
-        <f>A596+1</f>
+        <f t="shared" si="9"/>
         <v>592</v>
       </c>
       <c r="B597" s="11" t="s">
@@ -12674,7 +12709,7 @@
     </row>
     <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A598" s="10">
-        <f>A597+1</f>
+        <f t="shared" si="9"/>
         <v>593</v>
       </c>
       <c r="B598" s="11" t="s">
@@ -12690,7 +12725,7 @@
     </row>
     <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A599" s="10">
-        <f>A598+1</f>
+        <f t="shared" si="9"/>
         <v>594</v>
       </c>
       <c r="B599" s="11" t="s">
@@ -12706,7 +12741,7 @@
     </row>
     <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A600" s="10">
-        <f>A599+1</f>
+        <f t="shared" si="9"/>
         <v>595</v>
       </c>
       <c r="B600" s="11" t="s">
@@ -12722,7 +12757,7 @@
     </row>
     <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A601" s="10">
-        <f>A600+1</f>
+        <f t="shared" si="9"/>
         <v>596</v>
       </c>
       <c r="B601" s="11" t="s">
@@ -12738,7 +12773,7 @@
     </row>
     <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A602" s="10">
-        <f>A601+1</f>
+        <f t="shared" si="9"/>
         <v>597</v>
       </c>
       <c r="B602" s="11" t="s">
@@ -12754,7 +12789,7 @@
     </row>
     <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A603" s="10">
-        <f>A602+1</f>
+        <f t="shared" si="9"/>
         <v>598</v>
       </c>
       <c r="B603" s="11" t="s">
@@ -12770,7 +12805,7 @@
     </row>
     <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A604" s="10">
-        <f>A603+1</f>
+        <f t="shared" si="9"/>
         <v>599</v>
       </c>
       <c r="B604" s="11" t="s">
@@ -12786,7 +12821,7 @@
     </row>
     <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A605" s="10">
-        <f>A604+1</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="B605" s="11" t="s">
@@ -12802,7 +12837,7 @@
     </row>
     <row r="606" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A606" s="10">
-        <f>A605+1</f>
+        <f t="shared" si="9"/>
         <v>601</v>
       </c>
       <c r="B606" s="11" t="s">
@@ -12818,7 +12853,7 @@
     </row>
     <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A607" s="10">
-        <f>A606+1</f>
+        <f t="shared" si="9"/>
         <v>602</v>
       </c>
       <c r="B607" s="11" t="s">
@@ -12834,7 +12869,7 @@
     </row>
     <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A608" s="10">
-        <f>A607+1</f>
+        <f t="shared" si="9"/>
         <v>603</v>
       </c>
       <c r="B608" s="11" t="s">
@@ -12850,7 +12885,7 @@
     </row>
     <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A609" s="10">
-        <f>A608+1</f>
+        <f t="shared" si="9"/>
         <v>604</v>
       </c>
       <c r="B609" s="11" t="s">
@@ -12866,7 +12901,7 @@
     </row>
     <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A610" s="10">
-        <f>A609+1</f>
+        <f t="shared" si="9"/>
         <v>605</v>
       </c>
       <c r="B610" s="11" t="s">
@@ -12882,7 +12917,7 @@
     </row>
     <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A611" s="10">
-        <f>A610+1</f>
+        <f t="shared" si="9"/>
         <v>606</v>
       </c>
       <c r="B611" s="11" t="s">
@@ -12898,7 +12933,7 @@
     </row>
     <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A612" s="10">
-        <f>A611+1</f>
+        <f t="shared" si="9"/>
         <v>607</v>
       </c>
       <c r="B612" s="11" t="s">
@@ -12914,7 +12949,7 @@
     </row>
     <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A613" s="10">
-        <f>A612+1</f>
+        <f t="shared" si="9"/>
         <v>608</v>
       </c>
       <c r="B613" s="11" t="s">
@@ -12930,7 +12965,7 @@
     </row>
     <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A614" s="10">
-        <f>A613+1</f>
+        <f t="shared" si="9"/>
         <v>609</v>
       </c>
       <c r="B614" s="11" t="s">
@@ -12946,7 +12981,7 @@
     </row>
     <row r="615" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A615" s="10">
-        <f>A614+1</f>
+        <f t="shared" si="9"/>
         <v>610</v>
       </c>
       <c r="B615" s="11" t="s">
@@ -12962,7 +12997,7 @@
     </row>
     <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A616" s="10">
-        <f>A615+1</f>
+        <f t="shared" si="9"/>
         <v>611</v>
       </c>
       <c r="B616" s="11" t="s">
@@ -12978,7 +13013,7 @@
     </row>
     <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A617" s="10">
-        <f>A616+1</f>
+        <f t="shared" si="9"/>
         <v>612</v>
       </c>
       <c r="B617" s="11" t="s">
@@ -12994,7 +13029,7 @@
     </row>
     <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A618" s="10">
-        <f>A617+1</f>
+        <f t="shared" si="9"/>
         <v>613</v>
       </c>
       <c r="B618" s="11" t="s">
@@ -13010,7 +13045,7 @@
     </row>
     <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A619" s="10">
-        <f>A618+1</f>
+        <f t="shared" si="9"/>
         <v>614</v>
       </c>
       <c r="B619" s="11" t="s">
@@ -13028,7 +13063,7 @@
     </row>
     <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A620" s="10">
-        <f>A619+1</f>
+        <f t="shared" si="9"/>
         <v>615</v>
       </c>
       <c r="B620" s="11" t="s">
@@ -13044,7 +13079,7 @@
     </row>
     <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A621" s="10">
-        <f>A620+1</f>
+        <f t="shared" si="9"/>
         <v>616</v>
       </c>
       <c r="B621" s="11" t="s">
@@ -13062,7 +13097,7 @@
     </row>
     <row r="622" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A622" s="10">
-        <f>A621+1</f>
+        <f t="shared" si="9"/>
         <v>617</v>
       </c>
       <c r="B622" s="11" t="s">
@@ -13078,7 +13113,7 @@
     </row>
     <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A623" s="10">
-        <f>A622+1</f>
+        <f t="shared" si="9"/>
         <v>618</v>
       </c>
       <c r="B623" s="11" t="s">
@@ -13094,7 +13129,7 @@
     </row>
     <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A624" s="10">
-        <f>A623+1</f>
+        <f t="shared" si="9"/>
         <v>619</v>
       </c>
       <c r="B624" s="11" t="s">
@@ -13110,7 +13145,7 @@
     </row>
     <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A625" s="10">
-        <f>A624+1</f>
+        <f t="shared" si="9"/>
         <v>620</v>
       </c>
       <c r="B625" s="11" t="s">
@@ -13126,7 +13161,7 @@
     </row>
     <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A626" s="10">
-        <f>A625+1</f>
+        <f t="shared" si="9"/>
         <v>621</v>
       </c>
       <c r="B626" s="11" t="s">
@@ -13142,7 +13177,7 @@
     </row>
     <row r="627" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A627" s="10">
-        <f>A626+1</f>
+        <f t="shared" si="9"/>
         <v>622</v>
       </c>
       <c r="B627" s="11" t="s">
@@ -13158,7 +13193,7 @@
     </row>
     <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A628" s="10">
-        <f>A627+1</f>
+        <f t="shared" si="9"/>
         <v>623</v>
       </c>
       <c r="B628" s="11" t="s">
@@ -13174,7 +13209,7 @@
     </row>
     <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A629" s="10">
-        <f>A628+1</f>
+        <f t="shared" si="9"/>
         <v>624</v>
       </c>
       <c r="B629" s="11" t="s">
@@ -13190,7 +13225,7 @@
     </row>
     <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A630" s="10">
-        <f>A629+1</f>
+        <f t="shared" si="9"/>
         <v>625</v>
       </c>
       <c r="B630" s="11" t="s">
@@ -13206,7 +13241,7 @@
     </row>
     <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A631" s="10">
-        <f>A630+1</f>
+        <f t="shared" si="9"/>
         <v>626</v>
       </c>
       <c r="B631" s="11" t="s">
@@ -13222,7 +13257,7 @@
     </row>
     <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A632" s="10">
-        <f>A631+1</f>
+        <f t="shared" si="9"/>
         <v>627</v>
       </c>
       <c r="B632" s="11" t="s">
@@ -13238,7 +13273,7 @@
     </row>
     <row r="633" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A633" s="10">
-        <f>A632+1</f>
+        <f t="shared" si="9"/>
         <v>628</v>
       </c>
       <c r="B633" s="11" t="s">
@@ -13256,7 +13291,7 @@
     </row>
     <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A634" s="10">
-        <f>A633+1</f>
+        <f t="shared" si="9"/>
         <v>629</v>
       </c>
       <c r="B634" s="11" t="s">
@@ -13272,7 +13307,7 @@
     </row>
     <row r="635" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A635" s="10">
-        <f>A634+1</f>
+        <f t="shared" si="9"/>
         <v>630</v>
       </c>
       <c r="B635" s="11" t="s">
@@ -13288,7 +13323,7 @@
     </row>
     <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A636" s="10">
-        <f>A635+1</f>
+        <f t="shared" si="9"/>
         <v>631</v>
       </c>
       <c r="B636" s="11" t="s">
@@ -13304,7 +13339,7 @@
     </row>
     <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A637" s="10">
-        <f>A636+1</f>
+        <f t="shared" si="9"/>
         <v>632</v>
       </c>
       <c r="B637" s="11" t="s">
@@ -13320,7 +13355,7 @@
     </row>
     <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A638" s="10">
-        <f>A637+1</f>
+        <f t="shared" si="9"/>
         <v>633</v>
       </c>
       <c r="B638" s="11" t="s">
@@ -13336,7 +13371,7 @@
     </row>
     <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A639" s="10">
-        <f>A638+1</f>
+        <f t="shared" si="9"/>
         <v>634</v>
       </c>
       <c r="B639" s="11" t="s">
@@ -13352,7 +13387,7 @@
     </row>
     <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A640" s="10">
-        <f>A639+1</f>
+        <f t="shared" si="9"/>
         <v>635</v>
       </c>
       <c r="B640" s="11" t="s">
@@ -13368,7 +13403,7 @@
     </row>
     <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A641" s="10">
-        <f>A640+1</f>
+        <f t="shared" si="9"/>
         <v>636</v>
       </c>
       <c r="B641" s="11" t="s">
@@ -13386,7 +13421,7 @@
     </row>
     <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A642" s="10">
-        <f>A641+1</f>
+        <f t="shared" si="9"/>
         <v>637</v>
       </c>
       <c r="B642" s="11" t="s">
@@ -13402,7 +13437,7 @@
     </row>
     <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A643" s="10">
-        <f>A642+1</f>
+        <f t="shared" si="9"/>
         <v>638</v>
       </c>
       <c r="B643" s="11" t="s">
@@ -13420,7 +13455,7 @@
     </row>
     <row r="644" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A644" s="10">
-        <f>A643+1</f>
+        <f t="shared" si="9"/>
         <v>639</v>
       </c>
       <c r="B644" s="11" t="s">
@@ -13436,7 +13471,7 @@
     </row>
     <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A645" s="10">
-        <f>A644+1</f>
+        <f t="shared" si="9"/>
         <v>640</v>
       </c>
       <c r="B645" s="11" t="s">
@@ -13452,7 +13487,7 @@
     </row>
     <row r="646" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A646" s="10">
-        <f>A645+1</f>
+        <f t="shared" si="9"/>
         <v>641</v>
       </c>
       <c r="B646" s="11" t="s">
@@ -13470,7 +13505,7 @@
     </row>
     <row r="647" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A647" s="10">
-        <f>A646+1</f>
+        <f t="shared" ref="A647:A710" si="10">A646+1</f>
         <v>642</v>
       </c>
       <c r="B647" s="11" t="s">
@@ -13486,7 +13521,7 @@
     </row>
     <row r="648" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A648" s="10">
-        <f>A647+1</f>
+        <f t="shared" si="10"/>
         <v>643</v>
       </c>
       <c r="B648" s="11" t="s">
@@ -13502,7 +13537,7 @@
     </row>
     <row r="649" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A649" s="10">
-        <f>A648+1</f>
+        <f t="shared" si="10"/>
         <v>644</v>
       </c>
       <c r="B649" s="11" t="s">
@@ -13518,7 +13553,7 @@
     </row>
     <row r="650" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A650" s="10">
-        <f>A649+1</f>
+        <f t="shared" si="10"/>
         <v>645</v>
       </c>
       <c r="B650" s="11" t="s">
@@ -13534,7 +13569,7 @@
     </row>
     <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A651" s="10">
-        <f>A650+1</f>
+        <f t="shared" si="10"/>
         <v>646</v>
       </c>
       <c r="B651" s="11" t="s">
@@ -13550,7 +13585,7 @@
     </row>
     <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A652" s="10">
-        <f>A651+1</f>
+        <f t="shared" si="10"/>
         <v>647</v>
       </c>
       <c r="B652" s="11" t="s">
@@ -13566,7 +13601,7 @@
     </row>
     <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A653" s="10">
-        <f>A652+1</f>
+        <f t="shared" si="10"/>
         <v>648</v>
       </c>
       <c r="B653" s="11" t="s">
@@ -13582,7 +13617,7 @@
     </row>
     <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A654" s="10">
-        <f>A653+1</f>
+        <f t="shared" si="10"/>
         <v>649</v>
       </c>
       <c r="B654" s="11" t="s">
@@ -13598,7 +13633,7 @@
     </row>
     <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A655" s="10">
-        <f>A654+1</f>
+        <f t="shared" si="10"/>
         <v>650</v>
       </c>
       <c r="B655" s="11" t="s">
@@ -13614,7 +13649,7 @@
     </row>
     <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A656" s="10">
-        <f>A655+1</f>
+        <f t="shared" si="10"/>
         <v>651</v>
       </c>
       <c r="B656" s="11" t="s">
@@ -13630,7 +13665,7 @@
     </row>
     <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A657" s="10">
-        <f>A656+1</f>
+        <f t="shared" si="10"/>
         <v>652</v>
       </c>
       <c r="B657" s="11" t="s">
@@ -13646,7 +13681,7 @@
     </row>
     <row r="658" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A658" s="10">
-        <f>A657+1</f>
+        <f t="shared" si="10"/>
         <v>653</v>
       </c>
       <c r="B658" s="11" t="s">
@@ -13664,7 +13699,7 @@
     </row>
     <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A659" s="10">
-        <f>A658+1</f>
+        <f t="shared" si="10"/>
         <v>654</v>
       </c>
       <c r="B659" s="11" t="s">
@@ -13680,7 +13715,7 @@
     </row>
     <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A660" s="10">
-        <f>A659+1</f>
+        <f t="shared" si="10"/>
         <v>655</v>
       </c>
       <c r="B660" s="11" t="s">
@@ -13696,7 +13731,7 @@
     </row>
     <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A661" s="10">
-        <f>A660+1</f>
+        <f t="shared" si="10"/>
         <v>656</v>
       </c>
       <c r="B661" s="11" t="s">
@@ -13705,14 +13740,16 @@
       <c r="C661" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D661" s="10"/>
+      <c r="D661" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E661" s="10"/>
       <c r="F661" s="10"/>
       <c r="G661" s="12"/>
     </row>
     <row r="662" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A662" s="10">
-        <f>A661+1</f>
+        <f t="shared" si="10"/>
         <v>657</v>
       </c>
       <c r="B662" s="11" t="s">
@@ -13728,7 +13765,7 @@
     </row>
     <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A663" s="10">
-        <f>A662+1</f>
+        <f t="shared" si="10"/>
         <v>658</v>
       </c>
       <c r="B663" s="11" t="s">
@@ -13744,7 +13781,7 @@
     </row>
     <row r="664" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A664" s="10">
-        <f>A663+1</f>
+        <f t="shared" si="10"/>
         <v>659</v>
       </c>
       <c r="B664" s="11" t="s">
@@ -13760,7 +13797,7 @@
     </row>
     <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A665" s="10">
-        <f>A664+1</f>
+        <f t="shared" si="10"/>
         <v>660</v>
       </c>
       <c r="B665" s="11" t="s">
@@ -13776,7 +13813,7 @@
     </row>
     <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A666" s="10">
-        <f>A665+1</f>
+        <f t="shared" si="10"/>
         <v>661</v>
       </c>
       <c r="B666" s="11" t="s">
@@ -13792,7 +13829,7 @@
     </row>
     <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A667" s="10">
-        <f>A666+1</f>
+        <f t="shared" si="10"/>
         <v>662</v>
       </c>
       <c r="B667" s="11" t="s">
@@ -13810,7 +13847,7 @@
     </row>
     <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A668" s="10">
-        <f>A667+1</f>
+        <f t="shared" si="10"/>
         <v>663</v>
       </c>
       <c r="B668" s="11" t="s">
@@ -13826,7 +13863,7 @@
     </row>
     <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A669" s="10">
-        <f>A668+1</f>
+        <f t="shared" si="10"/>
         <v>664</v>
       </c>
       <c r="B669" s="11" t="s">
@@ -13842,7 +13879,7 @@
     </row>
     <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A670" s="10">
-        <f>A669+1</f>
+        <f t="shared" si="10"/>
         <v>665</v>
       </c>
       <c r="B670" s="11" t="s">
@@ -13858,7 +13895,7 @@
     </row>
     <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A671" s="10">
-        <f>A670+1</f>
+        <f t="shared" si="10"/>
         <v>666</v>
       </c>
       <c r="B671" s="11" t="s">
@@ -13874,7 +13911,7 @@
     </row>
     <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A672" s="10">
-        <f>A671+1</f>
+        <f t="shared" si="10"/>
         <v>667</v>
       </c>
       <c r="B672" s="11" t="s">
@@ -13890,7 +13927,7 @@
     </row>
     <row r="673" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A673" s="10">
-        <f>A672+1</f>
+        <f t="shared" si="10"/>
         <v>668</v>
       </c>
       <c r="B673" s="11" t="s">
@@ -13908,7 +13945,7 @@
     </row>
     <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A674" s="10">
-        <f>A673+1</f>
+        <f t="shared" si="10"/>
         <v>669</v>
       </c>
       <c r="B674" s="11" t="s">
@@ -13926,7 +13963,7 @@
     </row>
     <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A675" s="10">
-        <f>A674+1</f>
+        <f t="shared" si="10"/>
         <v>670</v>
       </c>
       <c r="B675" s="11" t="s">
@@ -13942,7 +13979,7 @@
     </row>
     <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A676" s="10">
-        <f>A675+1</f>
+        <f t="shared" si="10"/>
         <v>671</v>
       </c>
       <c r="B676" s="11" t="s">
@@ -13958,7 +13995,7 @@
     </row>
     <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A677" s="10">
-        <f>A676+1</f>
+        <f t="shared" si="10"/>
         <v>672</v>
       </c>
       <c r="B677" s="11" t="s">
@@ -13974,7 +14011,7 @@
     </row>
     <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A678" s="10">
-        <f>A677+1</f>
+        <f t="shared" si="10"/>
         <v>673</v>
       </c>
       <c r="B678" s="11" t="s">
@@ -13992,7 +14029,7 @@
     </row>
     <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A679" s="10">
-        <f>A678+1</f>
+        <f t="shared" si="10"/>
         <v>674</v>
       </c>
       <c r="B679" s="11" t="s">
@@ -14008,7 +14045,7 @@
     </row>
     <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A680" s="10">
-        <f>A679+1</f>
+        <f t="shared" si="10"/>
         <v>675</v>
       </c>
       <c r="B680" s="11" t="s">
@@ -14024,7 +14061,7 @@
     </row>
     <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A681" s="10">
-        <f>A680+1</f>
+        <f t="shared" si="10"/>
         <v>676</v>
       </c>
       <c r="B681" s="11" t="s">
@@ -14040,7 +14077,7 @@
     </row>
     <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A682" s="10">
-        <f>A681+1</f>
+        <f t="shared" si="10"/>
         <v>677</v>
       </c>
       <c r="B682" s="11" t="s">
@@ -14056,7 +14093,7 @@
     </row>
     <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A683" s="10">
-        <f>A682+1</f>
+        <f t="shared" si="10"/>
         <v>678</v>
       </c>
       <c r="B683" s="11" t="s">
@@ -14072,7 +14109,7 @@
     </row>
     <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A684" s="10">
-        <f>A683+1</f>
+        <f t="shared" si="10"/>
         <v>679</v>
       </c>
       <c r="B684" s="11" t="s">
@@ -14088,7 +14125,7 @@
     </row>
     <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A685" s="10">
-        <f>A684+1</f>
+        <f t="shared" si="10"/>
         <v>680</v>
       </c>
       <c r="B685" s="11" t="s">
@@ -14104,7 +14141,7 @@
     </row>
     <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A686" s="10">
-        <f>A685+1</f>
+        <f t="shared" si="10"/>
         <v>681</v>
       </c>
       <c r="B686" s="11" t="s">
@@ -14120,7 +14157,7 @@
     </row>
     <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A687" s="10">
-        <f>A686+1</f>
+        <f t="shared" si="10"/>
         <v>682</v>
       </c>
       <c r="B687" s="11" t="s">
@@ -14136,7 +14173,7 @@
     </row>
     <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A688" s="10">
-        <f>A687+1</f>
+        <f t="shared" si="10"/>
         <v>683</v>
       </c>
       <c r="B688" s="11" t="s">
@@ -14154,7 +14191,7 @@
     </row>
     <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A689" s="10">
-        <f>A688+1</f>
+        <f t="shared" si="10"/>
         <v>684</v>
       </c>
       <c r="B689" s="11" t="s">
@@ -14163,14 +14200,16 @@
       <c r="C689" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D689" s="10"/>
+      <c r="D689" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E689" s="10"/>
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
     <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A690" s="10">
-        <f>A689+1</f>
+        <f t="shared" si="10"/>
         <v>685</v>
       </c>
       <c r="B690" s="11" t="s">
@@ -14186,7 +14225,7 @@
     </row>
     <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A691" s="10">
-        <f>A690+1</f>
+        <f t="shared" si="10"/>
         <v>686</v>
       </c>
       <c r="B691" s="11" t="s">
@@ -14202,7 +14241,7 @@
     </row>
     <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A692" s="10">
-        <f>A691+1</f>
+        <f t="shared" si="10"/>
         <v>687</v>
       </c>
       <c r="B692" s="11" t="s">
@@ -14218,7 +14257,7 @@
     </row>
     <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A693" s="10">
-        <f>A692+1</f>
+        <f t="shared" si="10"/>
         <v>688</v>
       </c>
       <c r="B693" s="11" t="s">
@@ -14234,7 +14273,7 @@
     </row>
     <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A694" s="10">
-        <f>A693+1</f>
+        <f t="shared" si="10"/>
         <v>689</v>
       </c>
       <c r="B694" s="11" t="s">
@@ -14250,7 +14289,7 @@
     </row>
     <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A695" s="10">
-        <f>A694+1</f>
+        <f t="shared" si="10"/>
         <v>690</v>
       </c>
       <c r="B695" s="11" t="s">
@@ -14266,7 +14305,7 @@
     </row>
     <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A696" s="10">
-        <f>A695+1</f>
+        <f t="shared" si="10"/>
         <v>691</v>
       </c>
       <c r="B696" s="11" t="s">
@@ -14282,7 +14321,7 @@
     </row>
     <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A697" s="10">
-        <f>A696+1</f>
+        <f t="shared" si="10"/>
         <v>692</v>
       </c>
       <c r="B697" s="11" t="s">
@@ -14298,7 +14337,7 @@
     </row>
     <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A698" s="10">
-        <f>A697+1</f>
+        <f t="shared" si="10"/>
         <v>693</v>
       </c>
       <c r="B698" s="11" t="s">
@@ -14314,7 +14353,7 @@
     </row>
     <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A699" s="10">
-        <f>A698+1</f>
+        <f t="shared" si="10"/>
         <v>694</v>
       </c>
       <c r="B699" s="11" t="s">
@@ -14330,7 +14369,7 @@
     </row>
     <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A700" s="10">
-        <f>A699+1</f>
+        <f t="shared" si="10"/>
         <v>695</v>
       </c>
       <c r="B700" s="11" t="s">
@@ -14346,7 +14385,7 @@
     </row>
     <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A701" s="10">
-        <f>A700+1</f>
+        <f t="shared" si="10"/>
         <v>696</v>
       </c>
       <c r="B701" s="11" t="s">
@@ -14362,7 +14401,7 @@
     </row>
     <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A702" s="10">
-        <f>A701+1</f>
+        <f t="shared" si="10"/>
         <v>697</v>
       </c>
       <c r="B702" s="11" t="s">
@@ -14378,7 +14417,7 @@
     </row>
     <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A703" s="10">
-        <f>A702+1</f>
+        <f t="shared" si="10"/>
         <v>698</v>
       </c>
       <c r="B703" s="11" t="s">
@@ -14394,7 +14433,7 @@
     </row>
     <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A704" s="10">
-        <f>A703+1</f>
+        <f t="shared" si="10"/>
         <v>699</v>
       </c>
       <c r="B704" s="11" t="s">
@@ -14410,7 +14449,7 @@
     </row>
     <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A705" s="10">
-        <f>A704+1</f>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="B705" s="11" t="s">
@@ -14426,7 +14465,7 @@
     </row>
     <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A706" s="10">
-        <f>A705+1</f>
+        <f t="shared" si="10"/>
         <v>701</v>
       </c>
       <c r="B706" s="11" t="s">
@@ -14442,7 +14481,7 @@
     </row>
     <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A707" s="10">
-        <f>A706+1</f>
+        <f t="shared" si="10"/>
         <v>702</v>
       </c>
       <c r="B707" s="11" t="s">
@@ -14458,7 +14497,7 @@
     </row>
     <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A708" s="10">
-        <f>A707+1</f>
+        <f t="shared" si="10"/>
         <v>703</v>
       </c>
       <c r="B708" s="11" t="s">
@@ -14474,7 +14513,7 @@
     </row>
     <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A709" s="10">
-        <f>A708+1</f>
+        <f t="shared" si="10"/>
         <v>704</v>
       </c>
       <c r="B709" s="11" t="s">
@@ -14490,7 +14529,7 @@
     </row>
     <row r="710" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A710" s="10">
-        <f>A709+1</f>
+        <f t="shared" si="10"/>
         <v>705</v>
       </c>
       <c r="B710" s="11" t="s">
@@ -14506,7 +14545,7 @@
     </row>
     <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A711" s="10">
-        <f>A710+1</f>
+        <f t="shared" ref="A711:A774" si="11">A710+1</f>
         <v>706</v>
       </c>
       <c r="B711" s="11" t="s">
@@ -14522,7 +14561,7 @@
     </row>
     <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A712" s="10">
-        <f>A711+1</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
       <c r="B712" s="11" t="s">
@@ -14538,7 +14577,7 @@
     </row>
     <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A713" s="10">
-        <f>A712+1</f>
+        <f t="shared" si="11"/>
         <v>708</v>
       </c>
       <c r="B713" s="11" t="s">
@@ -14554,7 +14593,7 @@
     </row>
     <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A714" s="10">
-        <f>A713+1</f>
+        <f t="shared" si="11"/>
         <v>709</v>
       </c>
       <c r="B714" s="11" t="s">
@@ -14570,7 +14609,7 @@
     </row>
     <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A715" s="10">
-        <f>A714+1</f>
+        <f t="shared" si="11"/>
         <v>710</v>
       </c>
       <c r="B715" s="11" t="s">
@@ -14586,7 +14625,7 @@
     </row>
     <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A716" s="10">
-        <f>A715+1</f>
+        <f t="shared" si="11"/>
         <v>711</v>
       </c>
       <c r="B716" s="11" t="s">
@@ -14602,7 +14641,7 @@
     </row>
     <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A717" s="10">
-        <f>A716+1</f>
+        <f t="shared" si="11"/>
         <v>712</v>
       </c>
       <c r="B717" s="11" t="s">
@@ -14618,7 +14657,7 @@
     </row>
     <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A718" s="10">
-        <f>A717+1</f>
+        <f t="shared" si="11"/>
         <v>713</v>
       </c>
       <c r="B718" s="11" t="s">
@@ -14634,7 +14673,7 @@
     </row>
     <row r="719" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A719" s="10">
-        <f>A718+1</f>
+        <f t="shared" si="11"/>
         <v>714</v>
       </c>
       <c r="B719" s="11" t="s">
@@ -14650,7 +14689,7 @@
     </row>
     <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A720" s="10">
-        <f>A719+1</f>
+        <f t="shared" si="11"/>
         <v>715</v>
       </c>
       <c r="B720" s="11" t="s">
@@ -14666,7 +14705,7 @@
     </row>
     <row r="721" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A721" s="10">
-        <f>A720+1</f>
+        <f t="shared" si="11"/>
         <v>716</v>
       </c>
       <c r="B721" s="11" t="s">
@@ -14682,7 +14721,7 @@
     </row>
     <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A722" s="10">
-        <f>A721+1</f>
+        <f t="shared" si="11"/>
         <v>717</v>
       </c>
       <c r="B722" s="11" t="s">
@@ -14700,7 +14739,7 @@
     </row>
     <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A723" s="10">
-        <f>A722+1</f>
+        <f t="shared" si="11"/>
         <v>718</v>
       </c>
       <c r="B723" s="11" t="s">
@@ -14718,7 +14757,7 @@
     </row>
     <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A724" s="10">
-        <f>A723+1</f>
+        <f t="shared" si="11"/>
         <v>719</v>
       </c>
       <c r="B724" s="11" t="s">
@@ -14736,7 +14775,7 @@
     </row>
     <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A725" s="10">
-        <f>A724+1</f>
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
       <c r="B725" s="11" t="s">
@@ -14754,7 +14793,7 @@
     </row>
     <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A726" s="10">
-        <f>A725+1</f>
+        <f t="shared" si="11"/>
         <v>721</v>
       </c>
       <c r="B726" s="11" t="s">
@@ -14770,7 +14809,7 @@
     </row>
     <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A727" s="10">
-        <f>A726+1</f>
+        <f t="shared" si="11"/>
         <v>722</v>
       </c>
       <c r="B727" s="11" t="s">
@@ -14786,7 +14825,7 @@
     </row>
     <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A728" s="10">
-        <f>A727+1</f>
+        <f t="shared" si="11"/>
         <v>723</v>
       </c>
       <c r="B728" s="11" t="s">
@@ -14802,7 +14841,7 @@
     </row>
     <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A729" s="10">
-        <f>A728+1</f>
+        <f t="shared" si="11"/>
         <v>724</v>
       </c>
       <c r="B729" s="11" t="s">
@@ -14818,7 +14857,7 @@
     </row>
     <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A730" s="10">
-        <f>A729+1</f>
+        <f t="shared" si="11"/>
         <v>725</v>
       </c>
       <c r="B730" s="11" t="s">
@@ -14834,7 +14873,7 @@
     </row>
     <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A731" s="10">
-        <f>A730+1</f>
+        <f t="shared" si="11"/>
         <v>726</v>
       </c>
       <c r="B731" s="11" t="s">
@@ -14850,7 +14889,7 @@
     </row>
     <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A732" s="10">
-        <f>A731+1</f>
+        <f t="shared" si="11"/>
         <v>727</v>
       </c>
       <c r="B732" s="11" t="s">
@@ -14866,7 +14905,7 @@
     </row>
     <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A733" s="10">
-        <f>A732+1</f>
+        <f t="shared" si="11"/>
         <v>728</v>
       </c>
       <c r="B733" s="11" t="s">
@@ -14882,7 +14921,7 @@
     </row>
     <row r="734" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A734" s="10">
-        <f>A733+1</f>
+        <f t="shared" si="11"/>
         <v>729</v>
       </c>
       <c r="B734" s="11" t="s">
@@ -14898,7 +14937,7 @@
     </row>
     <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A735" s="10">
-        <f>A734+1</f>
+        <f t="shared" si="11"/>
         <v>730</v>
       </c>
       <c r="B735" s="11" t="s">
@@ -14914,7 +14953,7 @@
     </row>
     <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A736" s="10">
-        <f>A735+1</f>
+        <f t="shared" si="11"/>
         <v>731</v>
       </c>
       <c r="B736" s="11" t="s">
@@ -14930,7 +14969,7 @@
     </row>
     <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A737" s="10">
-        <f>A736+1</f>
+        <f t="shared" si="11"/>
         <v>732</v>
       </c>
       <c r="B737" s="11" t="s">
@@ -14946,7 +14985,7 @@
     </row>
     <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A738" s="10">
-        <f>A737+1</f>
+        <f t="shared" si="11"/>
         <v>733</v>
       </c>
       <c r="B738" s="11" t="s">
@@ -14962,7 +15001,7 @@
     </row>
     <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A739" s="10">
-        <f>A738+1</f>
+        <f t="shared" si="11"/>
         <v>734</v>
       </c>
       <c r="B739" s="11" t="s">
@@ -14978,7 +15017,7 @@
     </row>
     <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A740" s="10">
-        <f>A739+1</f>
+        <f t="shared" si="11"/>
         <v>735</v>
       </c>
       <c r="B740" s="11" t="s">
@@ -14994,7 +15033,7 @@
     </row>
     <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A741" s="10">
-        <f>A740+1</f>
+        <f t="shared" si="11"/>
         <v>736</v>
       </c>
       <c r="B741" s="11" t="s">
@@ -15010,7 +15049,7 @@
     </row>
     <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A742" s="10">
-        <f>A741+1</f>
+        <f t="shared" si="11"/>
         <v>737</v>
       </c>
       <c r="B742" s="11" t="s">
@@ -15028,7 +15067,7 @@
     </row>
     <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A743" s="10">
-        <f>A742+1</f>
+        <f t="shared" si="11"/>
         <v>738</v>
       </c>
       <c r="B743" s="11" t="s">
@@ -15044,7 +15083,7 @@
     </row>
     <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A744" s="10">
-        <f>A743+1</f>
+        <f t="shared" si="11"/>
         <v>739</v>
       </c>
       <c r="B744" s="11" t="s">
@@ -15060,7 +15099,7 @@
     </row>
     <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A745" s="10">
-        <f>A744+1</f>
+        <f t="shared" si="11"/>
         <v>740</v>
       </c>
       <c r="B745" s="11" t="s">
@@ -15076,7 +15115,7 @@
     </row>
     <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A746" s="10">
-        <f>A745+1</f>
+        <f t="shared" si="11"/>
         <v>741</v>
       </c>
       <c r="B746" s="11" t="s">
@@ -15092,7 +15131,7 @@
     </row>
     <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A747" s="10">
-        <f>A746+1</f>
+        <f t="shared" si="11"/>
         <v>742</v>
       </c>
       <c r="B747" s="11" t="s">
@@ -15108,7 +15147,7 @@
     </row>
     <row r="748" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A748" s="10">
-        <f>A747+1</f>
+        <f t="shared" si="11"/>
         <v>743</v>
       </c>
       <c r="B748" s="11" t="s">
@@ -15124,7 +15163,7 @@
     </row>
     <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A749" s="10">
-        <f>A748+1</f>
+        <f t="shared" si="11"/>
         <v>744</v>
       </c>
       <c r="B749" s="11" t="s">
@@ -15142,7 +15181,7 @@
     </row>
     <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A750" s="10">
-        <f>A749+1</f>
+        <f t="shared" si="11"/>
         <v>745</v>
       </c>
       <c r="B750" s="11" t="s">
@@ -15158,7 +15197,7 @@
     </row>
     <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A751" s="10">
-        <f>A750+1</f>
+        <f t="shared" si="11"/>
         <v>746</v>
       </c>
       <c r="B751" s="11" t="s">
@@ -15174,7 +15213,7 @@
     </row>
     <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A752" s="10">
-        <f>A751+1</f>
+        <f t="shared" si="11"/>
         <v>747</v>
       </c>
       <c r="B752" s="11" t="s">
@@ -15190,7 +15229,7 @@
     </row>
     <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A753" s="10">
-        <f>A752+1</f>
+        <f t="shared" si="11"/>
         <v>748</v>
       </c>
       <c r="B753" s="11" t="s">
@@ -15206,7 +15245,7 @@
     </row>
     <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A754" s="10">
-        <f>A753+1</f>
+        <f t="shared" si="11"/>
         <v>749</v>
       </c>
       <c r="B754" s="11" t="s">
@@ -15222,7 +15261,7 @@
     </row>
     <row r="755" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A755" s="10">
-        <f>A754+1</f>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="B755" s="11" t="s">
@@ -15238,7 +15277,7 @@
     </row>
     <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A756" s="10">
-        <f>A755+1</f>
+        <f t="shared" si="11"/>
         <v>751</v>
       </c>
       <c r="B756" s="11" t="s">
@@ -15254,7 +15293,7 @@
     </row>
     <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A757" s="10">
-        <f>A756+1</f>
+        <f t="shared" si="11"/>
         <v>752</v>
       </c>
       <c r="B757" s="11" t="s">
@@ -15270,7 +15309,7 @@
     </row>
     <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A758" s="10">
-        <f>A757+1</f>
+        <f t="shared" si="11"/>
         <v>753</v>
       </c>
       <c r="B758" s="11" t="s">
@@ -15286,7 +15325,7 @@
     </row>
     <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A759" s="10">
-        <f>A758+1</f>
+        <f t="shared" si="11"/>
         <v>754</v>
       </c>
       <c r="B759" s="11" t="s">
@@ -15302,7 +15341,7 @@
     </row>
     <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A760" s="10">
-        <f>A759+1</f>
+        <f t="shared" si="11"/>
         <v>755</v>
       </c>
       <c r="B760" s="11" t="s">
@@ -15318,7 +15357,7 @@
     </row>
     <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A761" s="10">
-        <f>A760+1</f>
+        <f t="shared" si="11"/>
         <v>756</v>
       </c>
       <c r="B761" s="11" t="s">
@@ -15334,7 +15373,7 @@
     </row>
     <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A762" s="10">
-        <f>A761+1</f>
+        <f t="shared" si="11"/>
         <v>757</v>
       </c>
       <c r="B762" s="11" t="s">
@@ -15350,7 +15389,7 @@
     </row>
     <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A763" s="10">
-        <f>A762+1</f>
+        <f t="shared" si="11"/>
         <v>758</v>
       </c>
       <c r="B763" s="11" t="s">
@@ -15366,7 +15405,7 @@
     </row>
     <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A764" s="10">
-        <f>A763+1</f>
+        <f t="shared" si="11"/>
         <v>759</v>
       </c>
       <c r="B764" s="11" t="s">
@@ -15382,7 +15421,7 @@
     </row>
     <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A765" s="10">
-        <f>A764+1</f>
+        <f t="shared" si="11"/>
         <v>760</v>
       </c>
       <c r="B765" s="11" t="s">
@@ -15398,7 +15437,7 @@
     </row>
     <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A766" s="10">
-        <f>A765+1</f>
+        <f t="shared" si="11"/>
         <v>761</v>
       </c>
       <c r="B766" s="11" t="s">
@@ -15414,7 +15453,7 @@
     </row>
     <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A767" s="10">
-        <f>A766+1</f>
+        <f t="shared" si="11"/>
         <v>762</v>
       </c>
       <c r="B767" s="11" t="s">
@@ -15430,7 +15469,7 @@
     </row>
     <row r="768" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A768" s="10">
-        <f>A767+1</f>
+        <f t="shared" si="11"/>
         <v>763</v>
       </c>
       <c r="B768" s="11" t="s">
@@ -15448,7 +15487,7 @@
     </row>
     <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A769" s="10">
-        <f>A768+1</f>
+        <f t="shared" si="11"/>
         <v>764</v>
       </c>
       <c r="B769" s="11" t="s">
@@ -15464,7 +15503,7 @@
     </row>
     <row r="770" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A770" s="10">
-        <f>A769+1</f>
+        <f t="shared" si="11"/>
         <v>765</v>
       </c>
       <c r="B770" s="11" t="s">
@@ -15484,7 +15523,7 @@
     </row>
     <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A771" s="10">
-        <f>A770+1</f>
+        <f t="shared" si="11"/>
         <v>766</v>
       </c>
       <c r="B771" s="11" t="s">
@@ -15500,7 +15539,7 @@
     </row>
     <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A772" s="10">
-        <f>A771+1</f>
+        <f t="shared" si="11"/>
         <v>767</v>
       </c>
       <c r="B772" s="11" t="s">
@@ -15516,7 +15555,7 @@
     </row>
     <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A773" s="10">
-        <f>A772+1</f>
+        <f t="shared" si="11"/>
         <v>768</v>
       </c>
       <c r="B773" s="11" t="s">
@@ -15532,7 +15571,7 @@
     </row>
     <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A774" s="10">
-        <f>A773+1</f>
+        <f t="shared" si="11"/>
         <v>769</v>
       </c>
       <c r="B774" s="11" t="s">
@@ -15548,7 +15587,7 @@
     </row>
     <row r="775" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A775" s="10">
-        <f>A774+1</f>
+        <f t="shared" ref="A775:A783" si="12">A774+1</f>
         <v>770</v>
       </c>
       <c r="B775" s="11" t="s">
@@ -15568,7 +15607,7 @@
     </row>
     <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A776" s="10">
-        <f>A775+1</f>
+        <f t="shared" si="12"/>
         <v>771</v>
       </c>
       <c r="B776" s="11" t="s">
@@ -15584,7 +15623,7 @@
     </row>
     <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A777" s="10">
-        <f>A776+1</f>
+        <f t="shared" si="12"/>
         <v>772</v>
       </c>
       <c r="B777" s="11" t="s">
@@ -15600,7 +15639,7 @@
     </row>
     <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A778" s="10">
-        <f>A777+1</f>
+        <f t="shared" si="12"/>
         <v>773</v>
       </c>
       <c r="B778" s="11" t="s">
@@ -15616,7 +15655,7 @@
     </row>
     <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A779" s="10">
-        <f>A778+1</f>
+        <f t="shared" si="12"/>
         <v>774</v>
       </c>
       <c r="B779" s="11" t="s">
@@ -15632,7 +15671,7 @@
     </row>
     <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A780" s="10">
-        <f>A779+1</f>
+        <f t="shared" si="12"/>
         <v>775</v>
       </c>
       <c r="B780" s="11" t="s">
@@ -15648,7 +15687,7 @@
     </row>
     <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A781" s="10">
-        <f>A780+1</f>
+        <f t="shared" si="12"/>
         <v>776</v>
       </c>
       <c r="B781" s="11" t="s">
@@ -15664,7 +15703,7 @@
     </row>
     <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A782" s="10">
-        <f>A781+1</f>
+        <f t="shared" si="12"/>
         <v>777</v>
       </c>
       <c r="B782" s="11" t="s">
@@ -15680,7 +15719,7 @@
     </row>
     <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A783" s="10">
-        <f>A782+1</f>
+        <f t="shared" si="12"/>
         <v>778</v>
       </c>
       <c r="B783" s="11" t="s">

--- a/newrpl/docs/newRPL Command Database.xlsx
+++ b/newrpl/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="829">
   <si>
     <t>!</t>
   </si>
@@ -2954,8 +2954,8 @@
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="5" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B786" sqref="B786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2975,7 +2975,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.16580976863753213</v>
+        <v>0.17480719794344474</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3066,7 +3066,9 @@
       <c r="C8" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
@@ -3202,7 +3204,9 @@
       <c r="C16" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
@@ -3858,7 +3862,9 @@
       <c r="C55" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
@@ -5580,7 +5586,9 @@
       <c r="C160" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D160" s="10"/>
+      <c r="D160" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
@@ -14634,7 +14642,9 @@
       <c r="C716" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D716" s="10"/>
+      <c r="D716" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E716" s="10"/>
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
@@ -14866,7 +14876,9 @@
       <c r="C730" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D730" s="10"/>
+      <c r="D730" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E730" s="10"/>
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
@@ -15270,7 +15282,9 @@
       <c r="C755" s="10" t="s">
         <v>789</v>
       </c>
-      <c r="D755" s="10"/>
+      <c r="D755" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E755" s="10"/>
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>

--- a/newrpl/docs/newRPL Command Database.xlsx
+++ b/newrpl/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="836">
   <si>
     <t>!</t>
   </si>
@@ -2506,6 +2506,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Renamed to BLSR</t>
+  </si>
+  <si>
+    <t>Renamed to BLSL</t>
+  </si>
+  <si>
+    <t>Renamed to BASR</t>
+  </si>
+  <si>
+    <t>Will not implement, use !</t>
+  </si>
+  <si>
+    <t>Needs faster method for large numbers</t>
+  </si>
+  <si>
+    <t>Unicode code points</t>
+  </si>
+  <si>
+    <t>Unicode characters</t>
   </si>
 </sst>
 </file>
@@ -2951,11 +2972,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B786" sqref="B786"/>
+      <pane ySplit="5" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D787" sqref="D787"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2975,7 +2997,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -2991,7 +3013,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.17480719794344474</v>
+        <v>0.19922879177377892</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3020,7 +3042,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3037,7 +3059,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A7" s="10">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>2</v>
@@ -3055,7 +3077,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3073,7 +3095,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3089,7 +3111,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3105,7 +3127,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3121,7 +3143,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3139,7 +3161,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3157,7 +3179,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3175,7 +3197,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3193,7 +3215,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3211,7 +3233,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3227,7 +3249,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3245,7 +3267,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3263,7 +3285,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3279,7 +3301,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3297,7 +3319,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3315,7 +3337,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3333,7 +3355,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3351,7 +3373,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3369,7 +3391,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3385,7 +3407,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3403,7 +3425,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3419,7 +3441,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3437,7 +3459,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3471,7 +3493,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3505,7 +3527,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3523,7 +3545,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3541,7 +3563,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3557,7 +3579,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3573,7 +3595,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3589,7 +3611,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3605,7 +3627,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3621,7 +3643,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3637,7 +3659,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3653,7 +3675,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3669,7 +3691,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3685,7 +3707,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3703,7 +3725,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3719,7 +3741,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3735,7 +3757,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3746,12 +3768,14 @@
       <c r="C48" s="10" t="s">
         <v>792</v>
       </c>
-      <c r="D48" s="10"/>
+      <c r="D48" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3767,7 +3791,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3783,7 +3807,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3801,7 +3825,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3819,7 +3843,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3835,7 +3859,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A54" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3851,7 +3875,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A55" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3869,7 +3893,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A56" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3885,7 +3909,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A57" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3901,7 +3925,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A58" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3917,7 +3941,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3933,7 +3957,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A60" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3949,7 +3973,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3965,7 +3989,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A62" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3981,7 +4005,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A63" s="10">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3999,7 +4023,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A64" s="10">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4015,7 +4039,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A65" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4031,7 +4055,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A66" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4049,7 +4073,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A67" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4065,7 +4089,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A68" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4083,7 +4107,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A69" s="10">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4101,7 +4125,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A70" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4117,7 +4141,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A71" s="10">
         <f t="shared" ref="A71:A134" si="1">A70+1</f>
         <v>66</v>
@@ -4133,7 +4157,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A72" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4149,7 +4173,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A73" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4165,7 +4189,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A74" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4181,7 +4205,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A75" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4199,7 +4223,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A76" s="10">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4215,7 +4239,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A77" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4231,7 +4255,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A78" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4247,7 +4271,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A79" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4263,7 +4287,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A80" s="10">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4279,7 +4303,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A81" s="10">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4295,7 +4319,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4313,7 +4337,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A83" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4329,7 +4353,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A84" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4345,7 +4369,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A85" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4363,7 +4387,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A86" s="10">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4381,7 +4405,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A87" s="10">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4397,7 +4421,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A88" s="10">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4413,7 +4437,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A89" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4431,7 +4455,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A90" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4447,7 +4471,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A91" s="10">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4463,7 +4487,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A92" s="10">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4479,7 +4503,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A93" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4495,7 +4519,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A94" s="10">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4511,7 +4535,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A95" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4522,12 +4546,16 @@
       <c r="C95" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D95" s="10"/>
+      <c r="D95" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G95" s="12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A96" s="10">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4543,7 +4571,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A97" s="10">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4561,7 +4589,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A98" s="10">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4577,7 +4605,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A99" s="10">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4595,7 +4623,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A100" s="10">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4611,7 +4639,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A101" s="10">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4627,7 +4655,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A102" s="10">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4643,7 +4671,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A103" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4659,7 +4687,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A104" s="10">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4675,7 +4703,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A105" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4691,7 +4719,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A106" s="10">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4707,7 +4735,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A107" s="10">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4723,7 +4751,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A108" s="10">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4741,7 +4769,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A109" s="10">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4757,7 +4785,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A110" s="10">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4773,7 +4801,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A111" s="10">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4789,7 +4817,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A112" s="10">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4805,7 +4833,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A113" s="10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4821,7 +4849,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A114" s="10">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4837,7 +4865,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A115" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4853,7 +4881,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A116" s="10">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4869,7 +4897,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A117" s="10">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4885,7 +4913,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A118" s="10">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4901,7 +4929,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A119" s="10">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4917,7 +4945,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A120" s="10">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4933,7 +4961,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A121" s="10">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4949,7 +4977,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A122" s="10">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4965,7 +4993,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -4983,7 +5011,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A124" s="10">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -4999,7 +5027,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A125" s="10">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5015,7 +5043,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A126" s="10">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5031,7 +5059,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A127" s="10">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5049,7 +5077,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A128" s="10">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5067,7 +5095,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A129" s="10">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5083,7 +5111,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A130" s="10">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5101,7 +5129,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A131" s="10">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5117,7 +5145,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A132" s="10">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5133,7 +5161,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A133" s="10">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5149,7 +5177,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A134" s="10">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5160,12 +5188,16 @@
       <c r="C134" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="D134" s="10"/>
+      <c r="D134" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G134" s="12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A135" s="10">
         <f t="shared" ref="A135:A198" si="2">A134+1</f>
         <v>130</v>
@@ -5181,7 +5213,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A136" s="10">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5197,7 +5229,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A137" s="10">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5215,7 +5247,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A138" s="10">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5231,7 +5263,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A139" s="10">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5247,7 +5279,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A140" s="10">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5263,7 +5295,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A141" s="10">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5279,7 +5311,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A142" s="10">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5295,7 +5327,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A143" s="10">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5311,7 +5343,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A144" s="10">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5327,7 +5359,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A145" s="10">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5345,7 +5377,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A146" s="10">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5363,7 +5395,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A147" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5381,7 +5413,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A148" s="10">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5397,7 +5429,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A149" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5413,7 +5445,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A150" s="10">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5429,7 +5461,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A151" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5445,7 +5477,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A152" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5461,7 +5493,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A153" s="10">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5477,7 +5509,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A154" s="10">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5493,7 +5525,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5511,7 +5543,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A156" s="10">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5527,7 +5559,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A157" s="10">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5543,7 +5575,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A158" s="10">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5559,7 +5591,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A159" s="10">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5575,7 +5607,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A160" s="10">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5593,7 +5625,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A161" s="10">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5609,7 +5641,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A162" s="10">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5627,7 +5659,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A163" s="10">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5645,7 +5677,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A164" s="10">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5661,7 +5693,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A165" s="10">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5677,7 +5709,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A166" s="10">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5695,7 +5727,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A167" s="10">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5711,7 +5743,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A168" s="10">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5727,7 +5759,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A169" s="10">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5743,7 +5775,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A170" s="10">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5759,7 +5791,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A171" s="10">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5775,7 +5807,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A172" s="10">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5791,7 +5823,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A173" s="10">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5807,7 +5839,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A174" s="10">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5823,7 +5855,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A175" s="10">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5839,7 +5871,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A176" s="10">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5855,7 +5887,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A177" s="10">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5871,7 +5903,7 @@
       <c r="F177" s="10"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A178" s="10">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5887,7 +5919,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A179" s="10">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5921,7 +5953,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A181" s="10">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5937,7 +5969,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A182" s="10">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5953,7 +5985,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A183" s="10">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -5969,7 +6001,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A184" s="10">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -5987,7 +6019,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A185" s="10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6003,7 +6035,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A186" s="10">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6019,7 +6051,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A187" s="10">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6035,7 +6067,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A188" s="10">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6051,7 +6083,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A189" s="10">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6067,7 +6099,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A190" s="10">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6085,7 +6117,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A191" s="10">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6101,7 +6133,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A192" s="10">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6117,7 +6149,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A193" s="10">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6133,7 +6165,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A194" s="10">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6149,7 +6181,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A195" s="10">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6165,7 +6197,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A196" s="10">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6181,7 +6213,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A197" s="10">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6197,7 +6229,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A198" s="10">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6213,7 +6245,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A199" s="10">
         <f t="shared" ref="A199:A262" si="3">A198+1</f>
         <v>194</v>
@@ -6229,7 +6261,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A200" s="10">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6245,7 +6277,7 @@
       <c r="F200" s="10"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A201" s="10">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6261,7 +6293,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A202" s="10">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6277,7 +6309,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A203" s="10">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6293,7 +6325,7 @@
       <c r="F203" s="10"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A204" s="10">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6309,7 +6341,7 @@
       <c r="F204" s="10"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A205" s="10">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6325,7 +6357,7 @@
       <c r="F205" s="10"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A206" s="10">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6341,7 +6373,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A207" s="10">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6357,7 +6389,7 @@
       <c r="F207" s="10"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A208" s="10">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6373,7 +6405,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A209" s="10">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6389,7 +6421,7 @@
       <c r="F209" s="10"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A210" s="10">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6407,7 +6439,7 @@
       <c r="F210" s="10"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A211" s="10">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6423,7 +6455,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A212" s="10">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6443,7 +6475,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A213" s="10">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6459,7 +6491,7 @@
       <c r="F213" s="10"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A214" s="10">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6479,7 +6511,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A215" s="10">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6495,7 +6527,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A216" s="10">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6511,7 +6543,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A217" s="10">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6527,7 +6559,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A218" s="10">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6543,7 +6575,7 @@
       <c r="F218" s="10"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A219" s="10">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6559,7 +6591,7 @@
       <c r="F219" s="10"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A220" s="10">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6577,7 +6609,7 @@
       <c r="F220" s="10"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A221" s="10">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6595,7 +6627,7 @@
       <c r="F221" s="10"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A222" s="10">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6613,7 +6645,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A223" s="10">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6629,7 +6661,7 @@
       <c r="F223" s="10"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A224" s="10">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6647,7 +6679,7 @@
       <c r="F224" s="10"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A225" s="10">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6665,7 +6697,7 @@
       <c r="F225" s="10"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A226" s="10">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6683,7 +6715,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A227" s="10">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6701,7 +6733,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A228" s="10">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6717,7 +6749,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A229" s="10">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6733,7 +6765,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A230" s="10">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6749,7 +6781,7 @@
       <c r="F230" s="10"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A231" s="10">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6765,7 +6797,7 @@
       <c r="F231" s="10"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A232" s="10">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6781,7 +6813,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A233" s="10">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6797,7 +6829,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A234" s="10">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6815,7 +6847,7 @@
       <c r="F234" s="10"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A235" s="10">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6833,7 +6865,7 @@
       <c r="F235" s="10"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A236" s="10">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -6851,7 +6883,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A237" s="10">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6867,7 +6899,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A238" s="10">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6883,7 +6915,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A239" s="10">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6899,7 +6931,7 @@
       <c r="F239" s="10"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A240" s="10">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6915,7 +6947,7 @@
       <c r="F240" s="10"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A241" s="10">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6931,7 +6963,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A242" s="10">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6947,7 +6979,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A243" s="10">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6963,7 +6995,7 @@
       <c r="F243" s="10"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A244" s="10">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -6979,7 +7011,7 @@
       <c r="F244" s="10"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A245" s="10">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -6995,7 +7027,7 @@
       <c r="F245" s="10"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A246" s="10">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7011,7 +7043,7 @@
       <c r="F246" s="10"/>
       <c r="G246" s="12"/>
     </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A247" s="10">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -7029,7 +7061,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A248" s="10">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -7045,7 +7077,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A249" s="10">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7063,7 +7095,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A250" s="10">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7079,7 +7111,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A251" s="10">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7095,7 +7127,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A252" s="10">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7111,7 +7143,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A253" s="10">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7127,7 +7159,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A254" s="10">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7143,7 +7175,7 @@
       <c r="F254" s="10"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A255" s="10">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7159,7 +7191,7 @@
       <c r="F255" s="10"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A256" s="10">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7175,7 +7207,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A257" s="10">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7191,7 +7223,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A258" s="10">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7207,7 +7239,7 @@
       <c r="F258" s="10"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A259" s="10">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7223,7 +7255,7 @@
       <c r="F259" s="10"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A260" s="10">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7239,7 +7271,7 @@
       <c r="F260" s="10"/>
       <c r="G260" s="12"/>
     </row>
-    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A261" s="10">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -7250,12 +7282,16 @@
       <c r="C261" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="D261" s="10"/>
+      <c r="D261" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
-      <c r="G261" s="12"/>
-    </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G261" s="12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A262" s="10">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7271,7 +7307,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A263" s="10">
         <f t="shared" ref="A263:A326" si="4">A262+1</f>
         <v>258</v>
@@ -7287,7 +7323,7 @@
       <c r="F263" s="10"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A264" s="10">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7303,7 +7339,7 @@
       <c r="F264" s="10"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A265" s="10">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7319,7 +7355,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A266" s="10">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7335,7 +7371,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A267" s="10">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7346,12 +7382,14 @@
       <c r="C267" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D267" s="10"/>
+      <c r="D267" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A268" s="10">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7362,12 +7400,14 @@
       <c r="C268" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="10"/>
+      <c r="D268" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A269" s="10">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7383,7 +7423,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A270" s="10">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7399,7 +7439,7 @@
       <c r="F270" s="10"/>
       <c r="G270" s="12"/>
     </row>
-    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A271" s="10">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7415,7 +7455,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A272" s="10">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7431,7 +7471,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A273" s="10">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7447,7 +7487,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A274" s="10">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7463,7 +7503,7 @@
       <c r="F274" s="10"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A275" s="10">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7479,7 +7519,7 @@
       <c r="F275" s="10"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A276" s="10">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7495,7 +7535,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A277" s="10">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7513,7 +7553,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A278" s="10">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7529,7 +7569,7 @@
       <c r="F278" s="10"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A279" s="10">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7545,7 +7585,7 @@
       <c r="F279" s="10"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A280" s="10">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7561,7 +7601,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A281" s="10">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7577,7 +7617,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A282" s="10">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7595,7 +7635,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A283" s="10">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7611,7 +7651,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A284" s="10">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7629,7 +7669,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A285" s="10">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7645,7 +7685,7 @@
       <c r="F285" s="10"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A286" s="10">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7661,7 +7701,7 @@
       <c r="F286" s="10"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A287" s="10">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7672,12 +7712,14 @@
       <c r="C287" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D287" s="10"/>
+      <c r="D287" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A288" s="10">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7688,12 +7730,14 @@
       <c r="C288" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D288" s="10"/>
+      <c r="D288" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A289" s="10">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7709,7 +7753,7 @@
       <c r="F289" s="10"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A290" s="10">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7725,7 +7769,7 @@
       <c r="F290" s="10"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A291" s="10">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7741,7 +7785,7 @@
       <c r="F291" s="10"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A292" s="10">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7757,7 +7801,7 @@
       <c r="F292" s="10"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A293" s="10">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7773,7 +7817,7 @@
       <c r="F293" s="10"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A294" s="10">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -7789,7 +7833,7 @@
       <c r="F294" s="10"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A295" s="10">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -7805,7 +7849,7 @@
       <c r="F295" s="10"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A296" s="10">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -7823,7 +7867,7 @@
       <c r="F296" s="10"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A297" s="10">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -7841,7 +7885,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A298" s="10">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -7857,7 +7901,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A299" s="10">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -7873,7 +7917,7 @@
       <c r="F299" s="10"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A300" s="10">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -7889,7 +7933,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A301" s="10">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -7905,7 +7949,7 @@
       <c r="F301" s="10"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A302" s="10">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -7921,7 +7965,7 @@
       <c r="F302" s="10"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A303" s="10">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -7937,7 +7981,7 @@
       <c r="F303" s="10"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A304" s="10">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -7953,7 +7997,7 @@
       <c r="F304" s="10"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A305" s="10">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -7969,7 +8013,7 @@
       <c r="F305" s="10"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A306" s="10">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -7985,7 +8029,7 @@
       <c r="F306" s="10"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A307" s="10">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -8001,7 +8045,7 @@
       <c r="F307" s="10"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A308" s="10">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -8017,7 +8061,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A309" s="10">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -8033,7 +8077,7 @@
       <c r="F309" s="10"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A310" s="10">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -8049,7 +8093,7 @@
       <c r="F310" s="10"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A311" s="10">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8065,7 +8109,7 @@
       <c r="F311" s="10"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A312" s="10">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -8083,7 +8127,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A313" s="10">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8099,7 +8143,7 @@
       <c r="F313" s="10"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A314" s="10">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8115,7 +8159,7 @@
       <c r="F314" s="10"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A315" s="10">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -8131,7 +8175,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A316" s="10">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8147,7 +8191,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A317" s="10">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -8163,7 +8207,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A318" s="10">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -8179,7 +8223,7 @@
       <c r="F318" s="10"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A319" s="10">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -8195,7 +8239,7 @@
       <c r="F319" s="10"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A320" s="10">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -8211,7 +8255,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A321" s="10">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -8227,7 +8271,7 @@
       <c r="F321" s="10"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A322" s="10">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -8243,7 +8287,7 @@
       <c r="F322" s="10"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A323" s="10">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -8259,7 +8303,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A324" s="10">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -8277,7 +8321,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A325" s="10">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -8293,7 +8337,7 @@
       <c r="F325" s="10"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A326" s="10">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -8309,7 +8353,7 @@
       <c r="F326" s="10"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A327" s="10">
         <f t="shared" ref="A327:A390" si="5">A326+1</f>
         <v>322</v>
@@ -8325,7 +8369,7 @@
       <c r="F327" s="10"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A328" s="10">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -8341,7 +8385,7 @@
       <c r="F328" s="10"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A329" s="10">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -8357,7 +8401,7 @@
       <c r="F329" s="10"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A330" s="10">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -8373,7 +8417,7 @@
       <c r="F330" s="10"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A331" s="10">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -8389,7 +8433,7 @@
       <c r="F331" s="10"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A332" s="10">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -8405,7 +8449,7 @@
       <c r="F332" s="10"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A333" s="10">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -8421,7 +8465,7 @@
       <c r="F333" s="10"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A334" s="10">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -8437,7 +8481,7 @@
       <c r="F334" s="10"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A335" s="10">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -8453,7 +8497,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A336" s="10">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -8471,7 +8515,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A337" s="10">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -8489,7 +8533,7 @@
       <c r="F337" s="10"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A338" s="10">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -8505,7 +8549,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A339" s="10">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -8521,7 +8565,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A340" s="10">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -8537,7 +8581,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A341" s="10">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -8553,7 +8597,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -8571,7 +8615,7 @@
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A343" s="10">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -8605,7 +8649,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A345" s="10">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -8621,7 +8665,7 @@
       <c r="F345" s="10"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A346" s="10">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -8637,7 +8681,7 @@
       <c r="F346" s="10"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A347" s="10">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -8653,7 +8697,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A348" s="10">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -8669,7 +8713,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A349" s="10">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -8685,7 +8729,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A350" s="10">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -8701,7 +8745,7 @@
       <c r="F350" s="10"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A351" s="10">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -8719,7 +8763,7 @@
       <c r="F351" s="10"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A352" s="10">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -8735,7 +8779,7 @@
       <c r="F352" s="10"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A353" s="10">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -8753,7 +8797,7 @@
       <c r="F353" s="10"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A354" s="10">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -8769,7 +8813,7 @@
       <c r="F354" s="10"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A355" s="10">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -8785,7 +8829,7 @@
       <c r="F355" s="10"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A356" s="10">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -8801,7 +8845,7 @@
       <c r="F356" s="10"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A357" s="10">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -8817,7 +8861,7 @@
       <c r="F357" s="10"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A358" s="10">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -8828,12 +8872,16 @@
       <c r="C358" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="D358" s="10"/>
+      <c r="D358" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
-      <c r="G358" s="12"/>
-    </row>
-    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G358" s="12" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A359" s="10">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -8849,7 +8897,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A360" s="10">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -8865,7 +8913,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A361" s="10">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -8881,7 +8929,7 @@
       <c r="F361" s="10"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A362" s="10">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -8897,7 +8945,7 @@
       <c r="F362" s="10"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A363" s="10">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -8913,7 +8961,7 @@
       <c r="F363" s="10"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A364" s="10">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -8929,7 +8977,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A365" s="10">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -8945,7 +8993,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A366" s="10">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -8961,7 +9009,7 @@
       <c r="F366" s="10"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A367" s="10">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -8977,7 +9025,7 @@
       <c r="F367" s="10"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A368" s="10">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -8993,7 +9041,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A369" s="10">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -9009,7 +9057,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A370" s="10">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -9025,7 +9073,7 @@
       <c r="F370" s="10"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A371" s="10">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -9041,7 +9089,7 @@
       <c r="F371" s="10"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A372" s="10">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -9057,7 +9105,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A373" s="10">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -9073,7 +9121,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A374" s="10">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -9089,7 +9137,7 @@
       <c r="F374" s="10"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A375" s="10">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -9105,7 +9153,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A376" s="10">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -9121,7 +9169,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A377" s="10">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -9137,7 +9185,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A378" s="10">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -9153,7 +9201,7 @@
       <c r="F378" s="10"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A379" s="10">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -9169,7 +9217,7 @@
       <c r="F379" s="10"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A380" s="10">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -9185,7 +9233,7 @@
       <c r="F380" s="10"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A381" s="10">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -9201,7 +9249,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A382" s="10">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -9217,7 +9265,7 @@
       <c r="F382" s="10"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A383" s="10">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -9233,7 +9281,7 @@
       <c r="F383" s="10"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A384" s="10">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -9249,7 +9297,7 @@
       <c r="F384" s="10"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A385" s="10">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -9265,7 +9313,7 @@
       <c r="F385" s="10"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A386" s="10">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -9281,7 +9329,7 @@
       <c r="F386" s="10"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A387" s="10">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -9297,7 +9345,7 @@
       <c r="F387" s="10"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A388" s="10">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -9315,7 +9363,7 @@
       <c r="F388" s="10"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A389" s="10">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -9333,7 +9381,7 @@
       <c r="F389" s="10"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A390" s="10">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -9349,7 +9397,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A391" s="10">
         <f t="shared" ref="A391:A454" si="6">A390+1</f>
         <v>386</v>
@@ -9365,7 +9413,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A392" s="10">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -9397,7 +9445,7 @@
       <c r="F393" s="10"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A394" s="10">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -9413,7 +9461,7 @@
       <c r="F394" s="10"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A395" s="10">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -9429,7 +9477,7 @@
       <c r="F395" s="10"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A396" s="10">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -9445,7 +9493,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A397" s="10">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -9461,7 +9509,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A398" s="10">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -9477,7 +9525,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A399" s="10">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -9493,7 +9541,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A400" s="10">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -9509,7 +9557,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A401" s="10">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -9525,7 +9573,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A402" s="10">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -9541,7 +9589,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A403" s="10">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -9557,7 +9605,7 @@
       <c r="F403" s="10"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A404" s="10">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -9575,7 +9623,7 @@
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A405" s="10">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -9591,7 +9639,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A406" s="10">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -9607,7 +9655,7 @@
       <c r="F406" s="10"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A407" s="10">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -9623,7 +9671,7 @@
       <c r="F407" s="10"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A408" s="10">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -9639,7 +9687,7 @@
       <c r="F408" s="10"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A409" s="10">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -9655,7 +9703,7 @@
       <c r="F409" s="10"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A410" s="10">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -9671,7 +9719,7 @@
       <c r="F410" s="10"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A411" s="10">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -9687,7 +9735,7 @@
       <c r="F411" s="10"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A412" s="10">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -9703,7 +9751,7 @@
       <c r="F412" s="10"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A413" s="10">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -9719,7 +9767,7 @@
       <c r="F413" s="10"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A414" s="10">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -9735,7 +9783,7 @@
       <c r="F414" s="10"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A415" s="10">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -9751,7 +9799,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A416" s="10">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -9767,7 +9815,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A417" s="10">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -9783,7 +9831,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A418" s="10">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -9799,7 +9847,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A419" s="10">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -9815,7 +9863,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A420" s="10">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -9831,7 +9879,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A421" s="10">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -9847,7 +9895,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A422" s="10">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -9863,7 +9911,7 @@
       <c r="F422" s="10"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A423" s="10">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -9879,7 +9927,7 @@
       <c r="F423" s="10"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A424" s="10">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -9888,14 +9936,16 @@
         <v>374</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="D424" s="10"/>
+        <v>812</v>
+      </c>
+      <c r="D424" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A425" s="10">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -9911,7 +9961,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A426" s="10">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -9927,7 +9977,7 @@
       <c r="F426" s="10"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A427" s="10">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -9943,7 +9993,7 @@
       <c r="F427" s="10"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A428" s="10">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -9959,7 +10009,7 @@
       <c r="F428" s="10"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A429" s="10">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -9975,7 +10025,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A430" s="10">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -9991,7 +10041,7 @@
       <c r="F430" s="10"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A431" s="10">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -10007,7 +10057,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A432" s="10">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -10023,7 +10073,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A433" s="10">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -10039,7 +10089,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A434" s="10">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -10057,7 +10107,7 @@
       <c r="F434" s="10"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A435" s="10">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -10075,7 +10125,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A436" s="10">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -10091,7 +10141,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A437" s="10">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -10109,7 +10159,7 @@
       <c r="F437" s="10"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A438" s="10">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -10125,7 +10175,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A439" s="10">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -10143,7 +10193,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A440" s="10">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -10161,7 +10211,7 @@
       <c r="F440" s="10"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A441" s="10">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -10177,7 +10227,7 @@
       <c r="F441" s="10"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A442" s="10">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -10195,7 +10245,7 @@
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A443" s="10">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -10206,12 +10256,16 @@
       <c r="C443" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="D443" s="10"/>
+      <c r="D443" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E443" s="10"/>
       <c r="F443" s="10"/>
-      <c r="G443" s="12"/>
-    </row>
-    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G443" s="12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A444" s="10">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -10227,7 +10281,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A445" s="10">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -10243,7 +10297,7 @@
       <c r="F445" s="10"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A446" s="10">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -10259,7 +10313,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A447" s="10">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -10275,7 +10329,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A448" s="10">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -10291,7 +10345,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A449" s="10">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -10307,7 +10361,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A450" s="10">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -10323,7 +10377,7 @@
       <c r="F450" s="10"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A451" s="10">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -10357,7 +10411,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A453" s="10">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -10375,7 +10429,7 @@
       <c r="F453" s="10"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A454" s="10">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -10391,7 +10445,7 @@
       <c r="F454" s="10"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A455" s="10">
         <f t="shared" ref="A455:A518" si="7">A454+1</f>
         <v>450</v>
@@ -10407,7 +10461,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A456" s="10">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -10423,7 +10477,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A457" s="10">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -10439,7 +10493,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A458" s="10">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -10455,7 +10509,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A459" s="10">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -10471,7 +10525,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A460" s="10">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -10487,7 +10541,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A461" s="10">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -10503,7 +10557,7 @@
       <c r="F461" s="10"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A462" s="10">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -10519,7 +10573,7 @@
       <c r="F462" s="10"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A463" s="10">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -10535,7 +10589,7 @@
       <c r="F463" s="10"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A464" s="10">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -10551,7 +10605,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A465" s="10">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -10567,7 +10621,7 @@
       <c r="F465" s="10"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A466" s="10">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -10583,7 +10637,7 @@
       <c r="F466" s="10"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A467" s="10">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -10599,7 +10653,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A468" s="10">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -10615,7 +10669,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A469" s="10">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -10631,7 +10685,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A470" s="10">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -10647,7 +10701,7 @@
       <c r="F470" s="10"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A471" s="10">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -10663,7 +10717,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A472" s="10">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -10674,12 +10728,14 @@
       <c r="C472" s="10" t="s">
         <v>805</v>
       </c>
-      <c r="D472" s="10"/>
+      <c r="D472" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E472" s="10"/>
       <c r="F472" s="10"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A473" s="10">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -10697,7 +10753,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A474" s="10">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -10715,7 +10771,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A475" s="10">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -10731,7 +10787,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A476" s="10">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -10747,7 +10803,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A477" s="10">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -10763,7 +10819,7 @@
       <c r="F477" s="10"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A478" s="10">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -10779,7 +10835,7 @@
       <c r="F478" s="10"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A479" s="10">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -10795,7 +10851,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A480" s="10">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -10811,7 +10867,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A481" s="10">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -10827,7 +10883,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A482" s="10">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -10843,7 +10899,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A483" s="10">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -10859,7 +10915,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A484" s="10">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -10875,7 +10931,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A485" s="10">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -10891,7 +10947,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A486" s="10">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -10907,7 +10963,7 @@
       <c r="F486" s="10"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A487" s="10">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -10923,7 +10979,7 @@
       <c r="F487" s="10"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A488" s="10">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -10939,7 +10995,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A489" s="10">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -10955,7 +11011,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A490" s="10">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -10971,7 +11027,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A491" s="10">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -10987,7 +11043,7 @@
       <c r="F491" s="10"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A492" s="10">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -11003,7 +11059,7 @@
       <c r="F492" s="10"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A493" s="10">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -11019,7 +11075,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A494" s="10">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -11035,7 +11091,7 @@
       <c r="F494" s="10"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A495" s="10">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -11046,12 +11102,14 @@
       <c r="C495" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="D495" s="10"/>
+      <c r="D495" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A496" s="10">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -11067,7 +11125,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A497" s="10">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -11083,7 +11141,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A498" s="10">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -11099,7 +11157,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A499" s="10">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -11115,7 +11173,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A500" s="10">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -11131,7 +11189,7 @@
       <c r="F500" s="10"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A501" s="10">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -11147,7 +11205,7 @@
       <c r="F501" s="10"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A502" s="10">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -11163,7 +11221,7 @@
       <c r="F502" s="10"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A503" s="10">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -11179,7 +11237,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A504" s="10">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -11195,7 +11253,7 @@
       <c r="F504" s="10"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A505" s="10">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -11211,7 +11269,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A506" s="10">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -11227,7 +11285,7 @@
       <c r="F506" s="10"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A507" s="10">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -11243,7 +11301,7 @@
       <c r="F507" s="10"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A508" s="10">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -11259,7 +11317,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A509" s="10">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -11275,7 +11333,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A510" s="10">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -11291,7 +11349,7 @@
       <c r="F510" s="10"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A511" s="10">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -11307,7 +11365,7 @@
       <c r="F511" s="10"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A512" s="10">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -11323,7 +11381,7 @@
       <c r="F512" s="10"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A513" s="10">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -11339,7 +11397,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A514" s="10">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -11366,12 +11424,14 @@
       <c r="C515" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D515" s="10"/>
+      <c r="D515" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E515" s="10"/>
       <c r="F515" s="10"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A516" s="10">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -11387,7 +11447,7 @@
       <c r="F516" s="10"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A517" s="10">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -11405,7 +11465,7 @@
       <c r="F517" s="10"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A518" s="10">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -11423,7 +11483,7 @@
       <c r="F518" s="10"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A519" s="10">
         <f t="shared" ref="A519:A582" si="8">A518+1</f>
         <v>514</v>
@@ -11439,7 +11499,7 @@
       <c r="F519" s="10"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A520" s="10">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -11455,7 +11515,7 @@
       <c r="F520" s="10"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A521" s="10">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -11471,7 +11531,7 @@
       <c r="F521" s="10"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A522" s="10">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -11487,7 +11547,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A523" s="10">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -11503,7 +11563,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A524" s="10">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -11519,7 +11579,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A525" s="10">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -11535,7 +11595,7 @@
       <c r="F525" s="10"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A526" s="10">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -11551,7 +11611,7 @@
       <c r="F526" s="10"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A527" s="10">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -11567,7 +11627,7 @@
       <c r="F527" s="10"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A528" s="10">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -11583,7 +11643,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A529" s="10">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -11601,7 +11661,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11619,7 +11679,7 @@
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A531" s="10">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -11635,7 +11695,7 @@
       <c r="F531" s="10"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A532" s="10">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -11651,7 +11711,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A533" s="10">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -11669,7 +11729,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A534" s="10">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -11685,7 +11745,7 @@
       <c r="F534" s="10"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A535" s="10">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -11701,7 +11761,7 @@
       <c r="F535" s="10"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A536" s="10">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -11717,7 +11777,7 @@
       <c r="F536" s="10"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A537" s="10">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -11749,7 +11809,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A539" s="10">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -11765,7 +11825,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A540" s="10">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -11792,12 +11852,14 @@
       <c r="C541" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D541" s="10"/>
+      <c r="D541" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E541" s="10"/>
       <c r="F541" s="10"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A542" s="10">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -11813,7 +11875,7 @@
       <c r="F542" s="10"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A543" s="10">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -11829,7 +11891,7 @@
       <c r="F543" s="10"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A544" s="10">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -11845,7 +11907,7 @@
       <c r="F544" s="10"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A545" s="10">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -11861,7 +11923,7 @@
       <c r="F545" s="10"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A546" s="10">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -11877,7 +11939,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A547" s="10">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -11893,7 +11955,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A548" s="10">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -11911,7 +11973,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A549" s="10">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -11927,7 +11989,7 @@
       <c r="F549" s="10"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A550" s="10">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -11943,7 +12005,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -11961,7 +12023,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A552" s="10">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -11977,7 +12039,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A553" s="10">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -11993,7 +12055,7 @@
       <c r="F553" s="10"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A554" s="10">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -12009,7 +12071,7 @@
       <c r="F554" s="10"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A555" s="10">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -12025,7 +12087,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A556" s="10">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -12057,7 +12119,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A558" s="10">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -12073,7 +12135,7 @@
       <c r="F558" s="10"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A559" s="10">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -12091,7 +12153,7 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A560" s="10">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -12107,7 +12169,7 @@
       <c r="F560" s="10"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A561" s="10">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -12123,7 +12185,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A562" s="10">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -12139,7 +12201,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A563" s="10">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -12155,7 +12217,7 @@
       <c r="F563" s="10"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A564" s="10">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -12173,7 +12235,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A565" s="10">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -12189,7 +12251,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A566" s="10">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -12205,7 +12267,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A567" s="10">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -12221,7 +12283,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A568" s="10">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -12237,7 +12299,7 @@
       <c r="F568" s="10"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A569" s="10">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -12253,7 +12315,7 @@
       <c r="F569" s="10"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A570" s="10">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -12269,7 +12331,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A571" s="10">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -12285,7 +12347,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A572" s="10">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -12301,7 +12363,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A573" s="10">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -12317,7 +12379,7 @@
       <c r="F573" s="10"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A574" s="10">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -12335,7 +12397,7 @@
       <c r="F574" s="10"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A575" s="10">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -12353,7 +12415,7 @@
       <c r="F575" s="10"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A576" s="10">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -12369,7 +12431,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A577" s="10">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -12387,7 +12449,7 @@
       <c r="F577" s="10"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A578" s="10">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -12405,7 +12467,7 @@
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A579" s="10">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -12423,7 +12485,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A580" s="10">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -12441,7 +12503,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A581" s="10">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -12457,7 +12519,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A582" s="10">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -12473,7 +12535,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A583" s="10">
         <f t="shared" ref="A583:A646" si="9">A582+1</f>
         <v>578</v>
@@ -12489,7 +12551,7 @@
       <c r="F583" s="10"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A584" s="10">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -12505,7 +12567,7 @@
       <c r="F584" s="10"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A585" s="10">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -12521,7 +12583,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A586" s="10">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -12537,7 +12599,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A587" s="10">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -12553,7 +12615,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A588" s="10">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -12569,7 +12631,7 @@
       <c r="F588" s="10"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A589" s="10">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -12585,7 +12647,7 @@
       <c r="F589" s="10"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A590" s="10">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -12601,7 +12663,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A591" s="10">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -12617,7 +12679,7 @@
       <c r="F591" s="10"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A592" s="10">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -12635,7 +12697,7 @@
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A593" s="10">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -12651,7 +12713,7 @@
       <c r="F593" s="10"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A594" s="10">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -12667,7 +12729,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A595" s="10">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -12683,7 +12745,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A596" s="10">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -12699,7 +12761,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A597" s="10">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -12715,7 +12777,7 @@
       <c r="F597" s="10"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A598" s="10">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -12731,7 +12793,7 @@
       <c r="F598" s="10"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A599" s="10">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -12747,7 +12809,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A600" s="10">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -12763,7 +12825,7 @@
       <c r="F600" s="10"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A601" s="10">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -12779,7 +12841,7 @@
       <c r="F601" s="10"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A602" s="10">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -12795,7 +12857,7 @@
       <c r="F602" s="10"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A603" s="10">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -12811,7 +12873,7 @@
       <c r="F603" s="10"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A604" s="10">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -12827,7 +12889,7 @@
       <c r="F604" s="10"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A605" s="10">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -12843,7 +12905,7 @@
       <c r="F605" s="10"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A606" s="10">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -12859,7 +12921,7 @@
       <c r="F606" s="10"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A607" s="10">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -12875,7 +12937,7 @@
       <c r="F607" s="10"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A608" s="10">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -12891,7 +12953,7 @@
       <c r="F608" s="10"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A609" s="10">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -12907,7 +12969,7 @@
       <c r="F609" s="10"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A610" s="10">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -12918,12 +12980,14 @@
       <c r="C610" s="10" t="s">
         <v>791</v>
       </c>
-      <c r="D610" s="10"/>
+      <c r="D610" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E610" s="10"/>
       <c r="F610" s="10"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A611" s="10">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -12939,7 +13003,7 @@
       <c r="F611" s="10"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A612" s="10">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -12955,7 +13019,7 @@
       <c r="F612" s="10"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A613" s="10">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -12971,7 +13035,7 @@
       <c r="F613" s="10"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A614" s="10">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -12987,7 +13051,7 @@
       <c r="F614" s="10"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A615" s="10">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -13003,7 +13067,7 @@
       <c r="F615" s="10"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A616" s="10">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -13019,7 +13083,7 @@
       <c r="F616" s="10"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A617" s="10">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -13035,7 +13099,7 @@
       <c r="F617" s="10"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A618" s="10">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -13051,7 +13115,7 @@
       <c r="F618" s="10"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A619" s="10">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -13069,7 +13133,7 @@
       <c r="F619" s="10"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A620" s="10">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -13085,7 +13149,7 @@
       <c r="F620" s="10"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A621" s="10">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -13119,7 +13183,7 @@
       <c r="F622" s="10"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A623" s="10">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -13135,7 +13199,7 @@
       <c r="F623" s="10"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A624" s="10">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -13146,12 +13210,16 @@
       <c r="C624" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D624" s="10"/>
+      <c r="D624" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E624" s="10"/>
       <c r="F624" s="10"/>
-      <c r="G624" s="12"/>
-    </row>
-    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G624" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A625" s="10">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -13167,7 +13235,7 @@
       <c r="F625" s="10"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A626" s="10">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -13199,7 +13267,7 @@
       <c r="F627" s="10"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A628" s="10">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -13215,7 +13283,7 @@
       <c r="F628" s="10"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A629" s="10">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -13231,7 +13299,7 @@
       <c r="F629" s="10"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A630" s="10">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -13247,7 +13315,7 @@
       <c r="F630" s="10"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A631" s="10">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -13263,7 +13331,7 @@
       <c r="F631" s="10"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A632" s="10">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -13279,7 +13347,7 @@
       <c r="F632" s="10"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A633" s="10">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -13297,7 +13365,7 @@
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A634" s="10">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -13313,7 +13381,7 @@
       <c r="F634" s="10"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A635" s="10">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -13329,7 +13397,7 @@
       <c r="F635" s="10"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A636" s="10">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -13340,12 +13408,16 @@
       <c r="C636" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="D636" s="10"/>
+      <c r="D636" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E636" s="10"/>
       <c r="F636" s="10"/>
-      <c r="G636" s="12"/>
-    </row>
-    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+      <c r="G636" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A637" s="10">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -13361,7 +13433,7 @@
       <c r="F637" s="10"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A638" s="10">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -13377,7 +13449,7 @@
       <c r="F638" s="10"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A639" s="10">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -13393,7 +13465,7 @@
       <c r="F639" s="10"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A640" s="10">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -13409,7 +13481,7 @@
       <c r="F640" s="10"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A641" s="10">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -13427,7 +13499,7 @@
       <c r="F641" s="10"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A642" s="10">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -13443,7 +13515,7 @@
       <c r="F642" s="10"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A643" s="10">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -13477,7 +13549,7 @@
       <c r="F644" s="10"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A645" s="10">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -13575,7 +13647,7 @@
       <c r="F650" s="10"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A651" s="10">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -13591,7 +13663,7 @@
       <c r="F651" s="10"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A652" s="10">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -13607,7 +13679,7 @@
       <c r="F652" s="10"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A653" s="10">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -13623,7 +13695,7 @@
       <c r="F653" s="10"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A654" s="10">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -13639,7 +13711,7 @@
       <c r="F654" s="10"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A655" s="10">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -13655,7 +13727,7 @@
       <c r="F655" s="10"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A656" s="10">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -13671,7 +13743,7 @@
       <c r="F656" s="10"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A657" s="10">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -13687,7 +13759,7 @@
       <c r="F657" s="10"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A658" s="10">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -13705,7 +13777,7 @@
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A659" s="10">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -13721,7 +13793,7 @@
       <c r="F659" s="10"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A660" s="10">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -13737,7 +13809,7 @@
       <c r="F660" s="10"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A661" s="10">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -13755,7 +13827,7 @@
       <c r="F661" s="10"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A662" s="10">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -13771,7 +13843,7 @@
       <c r="F662" s="10"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A663" s="10">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -13787,7 +13859,7 @@
       <c r="F663" s="10"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A664" s="10">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -13803,7 +13875,7 @@
       <c r="F664" s="10"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A665" s="10">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -13819,7 +13891,7 @@
       <c r="F665" s="10"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A666" s="10">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -13835,7 +13907,7 @@
       <c r="F666" s="10"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A667" s="10">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -13853,7 +13925,7 @@
       <c r="F667" s="10"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A668" s="10">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -13869,7 +13941,7 @@
       <c r="F668" s="10"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A669" s="10">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -13885,7 +13957,7 @@
       <c r="F669" s="10"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A670" s="10">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -13901,7 +13973,7 @@
       <c r="F670" s="10"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A671" s="10">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -13917,7 +13989,7 @@
       <c r="F671" s="10"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A672" s="10">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -13933,7 +14005,7 @@
       <c r="F672" s="10"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A673" s="10">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -13951,7 +14023,7 @@
       <c r="F673" s="10"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A674" s="10">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -13969,7 +14041,7 @@
       <c r="F674" s="10"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A675" s="10">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -13985,7 +14057,7 @@
       <c r="F675" s="10"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A676" s="10">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -14001,7 +14073,7 @@
       <c r="F676" s="10"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A677" s="10">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -14017,7 +14089,7 @@
       <c r="F677" s="10"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A678" s="10">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -14035,7 +14107,7 @@
       <c r="F678" s="10"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A679" s="10">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -14051,7 +14123,7 @@
       <c r="F679" s="10"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A680" s="10">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -14067,7 +14139,7 @@
       <c r="F680" s="10"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A681" s="10">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -14083,7 +14155,7 @@
       <c r="F681" s="10"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A682" s="10">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -14099,7 +14171,7 @@
       <c r="F682" s="10"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A683" s="10">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -14115,7 +14187,7 @@
       <c r="F683" s="10"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A684" s="10">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -14131,7 +14203,7 @@
       <c r="F684" s="10"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A685" s="10">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -14147,7 +14219,7 @@
       <c r="F685" s="10"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A686" s="10">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -14163,7 +14235,7 @@
       <c r="F686" s="10"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A687" s="10">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -14179,7 +14251,7 @@
       <c r="F687" s="10"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A688" s="10">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -14197,7 +14269,7 @@
       <c r="F688" s="10"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A689" s="10">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -14215,7 +14287,7 @@
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A690" s="10">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -14231,7 +14303,7 @@
       <c r="F690" s="10"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A691" s="10">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -14247,7 +14319,7 @@
       <c r="F691" s="10"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A692" s="10">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -14263,7 +14335,7 @@
       <c r="F692" s="10"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A693" s="10">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -14279,7 +14351,7 @@
       <c r="F693" s="10"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A694" s="10">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -14295,7 +14367,7 @@
       <c r="F694" s="10"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A695" s="10">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -14311,7 +14383,7 @@
       <c r="F695" s="10"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A696" s="10">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -14327,7 +14399,7 @@
       <c r="F696" s="10"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A697" s="10">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -14343,7 +14415,7 @@
       <c r="F697" s="10"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A698" s="10">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -14359,7 +14431,7 @@
       <c r="F698" s="10"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A699" s="10">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -14375,7 +14447,7 @@
       <c r="F699" s="10"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A700" s="10">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -14391,7 +14463,7 @@
       <c r="F700" s="10"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A701" s="10">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -14407,7 +14479,7 @@
       <c r="F701" s="10"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A702" s="10">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -14423,7 +14495,7 @@
       <c r="F702" s="10"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A703" s="10">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -14439,7 +14511,7 @@
       <c r="F703" s="10"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A704" s="10">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -14455,7 +14527,7 @@
       <c r="F704" s="10"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A705" s="10">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -14471,7 +14543,7 @@
       <c r="F705" s="10"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A706" s="10">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -14487,7 +14559,7 @@
       <c r="F706" s="10"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A707" s="10">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -14503,7 +14575,7 @@
       <c r="F707" s="10"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A708" s="10">
         <f t="shared" si="10"/>
         <v>703</v>
@@ -14519,7 +14591,7 @@
       <c r="F708" s="10"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A709" s="10">
         <f t="shared" si="10"/>
         <v>704</v>
@@ -14551,7 +14623,7 @@
       <c r="F710" s="10"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A711" s="10">
         <f t="shared" ref="A711:A774" si="11">A710+1</f>
         <v>706</v>
@@ -14567,7 +14639,7 @@
       <c r="F711" s="10"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A712" s="10">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -14583,7 +14655,7 @@
       <c r="F712" s="10"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A713" s="10">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -14599,7 +14671,7 @@
       <c r="F713" s="10"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A714" s="10">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -14615,7 +14687,7 @@
       <c r="F714" s="10"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A715" s="10">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -14631,7 +14703,7 @@
       <c r="F715" s="10"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A716" s="10">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -14649,7 +14721,7 @@
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A717" s="10">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -14660,12 +14732,14 @@
       <c r="C717" s="10" t="s">
         <v>807</v>
       </c>
-      <c r="D717" s="10"/>
+      <c r="D717" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E717" s="10"/>
       <c r="F717" s="10"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A718" s="10">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -14697,7 +14771,7 @@
       <c r="F719" s="10"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A720" s="10">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -14729,7 +14803,7 @@
       <c r="F721" s="10"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A722" s="10">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -14747,7 +14821,7 @@
       <c r="F722" s="10"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A723" s="10">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -14765,7 +14839,7 @@
       <c r="F723" s="10"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A724" s="10">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -14783,7 +14857,7 @@
       <c r="F724" s="10"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A725" s="10">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -14801,7 +14875,7 @@
       <c r="F725" s="10"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A726" s="10">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -14817,7 +14891,7 @@
       <c r="F726" s="10"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A727" s="10">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -14833,7 +14907,7 @@
       <c r="F727" s="10"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A728" s="10">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -14849,7 +14923,7 @@
       <c r="F728" s="10"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A729" s="10">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -14865,7 +14939,7 @@
       <c r="F729" s="10"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A730" s="10">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -14883,7 +14957,7 @@
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A731" s="10">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -14899,7 +14973,7 @@
       <c r="F731" s="10"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A732" s="10">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -14915,7 +14989,7 @@
       <c r="F732" s="10"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A733" s="10">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -14947,7 +15021,7 @@
       <c r="F734" s="10"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A735" s="10">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -14963,7 +15037,7 @@
       <c r="F735" s="10"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A736" s="10">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -14979,7 +15053,7 @@
       <c r="F736" s="10"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A737" s="10">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -14995,7 +15069,7 @@
       <c r="F737" s="10"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A738" s="10">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -15011,7 +15085,7 @@
       <c r="F738" s="10"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A739" s="10">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -15027,7 +15101,7 @@
       <c r="F739" s="10"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A740" s="10">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -15043,7 +15117,7 @@
       <c r="F740" s="10"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A741" s="10">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -15059,7 +15133,7 @@
       <c r="F741" s="10"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A742" s="10">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -15077,7 +15151,7 @@
       <c r="F742" s="10"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A743" s="10">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -15093,7 +15167,7 @@
       <c r="F743" s="10"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A744" s="10">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -15109,7 +15183,7 @@
       <c r="F744" s="10"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A745" s="10">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -15125,7 +15199,7 @@
       <c r="F745" s="10"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A746" s="10">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -15141,7 +15215,7 @@
       <c r="F746" s="10"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A747" s="10">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -15157,7 +15231,7 @@
       <c r="F747" s="10"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A748" s="10">
         <f t="shared" si="11"/>
         <v>743</v>
@@ -15173,7 +15247,7 @@
       <c r="F748" s="10"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A749" s="10">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -15191,7 +15265,7 @@
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A750" s="10">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -15207,7 +15281,7 @@
       <c r="F750" s="10"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A751" s="10">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -15223,7 +15297,7 @@
       <c r="F751" s="10"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A752" s="10">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -15239,7 +15313,7 @@
       <c r="F752" s="10"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A753" s="10">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -15255,7 +15329,7 @@
       <c r="F753" s="10"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A754" s="10">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -15271,7 +15345,7 @@
       <c r="F754" s="10"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A755" s="10">
         <f t="shared" si="11"/>
         <v>750</v>
@@ -15289,7 +15363,7 @@
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A756" s="10">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -15305,7 +15379,7 @@
       <c r="F756" s="10"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A757" s="10">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -15321,7 +15395,7 @@
       <c r="F757" s="10"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A758" s="10">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -15337,7 +15411,7 @@
       <c r="F758" s="10"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A759" s="10">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -15353,7 +15427,7 @@
       <c r="F759" s="10"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A760" s="10">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -15369,7 +15443,7 @@
       <c r="F760" s="10"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A761" s="10">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -15385,7 +15459,7 @@
       <c r="F761" s="10"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A762" s="10">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -15401,7 +15475,7 @@
       <c r="F762" s="10"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A763" s="10">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -15417,7 +15491,7 @@
       <c r="F763" s="10"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A764" s="10">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -15433,7 +15507,7 @@
       <c r="F764" s="10"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A765" s="10">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -15449,7 +15523,7 @@
       <c r="F765" s="10"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A766" s="10">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -15465,7 +15539,7 @@
       <c r="F766" s="10"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A767" s="10">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -15481,7 +15555,7 @@
       <c r="F767" s="10"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A768" s="10">
         <f t="shared" si="11"/>
         <v>763</v>
@@ -15499,7 +15573,7 @@
       <c r="F768" s="10"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A769" s="10">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -15515,7 +15589,7 @@
       <c r="F769" s="10"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A770" s="10">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -15535,7 +15609,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A771" s="10">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -15551,7 +15625,7 @@
       <c r="F771" s="10"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A772" s="10">
         <f t="shared" si="11"/>
         <v>767</v>
@@ -15567,7 +15641,7 @@
       <c r="F772" s="10"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A773" s="10">
         <f t="shared" si="11"/>
         <v>768</v>
@@ -15583,7 +15657,7 @@
       <c r="F773" s="10"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A774" s="10">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -15599,7 +15673,7 @@
       <c r="F774" s="10"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A775" s="10">
         <f t="shared" ref="A775:A783" si="12">A774+1</f>
         <v>770</v>
@@ -15619,7 +15693,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A776" s="10">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -15635,7 +15709,7 @@
       <c r="F776" s="10"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A777" s="10">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -15651,7 +15725,7 @@
       <c r="F777" s="10"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A778" s="10">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -15667,7 +15741,7 @@
       <c r="F778" s="10"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A779" s="10">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -15683,7 +15757,7 @@
       <c r="F779" s="10"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A780" s="10">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -15699,7 +15773,7 @@
       <c r="F780" s="10"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A781" s="10">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -15715,7 +15789,7 @@
       <c r="F781" s="10"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A782" s="10">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -15731,7 +15805,7 @@
       <c r="F782" s="10"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A783" s="10">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -15749,7 +15823,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G783">
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Variables"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A6:G783">
       <sortCondition ref="B5:B783"/>
     </sortState>

--- a/newrpl/docs/newRPL Command Database.xlsx
+++ b/newrpl/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="836">
   <si>
     <t>!</t>
   </si>
@@ -2972,12 +2972,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D787" sqref="D787"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2997,7 +2996,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -3013,7 +3012,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.19922879177377892</v>
+        <v>0.20308483290488433</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3042,7 +3041,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3059,7 +3058,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="7" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="10">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>2</v>
@@ -3077,7 +3076,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="8" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3095,7 +3094,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3111,7 +3110,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="10" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3127,7 +3126,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="11" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3143,7 +3142,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="12" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A12" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3161,7 +3160,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="13" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A13" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3179,7 +3178,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3197,7 +3196,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3215,7 +3214,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3233,7 +3232,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3249,7 +3248,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="18" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A18" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3267,7 +3266,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="19" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A19" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3285,7 +3284,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3301,7 +3300,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3319,7 +3318,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3337,7 +3336,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3355,7 +3354,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3373,7 +3372,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3391,7 +3390,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3407,7 +3406,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3425,7 +3424,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3441,7 +3440,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3459,7 +3458,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A30" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3488,12 +3487,14 @@
       <c r="C31" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3527,7 +3528,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3545,7 +3546,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3563,7 +3564,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3579,7 +3580,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3595,7 +3596,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3611,7 +3612,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3627,7 +3628,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3643,7 +3644,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3659,7 +3660,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3675,7 +3676,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3691,7 +3692,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3707,7 +3708,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3725,7 +3726,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3741,7 +3742,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3757,7 +3758,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3775,7 +3776,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3791,7 +3792,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3807,7 +3808,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3825,7 +3826,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3843,7 +3844,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3859,7 +3860,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A54" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3875,7 +3876,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A55" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3893,7 +3894,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A56" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3909,7 +3910,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A57" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3925,7 +3926,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A58" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3941,7 +3942,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3957,7 +3958,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A60" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3973,7 +3974,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3989,7 +3990,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4005,7 +4006,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="63" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="10">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4023,7 +4024,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="10">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4039,7 +4040,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A65" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4055,7 +4056,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A66" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4073,7 +4074,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4089,7 +4090,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A68" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4107,7 +4108,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A69" s="10">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4125,7 +4126,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="70" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4141,7 +4142,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A71" s="10">
         <f t="shared" ref="A71:A134" si="1">A70+1</f>
         <v>66</v>
@@ -4157,7 +4158,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A72" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4173,7 +4174,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A73" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4189,7 +4190,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A74" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4205,7 +4206,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A75" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4223,7 +4224,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A76" s="10">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4239,7 +4240,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A77" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4255,7 +4256,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A78" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4271,7 +4272,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A79" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4287,7 +4288,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A80" s="10">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4303,7 +4304,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A81" s="10">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4319,7 +4320,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4337,7 +4338,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A83" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4353,7 +4354,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A84" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4369,7 +4370,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A85" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4387,7 +4388,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A86" s="10">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4405,7 +4406,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A87" s="10">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4421,7 +4422,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A88" s="10">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4437,7 +4438,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A89" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4455,7 +4456,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A90" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4471,7 +4472,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A91" s="10">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4487,7 +4488,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A92" s="10">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4503,7 +4504,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A93" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4519,7 +4520,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A94" s="10">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4535,7 +4536,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A95" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4555,7 +4556,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A96" s="10">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4571,7 +4572,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A97" s="10">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4589,7 +4590,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A98" s="10">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4605,7 +4606,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A99" s="10">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4623,7 +4624,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A100" s="10">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4639,7 +4640,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A101" s="10">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4655,7 +4656,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A102" s="10">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4671,7 +4672,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A103" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4687,7 +4688,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A104" s="10">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4703,7 +4704,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A105" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4719,7 +4720,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A106" s="10">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4735,7 +4736,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A107" s="10">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4751,7 +4752,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A108" s="10">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4769,7 +4770,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A109" s="10">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4785,7 +4786,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A110" s="10">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4801,7 +4802,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A111" s="10">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4817,7 +4818,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A112" s="10">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4833,7 +4834,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A113" s="10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4849,7 +4850,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A114" s="10">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4865,7 +4866,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A115" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4881,7 +4882,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A116" s="10">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4897,7 +4898,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A117" s="10">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4913,7 +4914,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A118" s="10">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4929,7 +4930,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A119" s="10">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4945,7 +4946,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A120" s="10">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4961,7 +4962,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A121" s="10">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4977,7 +4978,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A122" s="10">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4993,7 +4994,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5011,7 +5012,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A124" s="10">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5027,7 +5028,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A125" s="10">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5043,7 +5044,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A126" s="10">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5059,7 +5060,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A127" s="10">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5077,7 +5078,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A128" s="10">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5095,7 +5096,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A129" s="10">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5111,7 +5112,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A130" s="10">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5129,7 +5130,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A131" s="10">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5145,7 +5146,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A132" s="10">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5161,7 +5162,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A133" s="10">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5177,7 +5178,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A134" s="10">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5197,7 +5198,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A135" s="10">
         <f t="shared" ref="A135:A198" si="2">A134+1</f>
         <v>130</v>
@@ -5213,7 +5214,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A136" s="10">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5229,7 +5230,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A137" s="10">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5247,7 +5248,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A138" s="10">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5263,7 +5264,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A139" s="10">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5279,7 +5280,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A140" s="10">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5295,7 +5296,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A141" s="10">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5311,7 +5312,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A142" s="10">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5327,7 +5328,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A143" s="10">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5343,7 +5344,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A144" s="10">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5359,7 +5360,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A145" s="10">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5377,7 +5378,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A146" s="10">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5395,7 +5396,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A147" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5413,7 +5414,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A148" s="10">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5429,7 +5430,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A149" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5445,7 +5446,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A150" s="10">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5461,7 +5462,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A151" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5477,7 +5478,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A152" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5493,7 +5494,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A153" s="10">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5509,7 +5510,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A154" s="10">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5525,7 +5526,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5543,7 +5544,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A156" s="10">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5559,7 +5560,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A157" s="10">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5575,7 +5576,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A158" s="10">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5591,7 +5592,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A159" s="10">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5607,7 +5608,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A160" s="10">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5625,7 +5626,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A161" s="10">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5641,7 +5642,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A162" s="10">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5659,7 +5660,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A163" s="10">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5677,7 +5678,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A164" s="10">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5693,7 +5694,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A165" s="10">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5709,7 +5710,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A166" s="10">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5727,7 +5728,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A167" s="10">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5743,7 +5744,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A168" s="10">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5759,7 +5760,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A169" s="10">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5775,7 +5776,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A170" s="10">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5791,7 +5792,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A171" s="10">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5807,7 +5808,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A172" s="10">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5823,7 +5824,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A173" s="10">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5839,7 +5840,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A174" s="10">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5855,7 +5856,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A175" s="10">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5871,7 +5872,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A176" s="10">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5887,7 +5888,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A177" s="10">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5903,7 +5904,7 @@
       <c r="F177" s="10"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A178" s="10">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5919,7 +5920,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A179" s="10">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5953,7 +5954,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A181" s="10">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5969,7 +5970,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A182" s="10">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5985,7 +5986,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A183" s="10">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6001,7 +6002,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A184" s="10">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6019,7 +6020,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A185" s="10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6035,7 +6036,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A186" s="10">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6051,7 +6052,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A187" s="10">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6067,7 +6068,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A188" s="10">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6083,7 +6084,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A189" s="10">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6099,7 +6100,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A190" s="10">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6117,7 +6118,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A191" s="10">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6133,7 +6134,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A192" s="10">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6149,7 +6150,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A193" s="10">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6165,7 +6166,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A194" s="10">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6181,7 +6182,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A195" s="10">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6197,7 +6198,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A196" s="10">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6213,7 +6214,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A197" s="10">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6229,7 +6230,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A198" s="10">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6245,7 +6246,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A199" s="10">
         <f t="shared" ref="A199:A262" si="3">A198+1</f>
         <v>194</v>
@@ -6261,7 +6262,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A200" s="10">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6277,7 +6278,7 @@
       <c r="F200" s="10"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A201" s="10">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6293,7 +6294,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A202" s="10">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6309,7 +6310,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A203" s="10">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6325,7 +6326,7 @@
       <c r="F203" s="10"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A204" s="10">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6341,7 +6342,7 @@
       <c r="F204" s="10"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A205" s="10">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6357,7 +6358,7 @@
       <c r="F205" s="10"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A206" s="10">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6373,7 +6374,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A207" s="10">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6389,7 +6390,7 @@
       <c r="F207" s="10"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A208" s="10">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6405,7 +6406,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A209" s="10">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6421,7 +6422,7 @@
       <c r="F209" s="10"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A210" s="10">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6439,7 +6440,7 @@
       <c r="F210" s="10"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A211" s="10">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6455,7 +6456,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A212" s="10">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6475,7 +6476,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A213" s="10">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6491,7 +6492,7 @@
       <c r="F213" s="10"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A214" s="10">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6511,7 +6512,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A215" s="10">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6527,7 +6528,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A216" s="10">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6543,7 +6544,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A217" s="10">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6559,7 +6560,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A218" s="10">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6575,7 +6576,7 @@
       <c r="F218" s="10"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A219" s="10">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6591,7 +6592,7 @@
       <c r="F219" s="10"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A220" s="10">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6609,7 +6610,7 @@
       <c r="F220" s="10"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A221" s="10">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6627,7 +6628,7 @@
       <c r="F221" s="10"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A222" s="10">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6645,7 +6646,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A223" s="10">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6661,7 +6662,7 @@
       <c r="F223" s="10"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A224" s="10">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6679,7 +6680,7 @@
       <c r="F224" s="10"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A225" s="10">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6697,7 +6698,7 @@
       <c r="F225" s="10"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A226" s="10">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6715,7 +6716,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A227" s="10">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6733,7 +6734,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A228" s="10">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6749,7 +6750,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A229" s="10">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6765,7 +6766,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A230" s="10">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6781,7 +6782,7 @@
       <c r="F230" s="10"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A231" s="10">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6797,7 +6798,7 @@
       <c r="F231" s="10"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A232" s="10">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6813,7 +6814,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A233" s="10">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6829,7 +6830,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A234" s="10">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6847,7 +6848,7 @@
       <c r="F234" s="10"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A235" s="10">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6865,7 +6866,7 @@
       <c r="F235" s="10"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A236" s="10">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -6883,7 +6884,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A237" s="10">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6899,7 +6900,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A238" s="10">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6915,7 +6916,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A239" s="10">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6931,7 +6932,7 @@
       <c r="F239" s="10"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A240" s="10">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6947,7 +6948,7 @@
       <c r="F240" s="10"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A241" s="10">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6963,7 +6964,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A242" s="10">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6979,7 +6980,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A243" s="10">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6995,7 +6996,7 @@
       <c r="F243" s="10"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A244" s="10">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7011,7 +7012,7 @@
       <c r="F244" s="10"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A245" s="10">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7027,7 +7028,7 @@
       <c r="F245" s="10"/>
       <c r="G245" s="12"/>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="246" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A246" s="10">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7043,7 +7044,7 @@
       <c r="F246" s="10"/>
       <c r="G246" s="12"/>
     </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="247" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A247" s="10">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -7061,7 +7062,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A248" s="10">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -7077,7 +7078,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A249" s="10">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7095,7 +7096,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A250" s="10">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7111,7 +7112,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A251" s="10">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7127,7 +7128,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A252" s="10">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7143,7 +7144,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A253" s="10">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7159,7 +7160,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A254" s="10">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7175,7 +7176,7 @@
       <c r="F254" s="10"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A255" s="10">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7191,7 +7192,7 @@
       <c r="F255" s="10"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A256" s="10">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7207,7 +7208,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A257" s="10">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7223,7 +7224,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A258" s="10">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7239,7 +7240,7 @@
       <c r="F258" s="10"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A259" s="10">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7255,7 +7256,7 @@
       <c r="F259" s="10"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A260" s="10">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7271,7 +7272,7 @@
       <c r="F260" s="10"/>
       <c r="G260" s="12"/>
     </row>
-    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="261" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A261" s="10">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -7291,7 +7292,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A262" s="10">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7307,7 +7308,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A263" s="10">
         <f t="shared" ref="A263:A326" si="4">A262+1</f>
         <v>258</v>
@@ -7323,7 +7324,7 @@
       <c r="F263" s="10"/>
       <c r="G263" s="12"/>
     </row>
-    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="264" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A264" s="10">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -7339,7 +7340,7 @@
       <c r="F264" s="10"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A265" s="10">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7355,7 +7356,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A266" s="10">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7371,7 +7372,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A267" s="10">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7389,7 +7390,7 @@
       <c r="F267" s="10"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A268" s="10">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7407,7 +7408,7 @@
       <c r="F268" s="10"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A269" s="10">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7423,7 +7424,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A270" s="10">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7439,7 +7440,7 @@
       <c r="F270" s="10"/>
       <c r="G270" s="12"/>
     </row>
-    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="271" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A271" s="10">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -7455,7 +7456,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A272" s="10">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7471,7 +7472,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A273" s="10">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7487,7 +7488,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A274" s="10">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7503,7 +7504,7 @@
       <c r="F274" s="10"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A275" s="10">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7519,7 +7520,7 @@
       <c r="F275" s="10"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A276" s="10">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7535,7 +7536,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A277" s="10">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7553,7 +7554,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A278" s="10">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7569,7 +7570,7 @@
       <c r="F278" s="10"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A279" s="10">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7585,7 +7586,7 @@
       <c r="F279" s="10"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A280" s="10">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7601,7 +7602,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A281" s="10">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7617,7 +7618,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A282" s="10">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7635,7 +7636,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A283" s="10">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7651,7 +7652,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A284" s="10">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7669,7 +7670,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A285" s="10">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7685,7 +7686,7 @@
       <c r="F285" s="10"/>
       <c r="G285" s="12"/>
     </row>
-    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="286" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A286" s="10">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -7701,7 +7702,7 @@
       <c r="F286" s="10"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A287" s="10">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7719,7 +7720,7 @@
       <c r="F287" s="10"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A288" s="10">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7737,7 +7738,7 @@
       <c r="F288" s="10"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A289" s="10">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7753,7 +7754,7 @@
       <c r="F289" s="10"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A290" s="10">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7769,7 +7770,7 @@
       <c r="F290" s="10"/>
       <c r="G290" s="12"/>
     </row>
-    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="291" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A291" s="10">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -7785,7 +7786,7 @@
       <c r="F291" s="10"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A292" s="10">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7801,7 +7802,7 @@
       <c r="F292" s="10"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A293" s="10">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7817,7 +7818,7 @@
       <c r="F293" s="10"/>
       <c r="G293" s="12"/>
     </row>
-    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="294" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A294" s="10">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -7833,7 +7834,7 @@
       <c r="F294" s="10"/>
       <c r="G294" s="12"/>
     </row>
-    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="295" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A295" s="10">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -7849,7 +7850,7 @@
       <c r="F295" s="10"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A296" s="10">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -7867,7 +7868,7 @@
       <c r="F296" s="10"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A297" s="10">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -7885,7 +7886,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A298" s="10">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -7901,7 +7902,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A299" s="10">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -7917,7 +7918,7 @@
       <c r="F299" s="10"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A300" s="10">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -7933,7 +7934,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A301" s="10">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -7949,7 +7950,7 @@
       <c r="F301" s="10"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A302" s="10">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -7965,7 +7966,7 @@
       <c r="F302" s="10"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A303" s="10">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -7981,7 +7982,7 @@
       <c r="F303" s="10"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A304" s="10">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -7997,7 +7998,7 @@
       <c r="F304" s="10"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="10">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -8013,7 +8014,7 @@
       <c r="F305" s="10"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A306" s="10">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -8029,7 +8030,7 @@
       <c r="F306" s="10"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A307" s="10">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -8045,7 +8046,7 @@
       <c r="F307" s="10"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A308" s="10">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -8061,7 +8062,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A309" s="10">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -8077,7 +8078,7 @@
       <c r="F309" s="10"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A310" s="10">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -8093,7 +8094,7 @@
       <c r="F310" s="10"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A311" s="10">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8109,7 +8110,7 @@
       <c r="F311" s="10"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A312" s="10">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -8127,7 +8128,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A313" s="10">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8143,7 +8144,7 @@
       <c r="F313" s="10"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A314" s="10">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8159,7 +8160,7 @@
       <c r="F314" s="10"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A315" s="10">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -8175,7 +8176,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A316" s="10">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8191,7 +8192,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A317" s="10">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -8207,7 +8208,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A318" s="10">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -8223,7 +8224,7 @@
       <c r="F318" s="10"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A319" s="10">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -8239,7 +8240,7 @@
       <c r="F319" s="10"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A320" s="10">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -8255,7 +8256,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A321" s="10">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -8271,7 +8272,7 @@
       <c r="F321" s="10"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A322" s="10">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -8287,7 +8288,7 @@
       <c r="F322" s="10"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A323" s="10">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -8303,7 +8304,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A324" s="10">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -8321,7 +8322,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A325" s="10">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -8337,7 +8338,7 @@
       <c r="F325" s="10"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A326" s="10">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -8353,7 +8354,7 @@
       <c r="F326" s="10"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A327" s="10">
         <f t="shared" ref="A327:A390" si="5">A326+1</f>
         <v>322</v>
@@ -8369,7 +8370,7 @@
       <c r="F327" s="10"/>
       <c r="G327" s="12"/>
     </row>
-    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="328" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A328" s="10">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -8385,7 +8386,7 @@
       <c r="F328" s="10"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A329" s="10">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -8401,7 +8402,7 @@
       <c r="F329" s="10"/>
       <c r="G329" s="12"/>
     </row>
-    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="330" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A330" s="10">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -8417,7 +8418,7 @@
       <c r="F330" s="10"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A331" s="10">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -8433,7 +8434,7 @@
       <c r="F331" s="10"/>
       <c r="G331" s="12"/>
     </row>
-    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="332" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A332" s="10">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -8449,7 +8450,7 @@
       <c r="F332" s="10"/>
       <c r="G332" s="12"/>
     </row>
-    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="333" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A333" s="10">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -8465,7 +8466,7 @@
       <c r="F333" s="10"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A334" s="10">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -8481,7 +8482,7 @@
       <c r="F334" s="10"/>
       <c r="G334" s="12"/>
     </row>
-    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="335" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A335" s="10">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -8497,7 +8498,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A336" s="10">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -8515,7 +8516,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A337" s="10">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -8533,7 +8534,7 @@
       <c r="F337" s="10"/>
       <c r="G337" s="12"/>
     </row>
-    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="338" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A338" s="10">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -8549,7 +8550,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A339" s="10">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -8565,7 +8566,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A340" s="10">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -8581,7 +8582,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A341" s="10">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -8597,7 +8598,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -8615,7 +8616,7 @@
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A343" s="10">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -8649,7 +8650,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A345" s="10">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -8665,7 +8666,7 @@
       <c r="F345" s="10"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A346" s="10">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -8681,7 +8682,7 @@
       <c r="F346" s="10"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A347" s="10">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -8697,7 +8698,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A348" s="10">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -8713,7 +8714,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A349" s="10">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -8729,7 +8730,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A350" s="10">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -8745,7 +8746,7 @@
       <c r="F350" s="10"/>
       <c r="G350" s="12"/>
     </row>
-    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="351" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A351" s="10">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -8763,7 +8764,7 @@
       <c r="F351" s="10"/>
       <c r="G351" s="12"/>
     </row>
-    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="352" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A352" s="10">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -8779,7 +8780,7 @@
       <c r="F352" s="10"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A353" s="10">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -8797,7 +8798,7 @@
       <c r="F353" s="10"/>
       <c r="G353" s="12"/>
     </row>
-    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="354" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A354" s="10">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -8813,7 +8814,7 @@
       <c r="F354" s="10"/>
       <c r="G354" s="12"/>
     </row>
-    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="355" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A355" s="10">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -8829,7 +8830,7 @@
       <c r="F355" s="10"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A356" s="10">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -8845,7 +8846,7 @@
       <c r="F356" s="10"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A357" s="10">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -8861,7 +8862,7 @@
       <c r="F357" s="10"/>
       <c r="G357" s="12"/>
     </row>
-    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="358" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A358" s="10">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -8881,7 +8882,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A359" s="10">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -8897,7 +8898,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A360" s="10">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -8913,7 +8914,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A361" s="10">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -8929,7 +8930,7 @@
       <c r="F361" s="10"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A362" s="10">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -8945,7 +8946,7 @@
       <c r="F362" s="10"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A363" s="10">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -8961,7 +8962,7 @@
       <c r="F363" s="10"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A364" s="10">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -8977,7 +8978,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A365" s="10">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -8993,7 +8994,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A366" s="10">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -9009,7 +9010,7 @@
       <c r="F366" s="10"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A367" s="10">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -9025,7 +9026,7 @@
       <c r="F367" s="10"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A368" s="10">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -9041,7 +9042,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A369" s="10">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -9057,7 +9058,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A370" s="10">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -9073,7 +9074,7 @@
       <c r="F370" s="10"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A371" s="10">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -9089,7 +9090,7 @@
       <c r="F371" s="10"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A372" s="10">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -9105,7 +9106,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A373" s="10">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -9121,7 +9122,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A374" s="10">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -9137,7 +9138,7 @@
       <c r="F374" s="10"/>
       <c r="G374" s="12"/>
     </row>
-    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="375" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A375" s="10">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -9153,7 +9154,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A376" s="10">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -9169,7 +9170,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A377" s="10">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -9185,7 +9186,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A378" s="10">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -9201,7 +9202,7 @@
       <c r="F378" s="10"/>
       <c r="G378" s="12"/>
     </row>
-    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="379" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A379" s="10">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -9217,7 +9218,7 @@
       <c r="F379" s="10"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A380" s="10">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -9233,7 +9234,7 @@
       <c r="F380" s="10"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A381" s="10">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -9249,7 +9250,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A382" s="10">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -9265,7 +9266,7 @@
       <c r="F382" s="10"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A383" s="10">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -9281,7 +9282,7 @@
       <c r="F383" s="10"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A384" s="10">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -9297,7 +9298,7 @@
       <c r="F384" s="10"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A385" s="10">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -9313,7 +9314,7 @@
       <c r="F385" s="10"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A386" s="10">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -9329,7 +9330,7 @@
       <c r="F386" s="10"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A387" s="10">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -9345,7 +9346,7 @@
       <c r="F387" s="10"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A388" s="10">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -9363,7 +9364,7 @@
       <c r="F388" s="10"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A389" s="10">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -9381,7 +9382,7 @@
       <c r="F389" s="10"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A390" s="10">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -9397,7 +9398,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A391" s="10">
         <f t="shared" ref="A391:A454" si="6">A390+1</f>
         <v>386</v>
@@ -9413,7 +9414,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A392" s="10">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -9440,12 +9441,14 @@
       <c r="C393" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D393" s="10"/>
+      <c r="D393" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A394" s="10">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -9461,7 +9464,7 @@
       <c r="F394" s="10"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A395" s="10">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -9477,7 +9480,7 @@
       <c r="F395" s="10"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A396" s="10">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -9493,7 +9496,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A397" s="10">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -9509,7 +9512,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A398" s="10">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -9525,7 +9528,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A399" s="10">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -9541,7 +9544,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A400" s="10">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -9557,7 +9560,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A401" s="10">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -9573,7 +9576,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A402" s="10">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -9589,7 +9592,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A403" s="10">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -9605,7 +9608,7 @@
       <c r="F403" s="10"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A404" s="10">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -9623,7 +9626,7 @@
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A405" s="10">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -9639,7 +9642,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A406" s="10">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -9655,7 +9658,7 @@
       <c r="F406" s="10"/>
       <c r="G406" s="12"/>
     </row>
-    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="407" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A407" s="10">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -9671,7 +9674,7 @@
       <c r="F407" s="10"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A408" s="10">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -9687,7 +9690,7 @@
       <c r="F408" s="10"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A409" s="10">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -9703,7 +9706,7 @@
       <c r="F409" s="10"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A410" s="10">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -9719,7 +9722,7 @@
       <c r="F410" s="10"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A411" s="10">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -9735,7 +9738,7 @@
       <c r="F411" s="10"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A412" s="10">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -9751,7 +9754,7 @@
       <c r="F412" s="10"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A413" s="10">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -9767,7 +9770,7 @@
       <c r="F413" s="10"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A414" s="10">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -9783,7 +9786,7 @@
       <c r="F414" s="10"/>
       <c r="G414" s="12"/>
     </row>
-    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="415" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A415" s="10">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -9799,7 +9802,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A416" s="10">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -9815,7 +9818,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A417" s="10">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -9831,7 +9834,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A418" s="10">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -9847,7 +9850,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A419" s="10">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -9863,7 +9866,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A420" s="10">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -9879,7 +9882,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A421" s="10">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -9895,7 +9898,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A422" s="10">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -9911,7 +9914,7 @@
       <c r="F422" s="10"/>
       <c r="G422" s="12"/>
     </row>
-    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="423" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A423" s="10">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -9927,7 +9930,7 @@
       <c r="F423" s="10"/>
       <c r="G423" s="12"/>
     </row>
-    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="424" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A424" s="10">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -9945,7 +9948,7 @@
       <c r="F424" s="10"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A425" s="10">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -9961,7 +9964,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A426" s="10">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -9977,7 +9980,7 @@
       <c r="F426" s="10"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A427" s="10">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -9993,7 +9996,7 @@
       <c r="F427" s="10"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A428" s="10">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -10009,7 +10012,7 @@
       <c r="F428" s="10"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A429" s="10">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -10025,7 +10028,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A430" s="10">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -10041,7 +10044,7 @@
       <c r="F430" s="10"/>
       <c r="G430" s="12"/>
     </row>
-    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="431" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A431" s="10">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -10057,7 +10060,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A432" s="10">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -10073,7 +10076,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A433" s="10">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -10089,7 +10092,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A434" s="10">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -10107,7 +10110,7 @@
       <c r="F434" s="10"/>
       <c r="G434" s="12"/>
     </row>
-    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="435" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A435" s="10">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -10125,7 +10128,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A436" s="10">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -10141,7 +10144,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A437" s="10">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -10159,7 +10162,7 @@
       <c r="F437" s="10"/>
       <c r="G437" s="12"/>
     </row>
-    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="438" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A438" s="10">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -10175,7 +10178,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A439" s="10">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -10193,7 +10196,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A440" s="10">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -10211,7 +10214,7 @@
       <c r="F440" s="10"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A441" s="10">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -10227,7 +10230,7 @@
       <c r="F441" s="10"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A442" s="10">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -10245,7 +10248,7 @@
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A443" s="10">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -10265,7 +10268,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A444" s="10">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -10281,7 +10284,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A445" s="10">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -10297,7 +10300,7 @@
       <c r="F445" s="10"/>
       <c r="G445" s="12"/>
     </row>
-    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="446" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A446" s="10">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -10313,7 +10316,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A447" s="10">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -10329,7 +10332,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A448" s="10">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -10345,7 +10348,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A449" s="10">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -10361,7 +10364,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A450" s="10">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -10377,7 +10380,7 @@
       <c r="F450" s="10"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A451" s="10">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -10411,7 +10414,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A453" s="10">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -10429,7 +10432,7 @@
       <c r="F453" s="10"/>
       <c r="G453" s="12"/>
     </row>
-    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="454" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A454" s="10">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -10445,7 +10448,7 @@
       <c r="F454" s="10"/>
       <c r="G454" s="12"/>
     </row>
-    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="455" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A455" s="10">
         <f t="shared" ref="A455:A518" si="7">A454+1</f>
         <v>450</v>
@@ -10461,7 +10464,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A456" s="10">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -10477,7 +10480,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A457" s="10">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -10493,7 +10496,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A458" s="10">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -10509,7 +10512,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A459" s="10">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -10525,7 +10528,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A460" s="10">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -10541,7 +10544,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A461" s="10">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -10557,7 +10560,7 @@
       <c r="F461" s="10"/>
       <c r="G461" s="12"/>
     </row>
-    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="462" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A462" s="10">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -10573,7 +10576,7 @@
       <c r="F462" s="10"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A463" s="10">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -10589,7 +10592,7 @@
       <c r="F463" s="10"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A464" s="10">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -10605,7 +10608,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A465" s="10">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -10621,7 +10624,7 @@
       <c r="F465" s="10"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A466" s="10">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -10637,7 +10640,7 @@
       <c r="F466" s="10"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A467" s="10">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -10653,7 +10656,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A468" s="10">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -10669,7 +10672,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A469" s="10">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -10685,7 +10688,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A470" s="10">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -10701,7 +10704,7 @@
       <c r="F470" s="10"/>
       <c r="G470" s="12"/>
     </row>
-    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="471" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A471" s="10">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -10717,7 +10720,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A472" s="10">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -10735,7 +10738,7 @@
       <c r="F472" s="10"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A473" s="10">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -10753,7 +10756,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A474" s="10">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -10771,7 +10774,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A475" s="10">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -10787,7 +10790,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A476" s="10">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -10803,7 +10806,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A477" s="10">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -10819,7 +10822,7 @@
       <c r="F477" s="10"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A478" s="10">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -10835,7 +10838,7 @@
       <c r="F478" s="10"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A479" s="10">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -10851,7 +10854,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A480" s="10">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -10867,7 +10870,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A481" s="10">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -10883,7 +10886,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A482" s="10">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -10899,7 +10902,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A483" s="10">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -10915,7 +10918,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A484" s="10">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -10931,7 +10934,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A485" s="10">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -10947,7 +10950,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A486" s="10">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -10963,7 +10966,7 @@
       <c r="F486" s="10"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A487" s="10">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -10979,7 +10982,7 @@
       <c r="F487" s="10"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A488" s="10">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -10995,7 +10998,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A489" s="10">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -11011,7 +11014,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A490" s="10">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -11027,7 +11030,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A491" s="10">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -11043,7 +11046,7 @@
       <c r="F491" s="10"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A492" s="10">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -11059,7 +11062,7 @@
       <c r="F492" s="10"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A493" s="10">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -11075,7 +11078,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A494" s="10">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -11091,7 +11094,7 @@
       <c r="F494" s="10"/>
       <c r="G494" s="12"/>
     </row>
-    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="495" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A495" s="10">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -11109,7 +11112,7 @@
       <c r="F495" s="10"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A496" s="10">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -11125,7 +11128,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A497" s="10">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -11141,7 +11144,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A498" s="10">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -11157,7 +11160,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A499" s="10">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -11173,7 +11176,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A500" s="10">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -11189,7 +11192,7 @@
       <c r="F500" s="10"/>
       <c r="G500" s="12"/>
     </row>
-    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="501" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A501" s="10">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -11205,7 +11208,7 @@
       <c r="F501" s="10"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A502" s="10">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -11221,7 +11224,7 @@
       <c r="F502" s="10"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A503" s="10">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -11237,7 +11240,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A504" s="10">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -11253,7 +11256,7 @@
       <c r="F504" s="10"/>
       <c r="G504" s="12"/>
     </row>
-    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="505" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A505" s="10">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -11269,7 +11272,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A506" s="10">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -11285,7 +11288,7 @@
       <c r="F506" s="10"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A507" s="10">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -11301,7 +11304,7 @@
       <c r="F507" s="10"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A508" s="10">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -11317,7 +11320,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A509" s="10">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -11333,7 +11336,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A510" s="10">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -11349,7 +11352,7 @@
       <c r="F510" s="10"/>
       <c r="G510" s="12"/>
     </row>
-    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="511" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A511" s="10">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -11365,7 +11368,7 @@
       <c r="F511" s="10"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A512" s="10">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -11381,7 +11384,7 @@
       <c r="F512" s="10"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A513" s="10">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -11397,7 +11400,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A514" s="10">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -11431,7 +11434,7 @@
       <c r="F515" s="10"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A516" s="10">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -11447,7 +11450,7 @@
       <c r="F516" s="10"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A517" s="10">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -11465,7 +11468,7 @@
       <c r="F517" s="10"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A518" s="10">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -11483,7 +11486,7 @@
       <c r="F518" s="10"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A519" s="10">
         <f t="shared" ref="A519:A582" si="8">A518+1</f>
         <v>514</v>
@@ -11499,7 +11502,7 @@
       <c r="F519" s="10"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A520" s="10">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -11515,7 +11518,7 @@
       <c r="F520" s="10"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A521" s="10">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -11531,7 +11534,7 @@
       <c r="F521" s="10"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A522" s="10">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -11547,7 +11550,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A523" s="10">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -11563,7 +11566,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A524" s="10">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -11579,7 +11582,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A525" s="10">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -11595,7 +11598,7 @@
       <c r="F525" s="10"/>
       <c r="G525" s="12"/>
     </row>
-    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="526" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A526" s="10">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -11611,7 +11614,7 @@
       <c r="F526" s="10"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A527" s="10">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -11627,7 +11630,7 @@
       <c r="F527" s="10"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A528" s="10">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -11643,7 +11646,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A529" s="10">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -11661,7 +11664,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11679,7 +11682,7 @@
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A531" s="10">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -11695,7 +11698,7 @@
       <c r="F531" s="10"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A532" s="10">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -11711,7 +11714,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A533" s="10">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -11729,7 +11732,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A534" s="10">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -11745,7 +11748,7 @@
       <c r="F534" s="10"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A535" s="10">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -11761,7 +11764,7 @@
       <c r="F535" s="10"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A536" s="10">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -11777,7 +11780,7 @@
       <c r="F536" s="10"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A537" s="10">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -11809,7 +11812,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A539" s="10">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -11825,7 +11828,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A540" s="10">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -11859,7 +11862,7 @@
       <c r="F541" s="10"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A542" s="10">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -11875,7 +11878,7 @@
       <c r="F542" s="10"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A543" s="10">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -11891,7 +11894,7 @@
       <c r="F543" s="10"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A544" s="10">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -11907,7 +11910,7 @@
       <c r="F544" s="10"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A545" s="10">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -11923,7 +11926,7 @@
       <c r="F545" s="10"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A546" s="10">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -11939,7 +11942,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A547" s="10">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -11955,7 +11958,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A548" s="10">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -11973,7 +11976,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A549" s="10">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -11989,7 +11992,7 @@
       <c r="F549" s="10"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A550" s="10">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -12005,7 +12008,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -12023,7 +12026,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A552" s="10">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -12039,7 +12042,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A553" s="10">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -12055,7 +12058,7 @@
       <c r="F553" s="10"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A554" s="10">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -12071,7 +12074,7 @@
       <c r="F554" s="10"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A555" s="10">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -12087,7 +12090,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A556" s="10">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -12119,7 +12122,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A558" s="10">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -12135,7 +12138,7 @@
       <c r="F558" s="10"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A559" s="10">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -12153,7 +12156,7 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A560" s="10">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -12169,7 +12172,7 @@
       <c r="F560" s="10"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A561" s="10">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -12185,7 +12188,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A562" s="10">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -12201,7 +12204,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A563" s="10">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -12217,7 +12220,7 @@
       <c r="F563" s="10"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A564" s="10">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -12235,7 +12238,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A565" s="10">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -12251,7 +12254,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A566" s="10">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -12267,7 +12270,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A567" s="10">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -12283,7 +12286,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A568" s="10">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -12299,7 +12302,7 @@
       <c r="F568" s="10"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A569" s="10">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -12315,7 +12318,7 @@
       <c r="F569" s="10"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A570" s="10">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -12331,7 +12334,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A571" s="10">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -12347,7 +12350,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A572" s="10">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -12363,7 +12366,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A573" s="10">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -12379,7 +12382,7 @@
       <c r="F573" s="10"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A574" s="10">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -12397,7 +12400,7 @@
       <c r="F574" s="10"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A575" s="10">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -12415,7 +12418,7 @@
       <c r="F575" s="10"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A576" s="10">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -12431,7 +12434,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A577" s="10">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -12449,7 +12452,7 @@
       <c r="F577" s="10"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A578" s="10">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -12467,7 +12470,7 @@
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A579" s="10">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -12485,7 +12488,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A580" s="10">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -12503,7 +12506,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A581" s="10">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -12519,7 +12522,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A582" s="10">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -12535,7 +12538,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A583" s="10">
         <f t="shared" ref="A583:A646" si="9">A582+1</f>
         <v>578</v>
@@ -12551,7 +12554,7 @@
       <c r="F583" s="10"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A584" s="10">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -12567,7 +12570,7 @@
       <c r="F584" s="10"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A585" s="10">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -12583,7 +12586,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A586" s="10">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -12599,7 +12602,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A587" s="10">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -12615,7 +12618,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A588" s="10">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -12631,7 +12634,7 @@
       <c r="F588" s="10"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A589" s="10">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -12647,7 +12650,7 @@
       <c r="F589" s="10"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A590" s="10">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -12663,7 +12666,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A591" s="10">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -12679,7 +12682,7 @@
       <c r="F591" s="10"/>
       <c r="G591" s="12"/>
     </row>
-    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="592" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A592" s="10">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -12697,7 +12700,7 @@
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A593" s="10">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -12713,7 +12716,7 @@
       <c r="F593" s="10"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A594" s="10">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -12729,7 +12732,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A595" s="10">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -12745,7 +12748,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A596" s="10">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -12761,7 +12764,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A597" s="10">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -12777,7 +12780,7 @@
       <c r="F597" s="10"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A598" s="10">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -12793,7 +12796,7 @@
       <c r="F598" s="10"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A599" s="10">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -12809,7 +12812,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A600" s="10">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -12825,7 +12828,7 @@
       <c r="F600" s="10"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A601" s="10">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -12841,7 +12844,7 @@
       <c r="F601" s="10"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A602" s="10">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -12850,14 +12853,14 @@
         <v>548</v>
       </c>
       <c r="C602" s="10" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D602" s="10"/>
       <c r="E602" s="10"/>
       <c r="F602" s="10"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A603" s="10">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -12873,7 +12876,7 @@
       <c r="F603" s="10"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A604" s="10">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -12889,7 +12892,7 @@
       <c r="F604" s="10"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A605" s="10">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -12905,7 +12908,7 @@
       <c r="F605" s="10"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A606" s="10">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -12921,7 +12924,7 @@
       <c r="F606" s="10"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A607" s="10">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -12937,7 +12940,7 @@
       <c r="F607" s="10"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A608" s="10">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -12953,7 +12956,7 @@
       <c r="F608" s="10"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A609" s="10">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -12969,7 +12972,7 @@
       <c r="F609" s="10"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A610" s="10">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -12987,7 +12990,7 @@
       <c r="F610" s="10"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A611" s="10">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -13003,7 +13006,7 @@
       <c r="F611" s="10"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A612" s="10">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -13019,7 +13022,7 @@
       <c r="F612" s="10"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A613" s="10">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -13035,7 +13038,7 @@
       <c r="F613" s="10"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A614" s="10">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -13051,7 +13054,7 @@
       <c r="F614" s="10"/>
       <c r="G614" s="12"/>
     </row>
-    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="615" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A615" s="10">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -13067,7 +13070,7 @@
       <c r="F615" s="10"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A616" s="10">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -13083,7 +13086,7 @@
       <c r="F616" s="10"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A617" s="10">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -13099,7 +13102,7 @@
       <c r="F617" s="10"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A618" s="10">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -13115,7 +13118,7 @@
       <c r="F618" s="10"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A619" s="10">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -13133,7 +13136,7 @@
       <c r="F619" s="10"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A620" s="10">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -13149,7 +13152,7 @@
       <c r="F620" s="10"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A621" s="10">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -13183,7 +13186,7 @@
       <c r="F622" s="10"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A623" s="10">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -13199,7 +13202,7 @@
       <c r="F623" s="10"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A624" s="10">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -13219,7 +13222,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A625" s="10">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -13235,7 +13238,7 @@
       <c r="F625" s="10"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A626" s="10">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -13267,7 +13270,7 @@
       <c r="F627" s="10"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A628" s="10">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -13283,7 +13286,7 @@
       <c r="F628" s="10"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A629" s="10">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -13299,7 +13302,7 @@
       <c r="F629" s="10"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A630" s="10">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -13315,7 +13318,7 @@
       <c r="F630" s="10"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A631" s="10">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -13331,7 +13334,7 @@
       <c r="F631" s="10"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A632" s="10">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -13347,7 +13350,7 @@
       <c r="F632" s="10"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A633" s="10">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -13365,7 +13368,7 @@
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A634" s="10">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -13381,7 +13384,7 @@
       <c r="F634" s="10"/>
       <c r="G634" s="12"/>
     </row>
-    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="635" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A635" s="10">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -13397,7 +13400,7 @@
       <c r="F635" s="10"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A636" s="10">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -13417,7 +13420,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A637" s="10">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -13433,7 +13436,7 @@
       <c r="F637" s="10"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A638" s="10">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -13449,7 +13452,7 @@
       <c r="F638" s="10"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A639" s="10">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -13465,7 +13468,7 @@
       <c r="F639" s="10"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A640" s="10">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -13481,7 +13484,7 @@
       <c r="F640" s="10"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A641" s="10">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -13499,7 +13502,7 @@
       <c r="F641" s="10"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A642" s="10">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -13515,7 +13518,7 @@
       <c r="F642" s="10"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A643" s="10">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -13549,7 +13552,7 @@
       <c r="F644" s="10"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A645" s="10">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -13647,7 +13650,7 @@
       <c r="F650" s="10"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A651" s="10">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -13663,7 +13666,7 @@
       <c r="F651" s="10"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A652" s="10">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -13679,7 +13682,7 @@
       <c r="F652" s="10"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A653" s="10">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -13695,7 +13698,7 @@
       <c r="F653" s="10"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A654" s="10">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -13711,7 +13714,7 @@
       <c r="F654" s="10"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A655" s="10">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -13727,7 +13730,7 @@
       <c r="F655" s="10"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A656" s="10">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -13743,7 +13746,7 @@
       <c r="F656" s="10"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A657" s="10">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -13759,7 +13762,7 @@
       <c r="F657" s="10"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A658" s="10">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -13777,7 +13780,7 @@
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A659" s="10">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -13793,7 +13796,7 @@
       <c r="F659" s="10"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A660" s="10">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -13809,7 +13812,7 @@
       <c r="F660" s="10"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A661" s="10">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -13827,7 +13830,7 @@
       <c r="F661" s="10"/>
       <c r="G661" s="12"/>
     </row>
-    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="662" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A662" s="10">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -13843,7 +13846,7 @@
       <c r="F662" s="10"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A663" s="10">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -13859,7 +13862,7 @@
       <c r="F663" s="10"/>
       <c r="G663" s="12"/>
     </row>
-    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="664" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A664" s="10">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -13875,7 +13878,7 @@
       <c r="F664" s="10"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A665" s="10">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -13891,7 +13894,7 @@
       <c r="F665" s="10"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A666" s="10">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -13907,7 +13910,7 @@
       <c r="F666" s="10"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A667" s="10">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -13925,7 +13928,7 @@
       <c r="F667" s="10"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A668" s="10">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -13941,7 +13944,7 @@
       <c r="F668" s="10"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A669" s="10">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -13957,7 +13960,7 @@
       <c r="F669" s="10"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A670" s="10">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -13973,7 +13976,7 @@
       <c r="F670" s="10"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A671" s="10">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -13989,7 +13992,7 @@
       <c r="F671" s="10"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A672" s="10">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -14005,7 +14008,7 @@
       <c r="F672" s="10"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A673" s="10">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -14023,7 +14026,7 @@
       <c r="F673" s="10"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A674" s="10">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -14041,7 +14044,7 @@
       <c r="F674" s="10"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A675" s="10">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -14057,7 +14060,7 @@
       <c r="F675" s="10"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A676" s="10">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -14073,7 +14076,7 @@
       <c r="F676" s="10"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A677" s="10">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -14089,7 +14092,7 @@
       <c r="F677" s="10"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A678" s="10">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -14107,7 +14110,7 @@
       <c r="F678" s="10"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A679" s="10">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -14123,7 +14126,7 @@
       <c r="F679" s="10"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A680" s="10">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -14139,7 +14142,7 @@
       <c r="F680" s="10"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A681" s="10">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -14155,7 +14158,7 @@
       <c r="F681" s="10"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A682" s="10">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -14171,7 +14174,7 @@
       <c r="F682" s="10"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A683" s="10">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -14187,7 +14190,7 @@
       <c r="F683" s="10"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A684" s="10">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -14203,7 +14206,7 @@
       <c r="F684" s="10"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A685" s="10">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -14219,7 +14222,7 @@
       <c r="F685" s="10"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A686" s="10">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -14235,7 +14238,7 @@
       <c r="F686" s="10"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A687" s="10">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -14251,7 +14254,7 @@
       <c r="F687" s="10"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A688" s="10">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -14269,7 +14272,7 @@
       <c r="F688" s="10"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A689" s="10">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -14287,7 +14290,7 @@
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A690" s="10">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -14303,7 +14306,7 @@
       <c r="F690" s="10"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A691" s="10">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -14319,7 +14322,7 @@
       <c r="F691" s="10"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A692" s="10">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -14335,7 +14338,7 @@
       <c r="F692" s="10"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A693" s="10">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -14351,7 +14354,7 @@
       <c r="F693" s="10"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A694" s="10">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -14367,7 +14370,7 @@
       <c r="F694" s="10"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A695" s="10">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -14383,7 +14386,7 @@
       <c r="F695" s="10"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A696" s="10">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -14399,7 +14402,7 @@
       <c r="F696" s="10"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A697" s="10">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -14415,7 +14418,7 @@
       <c r="F697" s="10"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A698" s="10">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -14431,7 +14434,7 @@
       <c r="F698" s="10"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A699" s="10">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -14447,7 +14450,7 @@
       <c r="F699" s="10"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A700" s="10">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -14463,7 +14466,7 @@
       <c r="F700" s="10"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A701" s="10">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -14479,7 +14482,7 @@
       <c r="F701" s="10"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A702" s="10">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -14495,7 +14498,7 @@
       <c r="F702" s="10"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A703" s="10">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -14511,7 +14514,7 @@
       <c r="F703" s="10"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A704" s="10">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -14527,7 +14530,7 @@
       <c r="F704" s="10"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A705" s="10">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -14543,7 +14546,7 @@
       <c r="F705" s="10"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A706" s="10">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -14559,7 +14562,7 @@
       <c r="F706" s="10"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A707" s="10">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -14575,7 +14578,7 @@
       <c r="F707" s="10"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A708" s="10">
         <f t="shared" si="10"/>
         <v>703</v>
@@ -14591,7 +14594,7 @@
       <c r="F708" s="10"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A709" s="10">
         <f t="shared" si="10"/>
         <v>704</v>
@@ -14623,7 +14626,7 @@
       <c r="F710" s="10"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A711" s="10">
         <f t="shared" ref="A711:A774" si="11">A710+1</f>
         <v>706</v>
@@ -14639,7 +14642,7 @@
       <c r="F711" s="10"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A712" s="10">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -14655,7 +14658,7 @@
       <c r="F712" s="10"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A713" s="10">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -14671,7 +14674,7 @@
       <c r="F713" s="10"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A714" s="10">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -14687,7 +14690,7 @@
       <c r="F714" s="10"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A715" s="10">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -14703,7 +14706,7 @@
       <c r="F715" s="10"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A716" s="10">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -14721,7 +14724,7 @@
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A717" s="10">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -14739,7 +14742,7 @@
       <c r="F717" s="10"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A718" s="10">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -14771,7 +14774,7 @@
       <c r="F719" s="10"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A720" s="10">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -14798,12 +14801,14 @@
       <c r="C721" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D721" s="10"/>
+      <c r="D721" s="10" t="s">
+        <v>828</v>
+      </c>
       <c r="E721" s="10"/>
       <c r="F721" s="10"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A722" s="10">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -14821,7 +14826,7 @@
       <c r="F722" s="10"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A723" s="10">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -14839,7 +14844,7 @@
       <c r="F723" s="10"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A724" s="10">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -14857,7 +14862,7 @@
       <c r="F724" s="10"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A725" s="10">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -14875,7 +14880,7 @@
       <c r="F725" s="10"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A726" s="10">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -14891,7 +14896,7 @@
       <c r="F726" s="10"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A727" s="10">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -14907,7 +14912,7 @@
       <c r="F727" s="10"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A728" s="10">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -14923,7 +14928,7 @@
       <c r="F728" s="10"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A729" s="10">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -14939,7 +14944,7 @@
       <c r="F729" s="10"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A730" s="10">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -14957,7 +14962,7 @@
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A731" s="10">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -14973,7 +14978,7 @@
       <c r="F731" s="10"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A732" s="10">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -14989,7 +14994,7 @@
       <c r="F732" s="10"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A733" s="10">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -15021,7 +15026,7 @@
       <c r="F734" s="10"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A735" s="10">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -15037,7 +15042,7 @@
       <c r="F735" s="10"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A736" s="10">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -15053,7 +15058,7 @@
       <c r="F736" s="10"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A737" s="10">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -15069,7 +15074,7 @@
       <c r="F737" s="10"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A738" s="10">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -15085,7 +15090,7 @@
       <c r="F738" s="10"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A739" s="10">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -15101,7 +15106,7 @@
       <c r="F739" s="10"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A740" s="10">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -15117,7 +15122,7 @@
       <c r="F740" s="10"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A741" s="10">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -15133,7 +15138,7 @@
       <c r="F741" s="10"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A742" s="10">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -15151,7 +15156,7 @@
       <c r="F742" s="10"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A743" s="10">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -15167,7 +15172,7 @@
       <c r="F743" s="10"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A744" s="10">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -15183,7 +15188,7 @@
       <c r="F744" s="10"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A745" s="10">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -15199,7 +15204,7 @@
       <c r="F745" s="10"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A746" s="10">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -15215,7 +15220,7 @@
       <c r="F746" s="10"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A747" s="10">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -15231,7 +15236,7 @@
       <c r="F747" s="10"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A748" s="10">
         <f t="shared" si="11"/>
         <v>743</v>
@@ -15247,7 +15252,7 @@
       <c r="F748" s="10"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A749" s="10">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -15265,7 +15270,7 @@
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A750" s="10">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -15281,7 +15286,7 @@
       <c r="F750" s="10"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A751" s="10">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -15297,7 +15302,7 @@
       <c r="F751" s="10"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A752" s="10">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -15313,7 +15318,7 @@
       <c r="F752" s="10"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A753" s="10">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -15329,7 +15334,7 @@
       <c r="F753" s="10"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A754" s="10">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -15345,7 +15350,7 @@
       <c r="F754" s="10"/>
       <c r="G754" s="12"/>
     </row>
-    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="755" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A755" s="10">
         <f t="shared" si="11"/>
         <v>750</v>
@@ -15363,7 +15368,7 @@
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A756" s="10">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -15379,7 +15384,7 @@
       <c r="F756" s="10"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A757" s="10">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -15395,7 +15400,7 @@
       <c r="F757" s="10"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A758" s="10">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -15411,7 +15416,7 @@
       <c r="F758" s="10"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A759" s="10">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -15427,7 +15432,7 @@
       <c r="F759" s="10"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A760" s="10">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -15443,7 +15448,7 @@
       <c r="F760" s="10"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A761" s="10">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -15459,7 +15464,7 @@
       <c r="F761" s="10"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A762" s="10">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -15475,7 +15480,7 @@
       <c r="F762" s="10"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A763" s="10">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -15491,7 +15496,7 @@
       <c r="F763" s="10"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A764" s="10">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -15507,7 +15512,7 @@
       <c r="F764" s="10"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A765" s="10">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -15523,7 +15528,7 @@
       <c r="F765" s="10"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A766" s="10">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -15539,7 +15544,7 @@
       <c r="F766" s="10"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A767" s="10">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -15555,7 +15560,7 @@
       <c r="F767" s="10"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A768" s="10">
         <f t="shared" si="11"/>
         <v>763</v>
@@ -15573,7 +15578,7 @@
       <c r="F768" s="10"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A769" s="10">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -15589,7 +15594,7 @@
       <c r="F769" s="10"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A770" s="10">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -15609,7 +15614,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A771" s="10">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -15625,7 +15630,7 @@
       <c r="F771" s="10"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A772" s="10">
         <f t="shared" si="11"/>
         <v>767</v>
@@ -15641,7 +15646,7 @@
       <c r="F772" s="10"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A773" s="10">
         <f t="shared" si="11"/>
         <v>768</v>
@@ -15657,7 +15662,7 @@
       <c r="F773" s="10"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A774" s="10">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -15673,7 +15678,7 @@
       <c r="F774" s="10"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A775" s="10">
         <f t="shared" ref="A775:A783" si="12">A774+1</f>
         <v>770</v>
@@ -15693,7 +15698,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A776" s="10">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -15709,7 +15714,7 @@
       <c r="F776" s="10"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A777" s="10">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -15725,7 +15730,7 @@
       <c r="F777" s="10"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A778" s="10">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -15741,7 +15746,7 @@
       <c r="F778" s="10"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A779" s="10">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -15757,7 +15762,7 @@
       <c r="F779" s="10"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A780" s="10">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -15773,7 +15778,7 @@
       <c r="F780" s="10"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A781" s="10">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -15789,7 +15794,7 @@
       <c r="F781" s="10"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A782" s="10">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -15805,7 +15810,7 @@
       <c r="F782" s="10"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
+    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
       <c r="A783" s="10">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -15823,11 +15828,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G783">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Variables"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="2"/>
     <sortState ref="A6:G783">
       <sortCondition ref="B5:B783"/>
     </sortState>

--- a/newrpl/docs/newRPL Command Database.xlsx
+++ b/newrpl/docs/newRPL Command Database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="836">
   <si>
     <t>!</t>
   </si>
@@ -2972,11 +2972,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:G783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D424" sqref="D424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2996,7 +2997,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="7">
         <f>COUNTA(D6:D1001)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>823</v>
@@ -3012,7 +3013,7 @@
       </c>
       <c r="D3" s="8">
         <f>D2/F2</f>
-        <v>0.20308483290488433</v>
+        <v>0.20437017994858611</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
@@ -3041,7 +3042,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -3178,7 +3179,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A14" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3214,7 +3215,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A16" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3232,7 +3233,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="17" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A17" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3284,7 +3285,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A20" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3354,7 +3355,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3372,7 +3373,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A25" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3390,7 +3391,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A26" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3424,7 +3425,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A28" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3476,7 +3477,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A31" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3494,7 +3495,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A32" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3510,7 +3511,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="33" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A33" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3528,7 +3529,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A34" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3546,7 +3547,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A35" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3564,7 +3565,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A36" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3580,7 +3581,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A37" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3596,7 +3597,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="38" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A38" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3612,7 +3613,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="39" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A39" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3628,7 +3629,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="40" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A40" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3644,7 +3645,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="41" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A41" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3660,7 +3661,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="42" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A42" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3676,7 +3677,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="43" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A43" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3692,7 +3693,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="44" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A44" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3708,7 +3709,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="45" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A45" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3726,7 +3727,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="46" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3742,7 +3743,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="47" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3758,7 +3759,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="48" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3776,7 +3777,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="49" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3792,7 +3793,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="50" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3808,7 +3809,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="51" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3826,7 +3827,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="52" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A52" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3844,7 +3845,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="53" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A53" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3860,7 +3861,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="54" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A54" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3876,7 +3877,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="55" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A55" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3894,7 +3895,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="56" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A56" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3910,7 +3911,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="57" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A57" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3926,7 +3927,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="58" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A58" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3942,7 +3943,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="12"/>
     </row>
-    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="59" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A59" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3958,7 +3959,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="60" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A60" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3974,7 +3975,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="12"/>
     </row>
-    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="61" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A61" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3990,7 +3991,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="12"/>
     </row>
-    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="62" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A62" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4024,7 +4025,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="12"/>
     </row>
-    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="64" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A64" s="10">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4040,7 +4041,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="12"/>
     </row>
-    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="65" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A65" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4056,7 +4057,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="66" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A66" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4074,7 +4075,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="12"/>
     </row>
-    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="67" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A67" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4090,7 +4091,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="12"/>
     </row>
-    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="68" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A68" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4108,7 +4109,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="69" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A69" s="10">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4142,7 +4143,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="71" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A71" s="10">
         <f t="shared" ref="A71:A134" si="1">A70+1</f>
         <v>66</v>
@@ -4158,7 +4159,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="72" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A72" s="10">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4174,7 +4175,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="73" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A73" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4190,7 +4191,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="74" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A74" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4206,7 +4207,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="75" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A75" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4224,7 +4225,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="12"/>
     </row>
-    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="76" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A76" s="10">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4240,7 +4241,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="12"/>
     </row>
-    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="77" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A77" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4256,7 +4257,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="12"/>
     </row>
-    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="78" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A78" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4272,7 +4273,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="12"/>
     </row>
-    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="79" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A79" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4288,7 +4289,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="12"/>
     </row>
-    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="80" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A80" s="10">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4304,7 +4305,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="12"/>
     </row>
-    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="81" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A81" s="10">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4320,7 +4321,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="82" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A82" s="10">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4338,7 +4339,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="83" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A83" s="10">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4354,7 +4355,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="84" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A84" s="10">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4370,7 +4371,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="85" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A85" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4388,7 +4389,7 @@
       <c r="F85" s="10"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="86" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A86" s="10">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4406,7 +4407,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="87" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A87" s="10">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4422,7 +4423,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="88" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A88" s="10">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4438,7 +4439,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="89" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A89" s="10">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4456,7 +4457,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="90" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A90" s="10">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4472,7 +4473,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="91" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A91" s="10">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4488,7 +4489,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="92" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A92" s="10">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4504,7 +4505,7 @@
       <c r="F92" s="10"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="93" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A93" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4520,7 +4521,7 @@
       <c r="F93" s="10"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="94" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A94" s="10">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4536,7 +4537,7 @@
       <c r="F94" s="10"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="95" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A95" s="10">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4556,7 +4557,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="96" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A96" s="10">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4572,7 +4573,7 @@
       <c r="F96" s="10"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="97" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A97" s="10">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4590,7 +4591,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="98" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A98" s="10">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4606,7 +4607,7 @@
       <c r="F98" s="10"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="99" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A99" s="10">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4624,7 +4625,7 @@
       <c r="F99" s="10"/>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="100" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A100" s="10">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4640,7 +4641,7 @@
       <c r="F100" s="10"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="101" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A101" s="10">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4656,7 +4657,7 @@
       <c r="F101" s="10"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="102" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A102" s="10">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4672,7 +4673,7 @@
       <c r="F102" s="10"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="103" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A103" s="10">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4688,7 +4689,7 @@
       <c r="F103" s="10"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="104" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A104" s="10">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4704,7 +4705,7 @@
       <c r="F104" s="10"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="105" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A105" s="10">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4720,7 +4721,7 @@
       <c r="F105" s="10"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="106" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A106" s="10">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4736,7 +4737,7 @@
       <c r="F106" s="10"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="107" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A107" s="10">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4752,7 +4753,7 @@
       <c r="F107" s="10"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="108" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A108" s="10">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4770,7 +4771,7 @@
       <c r="F108" s="10"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="109" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A109" s="10">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4786,7 +4787,7 @@
       <c r="F109" s="10"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="110" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A110" s="10">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4802,7 +4803,7 @@
       <c r="F110" s="10"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="111" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A111" s="10">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4818,7 +4819,7 @@
       <c r="F111" s="10"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="112" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A112" s="10">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4834,7 +4835,7 @@
       <c r="F112" s="10"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="113" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A113" s="10">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4850,7 +4851,7 @@
       <c r="F113" s="10"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="114" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A114" s="10">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4866,7 +4867,7 @@
       <c r="F114" s="10"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="115" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A115" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4882,7 +4883,7 @@
       <c r="F115" s="10"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="116" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A116" s="10">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -4898,7 +4899,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="117" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A117" s="10">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -4914,7 +4915,7 @@
       <c r="F117" s="10"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="118" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A118" s="10">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -4930,7 +4931,7 @@
       <c r="F118" s="10"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="119" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A119" s="10">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -4946,7 +4947,7 @@
       <c r="F119" s="10"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="120" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A120" s="10">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -4962,7 +4963,7 @@
       <c r="F120" s="10"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="121" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A121" s="10">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -4978,7 +4979,7 @@
       <c r="F121" s="10"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="122" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A122" s="10">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -4994,7 +4995,7 @@
       <c r="F122" s="10"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="123" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A123" s="10">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5012,7 +5013,7 @@
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="124" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A124" s="10">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5028,7 +5029,7 @@
       <c r="F124" s="10"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="125" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A125" s="10">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5044,7 +5045,7 @@
       <c r="F125" s="10"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="126" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A126" s="10">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5060,7 +5061,7 @@
       <c r="F126" s="10"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="127" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A127" s="10">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5078,7 +5079,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="128" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A128" s="10">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5096,7 +5097,7 @@
       <c r="F128" s="10"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="129" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A129" s="10">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5112,7 +5113,7 @@
       <c r="F129" s="10"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="130" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A130" s="10">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5130,7 +5131,7 @@
       <c r="F130" s="10"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="131" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A131" s="10">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5146,7 +5147,7 @@
       <c r="F131" s="10"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="132" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A132" s="10">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5162,7 +5163,7 @@
       <c r="F132" s="10"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="133" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A133" s="10">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5178,7 +5179,7 @@
       <c r="F133" s="10"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="134" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A134" s="10">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5198,7 +5199,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="135" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A135" s="10">
         <f t="shared" ref="A135:A198" si="2">A134+1</f>
         <v>130</v>
@@ -5214,7 +5215,7 @@
       <c r="F135" s="10"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="136" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A136" s="10">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -5230,7 +5231,7 @@
       <c r="F136" s="10"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="137" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A137" s="10">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5248,7 +5249,7 @@
       <c r="F137" s="10"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="138" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A138" s="10">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5264,7 +5265,7 @@
       <c r="F138" s="10"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="139" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A139" s="10">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5280,7 +5281,7 @@
       <c r="F139" s="10"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="140" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A140" s="10">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5296,7 +5297,7 @@
       <c r="F140" s="10"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="141" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A141" s="10">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5312,7 +5313,7 @@
       <c r="F141" s="10"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="142" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A142" s="10">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5328,7 +5329,7 @@
       <c r="F142" s="10"/>
       <c r="G142" s="12"/>
     </row>
-    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="143" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A143" s="10">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5344,7 +5345,7 @@
       <c r="F143" s="10"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="144" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A144" s="10">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5360,7 +5361,7 @@
       <c r="F144" s="10"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="145" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A145" s="10">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5378,7 +5379,7 @@
       <c r="F145" s="10"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="146" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A146" s="10">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5396,7 +5397,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="147" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A147" s="10">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5414,7 +5415,7 @@
       <c r="F147" s="10"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="148" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A148" s="10">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5430,7 +5431,7 @@
       <c r="F148" s="10"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="149" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A149" s="10">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5446,7 +5447,7 @@
       <c r="F149" s="10"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="150" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A150" s="10">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5462,7 +5463,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="151" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A151" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5478,7 +5479,7 @@
       <c r="F151" s="10"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="152" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A152" s="10">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5494,7 +5495,7 @@
       <c r="F152" s="10"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="153" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A153" s="10">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5510,7 +5511,7 @@
       <c r="F153" s="10"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="154" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A154" s="10">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5526,7 +5527,7 @@
       <c r="F154" s="10"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="155" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A155" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5544,7 +5545,7 @@
       <c r="F155" s="10"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="156" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A156" s="10">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5560,7 +5561,7 @@
       <c r="F156" s="10"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="157" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A157" s="10">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5576,7 +5577,7 @@
       <c r="F157" s="10"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="158" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A158" s="10">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5592,7 +5593,7 @@
       <c r="F158" s="10"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="159" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A159" s="10">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5608,7 +5609,7 @@
       <c r="F159" s="10"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="160" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A160" s="10">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -5626,7 +5627,7 @@
       <c r="F160" s="10"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="161" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A161" s="10">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -5642,7 +5643,7 @@
       <c r="F161" s="10"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="162" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A162" s="10">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -5660,7 +5661,7 @@
       <c r="F162" s="10"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="163" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A163" s="10">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -5678,7 +5679,7 @@
       <c r="F163" s="10"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="164" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A164" s="10">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -5694,7 +5695,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="165" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A165" s="10">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -5710,7 +5711,7 @@
       <c r="F165" s="10"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="166" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A166" s="10">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -5728,7 +5729,7 @@
       <c r="F166" s="10"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="167" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A167" s="10">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -5744,7 +5745,7 @@
       <c r="F167" s="10"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="168" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A168" s="10">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -5760,7 +5761,7 @@
       <c r="F168" s="10"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="169" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A169" s="10">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -5776,7 +5777,7 @@
       <c r="F169" s="10"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="170" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A170" s="10">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -5792,7 +5793,7 @@
       <c r="F170" s="10"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="171" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A171" s="10">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -5808,7 +5809,7 @@
       <c r="F171" s="10"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="172" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A172" s="10">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -5824,7 +5825,7 @@
       <c r="F172" s="10"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="173" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A173" s="10">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -5840,7 +5841,7 @@
       <c r="F173" s="10"/>
       <c r="G173" s="12"/>
     </row>
-    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="174" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A174" s="10">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -5856,7 +5857,7 @@
       <c r="F174" s="10"/>
       <c r="G174" s="12"/>
     </row>
-    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="175" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A175" s="10">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -5872,7 +5873,7 @@
       <c r="F175" s="10"/>
       <c r="G175" s="12"/>
     </row>
-    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="176" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A176" s="10">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -5888,7 +5889,7 @@
       <c r="F176" s="10"/>
       <c r="G176" s="12"/>
     </row>
-    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="177" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A177" s="10">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -5904,7 +5905,7 @@
       <c r="F177" s="10"/>
       <c r="G177" s="12"/>
     </row>
-    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="178" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A178" s="10">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -5920,7 +5921,7 @@
       <c r="F178" s="10"/>
       <c r="G178" s="12"/>
     </row>
-    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="179" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A179" s="10">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -5936,7 +5937,7 @@
       <c r="F179" s="10"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="180" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A180" s="10">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -5954,7 +5955,7 @@
       <c r="F180" s="10"/>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="181" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A181" s="10">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -5970,7 +5971,7 @@
       <c r="F181" s="10"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="182" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A182" s="10">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -5986,7 +5987,7 @@
       <c r="F182" s="10"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="183" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A183" s="10">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6002,7 +6003,7 @@
       <c r="F183" s="10"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="184" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A184" s="10">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6020,7 +6021,7 @@
       <c r="F184" s="10"/>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="185" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A185" s="10">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6036,7 +6037,7 @@
       <c r="F185" s="10"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="186" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A186" s="10">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6052,7 +6053,7 @@
       <c r="F186" s="10"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="187" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A187" s="10">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6068,7 +6069,7 @@
       <c r="F187" s="10"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="188" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A188" s="10">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6084,7 +6085,7 @@
       <c r="F188" s="10"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="189" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A189" s="10">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6100,7 +6101,7 @@
       <c r="F189" s="10"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="190" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A190" s="10">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6118,7 +6119,7 @@
       <c r="F190" s="10"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="191" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A191" s="10">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6134,7 +6135,7 @@
       <c r="F191" s="10"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="192" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A192" s="10">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6150,7 +6151,7 @@
       <c r="F192" s="10"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="193" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A193" s="10">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6166,7 +6167,7 @@
       <c r="F193" s="10"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="194" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A194" s="10">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6182,7 +6183,7 @@
       <c r="F194" s="10"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="195" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A195" s="10">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6198,7 +6199,7 @@
       <c r="F195" s="10"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="196" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A196" s="10">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6214,7 +6215,7 @@
       <c r="F196" s="10"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="197" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A197" s="10">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6230,7 +6231,7 @@
       <c r="F197" s="10"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="198" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A198" s="10">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6246,7 +6247,7 @@
       <c r="F198" s="10"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="199" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A199" s="10">
         <f t="shared" ref="A199:A262" si="3">A198+1</f>
         <v>194</v>
@@ -6262,7 +6263,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="200" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A200" s="10">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -6278,7 +6279,7 @@
       <c r="F200" s="10"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="201" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A201" s="10">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6294,7 +6295,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="202" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A202" s="10">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6310,7 +6311,7 @@
       <c r="F202" s="10"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="203" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A203" s="10">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -6326,7 +6327,7 @@
       <c r="F203" s="10"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="204" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A204" s="10">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -6342,7 +6343,7 @@
       <c r="F204" s="10"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="205" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A205" s="10">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -6358,7 +6359,7 @@
       <c r="F205" s="10"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="206" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A206" s="10">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -6374,7 +6375,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="207" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A207" s="10">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -6390,7 +6391,7 @@
       <c r="F207" s="10"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="208" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A208" s="10">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -6406,7 +6407,7 @@
       <c r="F208" s="10"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="209" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A209" s="10">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -6422,7 +6423,7 @@
       <c r="F209" s="10"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="210" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A210" s="10">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -6440,7 +6441,7 @@
       <c r="F210" s="10"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="211" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A211" s="10">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -6456,7 +6457,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="212" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A212" s="10">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -6476,7 +6477,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="213" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A213" s="10">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -6492,7 +6493,7 @@
       <c r="F213" s="10"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A214" s="10">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -6512,7 +6513,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="215" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A215" s="10">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -6528,7 +6529,7 @@
       <c r="F215" s="10"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="216" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A216" s="10">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -6544,7 +6545,7 @@
       <c r="F216" s="10"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A217" s="10">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -6560,7 +6561,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="218" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A218" s="10">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -6576,7 +6577,7 @@
       <c r="F218" s="10"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="219" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A219" s="10">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -6592,7 +6593,7 @@
       <c r="F219" s="10"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="220" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A220" s="10">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -6610,7 +6611,7 @@
       <c r="F220" s="10"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="221" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A221" s="10">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -6628,7 +6629,7 @@
       <c r="F221" s="10"/>
       <c r="G221" s="12"/>
     </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="222" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A222" s="10">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -6646,7 +6647,7 @@
       <c r="F222" s="10"/>
       <c r="G222" s="12"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A223" s="10">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -6662,7 +6663,7 @@
       <c r="F223" s="10"/>
       <c r="G223" s="12"/>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="224" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A224" s="10">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -6680,7 +6681,7 @@
       <c r="F224" s="10"/>
       <c r="G224" s="12"/>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A225" s="10">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -6698,7 +6699,7 @@
       <c r="F225" s="10"/>
       <c r="G225" s="12"/>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="226" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A226" s="10">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -6716,7 +6717,7 @@
       <c r="F226" s="10"/>
       <c r="G226" s="12"/>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="227" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A227" s="10">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -6734,7 +6735,7 @@
       <c r="F227" s="10"/>
       <c r="G227" s="12"/>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A228" s="10">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -6750,7 +6751,7 @@
       <c r="F228" s="10"/>
       <c r="G228" s="12"/>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A229" s="10">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -6766,7 +6767,7 @@
       <c r="F229" s="10"/>
       <c r="G229" s="12"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A230" s="10">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -6782,7 +6783,7 @@
       <c r="F230" s="10"/>
       <c r="G230" s="12"/>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="231" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A231" s="10">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -6798,7 +6799,7 @@
       <c r="F231" s="10"/>
       <c r="G231" s="12"/>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="232" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A232" s="10">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -6814,7 +6815,7 @@
       <c r="F232" s="10"/>
       <c r="G232" s="12"/>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A233" s="10">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -6830,7 +6831,7 @@
       <c r="F233" s="10"/>
       <c r="G233" s="12"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A234" s="10">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -6848,7 +6849,7 @@
       <c r="F234" s="10"/>
       <c r="G234" s="12"/>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="235" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A235" s="10">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -6866,7 +6867,7 @@
       <c r="F235" s="10"/>
       <c r="G235" s="12"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A236" s="10">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -6884,7 +6885,7 @@
       <c r="F236" s="10"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A237" s="10">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -6900,7 +6901,7 @@
       <c r="F237" s="10"/>
       <c r="G237" s="12"/>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="238" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A238" s="10">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -6916,7 +6917,7 @@
       <c r="F238" s="10"/>
       <c r="G238" s="12"/>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A239" s="10">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -6932,7 +6933,7 @@
       <c r="F239" s="10"/>
       <c r="G239" s="12"/>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A240" s="10">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -6948,7 +6949,7 @@
       <c r="F240" s="10"/>
       <c r="G240" s="12"/>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A241" s="10">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -6964,7 +6965,7 @@
       <c r="F241" s="10"/>
       <c r="G241" s="12"/>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="242" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A242" s="10">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -6980,7 +6981,7 @@
       <c r="F242" s="10"/>
       <c r="G242" s="12"/>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A243" s="10">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -6996,7 +6997,7 @@
       <c r="F243" s="10"/>
       <c r="G243" s="12"/>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A244" s="10">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7012,7 +7013,7 @@
       <c r="F244" s="10"/>
       <c r="G244" s="12"/>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="245" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A245" s="10">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7062,7 +7063,7 @@
       <c r="F247" s="10"/>
       <c r="G247" s="12"/>
     </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="248" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A248" s="10">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -7078,7 +7079,7 @@
       <c r="F248" s="10"/>
       <c r="G248" s="12"/>
     </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="249" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A249" s="10">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -7096,7 +7097,7 @@
       <c r="F249" s="10"/>
       <c r="G249" s="12"/>
     </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="250" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A250" s="10">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -7112,7 +7113,7 @@
       <c r="F250" s="10"/>
       <c r="G250" s="12"/>
     </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="251" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A251" s="10">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -7128,7 +7129,7 @@
       <c r="F251" s="10"/>
       <c r="G251" s="12"/>
     </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="252" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A252" s="10">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -7144,7 +7145,7 @@
       <c r="F252" s="10"/>
       <c r="G252" s="12"/>
     </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="253" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A253" s="10">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -7160,7 +7161,7 @@
       <c r="F253" s="10"/>
       <c r="G253" s="12"/>
     </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="254" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A254" s="10">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -7176,7 +7177,7 @@
       <c r="F254" s="10"/>
       <c r="G254" s="12"/>
     </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="255" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A255" s="10">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -7192,7 +7193,7 @@
       <c r="F255" s="10"/>
       <c r="G255" s="12"/>
     </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="256" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A256" s="10">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -7208,7 +7209,7 @@
       <c r="F256" s="10"/>
       <c r="G256" s="12"/>
     </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="257" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A257" s="10">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -7224,7 +7225,7 @@
       <c r="F257" s="10"/>
       <c r="G257" s="12"/>
     </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="258" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A258" s="10">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -7240,7 +7241,7 @@
       <c r="F258" s="10"/>
       <c r="G258" s="12"/>
     </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="259" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A259" s="10">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -7256,7 +7257,7 @@
       <c r="F259" s="10"/>
       <c r="G259" s="12"/>
     </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="260" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A260" s="10">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -7292,7 +7293,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="262" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A262" s="10">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -7308,7 +7309,7 @@
       <c r="F262" s="10"/>
       <c r="G262" s="12"/>
     </row>
-    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="263" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A263" s="10">
         <f t="shared" ref="A263:A326" si="4">A262+1</f>
         <v>258</v>
@@ -7340,7 +7341,7 @@
       <c r="F264" s="10"/>
       <c r="G264" s="12"/>
     </row>
-    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="265" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A265" s="10">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -7356,7 +7357,7 @@
       <c r="F265" s="10"/>
       <c r="G265" s="12"/>
     </row>
-    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="266" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A266" s="10">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -7372,7 +7373,7 @@
       <c r="F266" s="10"/>
       <c r="G266" s="12"/>
     </row>
-    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="267" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A267" s="10">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -7390,7 +7391,7 @@
       <c r="F267" s="10"/>
       <c r="G267" s="12"/>
     </row>
-    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="268" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A268" s="10">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -7408,7 +7409,7 @@
       <c r="F268" s="10"/>
       <c r="G268" s="12"/>
     </row>
-    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="269" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A269" s="10">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -7424,7 +7425,7 @@
       <c r="F269" s="10"/>
       <c r="G269" s="12"/>
     </row>
-    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="270" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A270" s="10">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -7456,7 +7457,7 @@
       <c r="F271" s="10"/>
       <c r="G271" s="12"/>
     </row>
-    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="272" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A272" s="10">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -7472,7 +7473,7 @@
       <c r="F272" s="10"/>
       <c r="G272" s="12"/>
     </row>
-    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="273" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A273" s="10">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -7488,7 +7489,7 @@
       <c r="F273" s="10"/>
       <c r="G273" s="12"/>
     </row>
-    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="274" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A274" s="10">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -7504,7 +7505,7 @@
       <c r="F274" s="10"/>
       <c r="G274" s="12"/>
     </row>
-    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="275" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A275" s="10">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -7520,7 +7521,7 @@
       <c r="F275" s="10"/>
       <c r="G275" s="12"/>
     </row>
-    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="276" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A276" s="10">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -7536,7 +7537,7 @@
       <c r="F276" s="10"/>
       <c r="G276" s="12"/>
     </row>
-    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="277" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A277" s="10">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -7554,7 +7555,7 @@
       <c r="F277" s="10"/>
       <c r="G277" s="12"/>
     </row>
-    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="278" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A278" s="10">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -7570,7 +7571,7 @@
       <c r="F278" s="10"/>
       <c r="G278" s="12"/>
     </row>
-    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="279" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A279" s="10">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -7586,7 +7587,7 @@
       <c r="F279" s="10"/>
       <c r="G279" s="12"/>
     </row>
-    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="280" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A280" s="10">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -7602,7 +7603,7 @@
       <c r="F280" s="10"/>
       <c r="G280" s="12"/>
     </row>
-    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="281" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A281" s="10">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -7618,7 +7619,7 @@
       <c r="F281" s="10"/>
       <c r="G281" s="12"/>
     </row>
-    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="282" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A282" s="10">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -7636,7 +7637,7 @@
       <c r="F282" s="10"/>
       <c r="G282" s="12"/>
     </row>
-    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="283" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A283" s="10">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -7652,7 +7653,7 @@
       <c r="F283" s="10"/>
       <c r="G283" s="12"/>
     </row>
-    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="284" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A284" s="10">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -7670,7 +7671,7 @@
       <c r="F284" s="10"/>
       <c r="G284" s="12"/>
     </row>
-    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="285" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A285" s="10">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -7702,7 +7703,7 @@
       <c r="F286" s="10"/>
       <c r="G286" s="12"/>
     </row>
-    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="287" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A287" s="10">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -7720,7 +7721,7 @@
       <c r="F287" s="10"/>
       <c r="G287" s="12"/>
     </row>
-    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="288" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A288" s="10">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -7738,7 +7739,7 @@
       <c r="F288" s="10"/>
       <c r="G288" s="12"/>
     </row>
-    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="289" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A289" s="10">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -7754,7 +7755,7 @@
       <c r="F289" s="10"/>
       <c r="G289" s="12"/>
     </row>
-    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="290" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A290" s="10">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -7786,7 +7787,7 @@
       <c r="F291" s="10"/>
       <c r="G291" s="12"/>
     </row>
-    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="292" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A292" s="10">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -7802,7 +7803,7 @@
       <c r="F292" s="10"/>
       <c r="G292" s="12"/>
     </row>
-    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="293" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A293" s="10">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -7850,7 +7851,7 @@
       <c r="F295" s="10"/>
       <c r="G295" s="12"/>
     </row>
-    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="296" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A296" s="10">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -7868,7 +7869,7 @@
       <c r="F296" s="10"/>
       <c r="G296" s="12"/>
     </row>
-    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="297" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A297" s="10">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -7886,7 +7887,7 @@
       <c r="F297" s="10"/>
       <c r="G297" s="12"/>
     </row>
-    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="298" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A298" s="10">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -7902,7 +7903,7 @@
       <c r="F298" s="10"/>
       <c r="G298" s="12"/>
     </row>
-    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="299" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A299" s="10">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -7918,7 +7919,7 @@
       <c r="F299" s="10"/>
       <c r="G299" s="12"/>
     </row>
-    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="300" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A300" s="10">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -7934,7 +7935,7 @@
       <c r="F300" s="10"/>
       <c r="G300" s="12"/>
     </row>
-    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="301" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A301" s="10">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -7950,7 +7951,7 @@
       <c r="F301" s="10"/>
       <c r="G301" s="12"/>
     </row>
-    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="302" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A302" s="10">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -7966,7 +7967,7 @@
       <c r="F302" s="10"/>
       <c r="G302" s="12"/>
     </row>
-    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="303" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A303" s="10">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -7982,7 +7983,7 @@
       <c r="F303" s="10"/>
       <c r="G303" s="12"/>
     </row>
-    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="304" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A304" s="10">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -7998,7 +7999,7 @@
       <c r="F304" s="10"/>
       <c r="G304" s="12"/>
     </row>
-    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="305" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A305" s="10">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -8014,7 +8015,7 @@
       <c r="F305" s="10"/>
       <c r="G305" s="12"/>
     </row>
-    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="306" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A306" s="10">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -8030,7 +8031,7 @@
       <c r="F306" s="10"/>
       <c r="G306" s="12"/>
     </row>
-    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="307" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A307" s="10">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -8046,7 +8047,7 @@
       <c r="F307" s="10"/>
       <c r="G307" s="12"/>
     </row>
-    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="308" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A308" s="10">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -8062,7 +8063,7 @@
       <c r="F308" s="10"/>
       <c r="G308" s="12"/>
     </row>
-    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="309" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A309" s="10">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -8078,7 +8079,7 @@
       <c r="F309" s="10"/>
       <c r="G309" s="12"/>
     </row>
-    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="310" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A310" s="10">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -8094,7 +8095,7 @@
       <c r="F310" s="10"/>
       <c r="G310" s="12"/>
     </row>
-    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="311" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A311" s="10">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -8110,7 +8111,7 @@
       <c r="F311" s="10"/>
       <c r="G311" s="12"/>
     </row>
-    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="312" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A312" s="10">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -8128,7 +8129,7 @@
       <c r="F312" s="10"/>
       <c r="G312" s="12"/>
     </row>
-    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="313" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A313" s="10">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -8144,7 +8145,7 @@
       <c r="F313" s="10"/>
       <c r="G313" s="12"/>
     </row>
-    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="314" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A314" s="10">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -8160,7 +8161,7 @@
       <c r="F314" s="10"/>
       <c r="G314" s="12"/>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="315" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A315" s="10">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -8176,7 +8177,7 @@
       <c r="F315" s="10"/>
       <c r="G315" s="12"/>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="316" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A316" s="10">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -8192,7 +8193,7 @@
       <c r="F316" s="10"/>
       <c r="G316" s="12"/>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="317" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A317" s="10">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -8208,7 +8209,7 @@
       <c r="F317" s="10"/>
       <c r="G317" s="12"/>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="318" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A318" s="10">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -8224,7 +8225,7 @@
       <c r="F318" s="10"/>
       <c r="G318" s="12"/>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="319" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A319" s="10">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -8240,7 +8241,7 @@
       <c r="F319" s="10"/>
       <c r="G319" s="12"/>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="320" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A320" s="10">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -8256,7 +8257,7 @@
       <c r="F320" s="10"/>
       <c r="G320" s="12"/>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="321" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A321" s="10">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -8272,7 +8273,7 @@
       <c r="F321" s="10"/>
       <c r="G321" s="12"/>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="322" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A322" s="10">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -8288,7 +8289,7 @@
       <c r="F322" s="10"/>
       <c r="G322" s="12"/>
     </row>
-    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="323" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A323" s="10">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -8304,7 +8305,7 @@
       <c r="F323" s="10"/>
       <c r="G323" s="12"/>
     </row>
-    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="324" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A324" s="10">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -8322,7 +8323,7 @@
       <c r="F324" s="10"/>
       <c r="G324" s="12"/>
     </row>
-    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="325" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A325" s="10">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -8338,7 +8339,7 @@
       <c r="F325" s="10"/>
       <c r="G325" s="12"/>
     </row>
-    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="326" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A326" s="10">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -8354,7 +8355,7 @@
       <c r="F326" s="10"/>
       <c r="G326" s="12"/>
     </row>
-    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="327" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A327" s="10">
         <f t="shared" ref="A327:A390" si="5">A326+1</f>
         <v>322</v>
@@ -8386,7 +8387,7 @@
       <c r="F328" s="10"/>
       <c r="G328" s="12"/>
     </row>
-    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="329" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A329" s="10">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -8418,7 +8419,7 @@
       <c r="F330" s="10"/>
       <c r="G330" s="12"/>
     </row>
-    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="331" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A331" s="10">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -8466,7 +8467,7 @@
       <c r="F333" s="10"/>
       <c r="G333" s="12"/>
     </row>
-    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="334" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A334" s="10">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -8498,7 +8499,7 @@
       <c r="F335" s="10"/>
       <c r="G335" s="12"/>
     </row>
-    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="336" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A336" s="10">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -8516,7 +8517,7 @@
       <c r="F336" s="10"/>
       <c r="G336" s="12"/>
     </row>
-    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="337" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A337" s="10">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -8550,7 +8551,7 @@
       <c r="F338" s="10"/>
       <c r="G338" s="12"/>
     </row>
-    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="339" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A339" s="10">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -8566,7 +8567,7 @@
       <c r="F339" s="10"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="340" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A340" s="10">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -8582,7 +8583,7 @@
       <c r="F340" s="10"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="341" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A341" s="10">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -8598,7 +8599,7 @@
       <c r="F341" s="10"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="342" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A342" s="10">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -8616,7 +8617,7 @@
       <c r="F342" s="10"/>
       <c r="G342" s="12"/>
     </row>
-    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="343" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A343" s="10">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -8632,7 +8633,7 @@
       <c r="F343" s="10"/>
       <c r="G343" s="12"/>
     </row>
-    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="344" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A344" s="10">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -8650,7 +8651,7 @@
       <c r="F344" s="10"/>
       <c r="G344" s="12"/>
     </row>
-    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="345" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A345" s="10">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -8666,7 +8667,7 @@
       <c r="F345" s="10"/>
       <c r="G345" s="12"/>
     </row>
-    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="346" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A346" s="10">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -8682,7 +8683,7 @@
       <c r="F346" s="10"/>
       <c r="G346" s="12"/>
     </row>
-    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="347" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A347" s="10">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -8698,7 +8699,7 @@
       <c r="F347" s="10"/>
       <c r="G347" s="12"/>
     </row>
-    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="348" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A348" s="10">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -8714,7 +8715,7 @@
       <c r="F348" s="10"/>
       <c r="G348" s="12"/>
     </row>
-    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="349" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A349" s="10">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -8730,7 +8731,7 @@
       <c r="F349" s="10"/>
       <c r="G349" s="12"/>
     </row>
-    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="350" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A350" s="10">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -8780,7 +8781,7 @@
       <c r="F352" s="10"/>
       <c r="G352" s="12"/>
     </row>
-    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="353" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A353" s="10">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -8830,7 +8831,7 @@
       <c r="F355" s="10"/>
       <c r="G355" s="12"/>
     </row>
-    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="356" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A356" s="10">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -8846,7 +8847,7 @@
       <c r="F356" s="10"/>
       <c r="G356" s="12"/>
     </row>
-    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="357" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A357" s="10">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -8882,7 +8883,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="359" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A359" s="10">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -8898,7 +8899,7 @@
       <c r="F359" s="10"/>
       <c r="G359" s="12"/>
     </row>
-    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="360" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A360" s="10">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -8914,7 +8915,7 @@
       <c r="F360" s="10"/>
       <c r="G360" s="12"/>
     </row>
-    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="361" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A361" s="10">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -8930,7 +8931,7 @@
       <c r="F361" s="10"/>
       <c r="G361" s="12"/>
     </row>
-    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="362" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A362" s="10">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -8946,7 +8947,7 @@
       <c r="F362" s="10"/>
       <c r="G362" s="12"/>
     </row>
-    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="363" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A363" s="10">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -8962,7 +8963,7 @@
       <c r="F363" s="10"/>
       <c r="G363" s="12"/>
     </row>
-    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="364" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A364" s="10">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -8978,7 +8979,7 @@
       <c r="F364" s="10"/>
       <c r="G364" s="12"/>
     </row>
-    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="365" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A365" s="10">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -8994,7 +8995,7 @@
       <c r="F365" s="10"/>
       <c r="G365" s="12"/>
     </row>
-    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="366" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A366" s="10">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -9010,7 +9011,7 @@
       <c r="F366" s="10"/>
       <c r="G366" s="12"/>
     </row>
-    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="367" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A367" s="10">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -9026,7 +9027,7 @@
       <c r="F367" s="10"/>
       <c r="G367" s="12"/>
     </row>
-    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="368" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A368" s="10">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -9042,7 +9043,7 @@
       <c r="F368" s="10"/>
       <c r="G368" s="12"/>
     </row>
-    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="369" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A369" s="10">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -9058,7 +9059,7 @@
       <c r="F369" s="10"/>
       <c r="G369" s="12"/>
     </row>
-    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="370" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A370" s="10">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -9074,7 +9075,7 @@
       <c r="F370" s="10"/>
       <c r="G370" s="12"/>
     </row>
-    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="371" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A371" s="10">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -9090,7 +9091,7 @@
       <c r="F371" s="10"/>
       <c r="G371" s="12"/>
     </row>
-    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="372" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A372" s="10">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -9106,7 +9107,7 @@
       <c r="F372" s="10"/>
       <c r="G372" s="12"/>
     </row>
-    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="373" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A373" s="10">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -9122,7 +9123,7 @@
       <c r="F373" s="10"/>
       <c r="G373" s="12"/>
     </row>
-    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="374" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A374" s="10">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -9154,7 +9155,7 @@
       <c r="F375" s="10"/>
       <c r="G375" s="12"/>
     </row>
-    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="376" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A376" s="10">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -9170,7 +9171,7 @@
       <c r="F376" s="10"/>
       <c r="G376" s="12"/>
     </row>
-    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="377" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A377" s="10">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -9186,7 +9187,7 @@
       <c r="F377" s="10"/>
       <c r="G377" s="12"/>
     </row>
-    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="378" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A378" s="10">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -9218,7 +9219,7 @@
       <c r="F379" s="10"/>
       <c r="G379" s="12"/>
     </row>
-    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="380" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A380" s="10">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -9234,7 +9235,7 @@
       <c r="F380" s="10"/>
       <c r="G380" s="12"/>
     </row>
-    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="381" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A381" s="10">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -9250,7 +9251,7 @@
       <c r="F381" s="10"/>
       <c r="G381" s="12"/>
     </row>
-    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="382" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A382" s="10">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -9266,7 +9267,7 @@
       <c r="F382" s="10"/>
       <c r="G382" s="12"/>
     </row>
-    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="383" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A383" s="10">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -9282,7 +9283,7 @@
       <c r="F383" s="10"/>
       <c r="G383" s="12"/>
     </row>
-    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="384" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A384" s="10">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -9298,7 +9299,7 @@
       <c r="F384" s="10"/>
       <c r="G384" s="12"/>
     </row>
-    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="385" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A385" s="10">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -9314,7 +9315,7 @@
       <c r="F385" s="10"/>
       <c r="G385" s="12"/>
     </row>
-    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="386" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A386" s="10">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -9330,7 +9331,7 @@
       <c r="F386" s="10"/>
       <c r="G386" s="12"/>
     </row>
-    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="387" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A387" s="10">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -9346,7 +9347,7 @@
       <c r="F387" s="10"/>
       <c r="G387" s="12"/>
     </row>
-    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="388" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A388" s="10">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -9364,7 +9365,7 @@
       <c r="F388" s="10"/>
       <c r="G388" s="12"/>
     </row>
-    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="389" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A389" s="10">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -9382,7 +9383,7 @@
       <c r="F389" s="10"/>
       <c r="G389" s="12"/>
     </row>
-    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="390" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A390" s="10">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -9398,7 +9399,7 @@
       <c r="F390" s="10"/>
       <c r="G390" s="12"/>
     </row>
-    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="391" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A391" s="10">
         <f t="shared" ref="A391:A454" si="6">A390+1</f>
         <v>386</v>
@@ -9414,7 +9415,7 @@
       <c r="F391" s="10"/>
       <c r="G391" s="12"/>
     </row>
-    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="392" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A392" s="10">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -9430,7 +9431,7 @@
       <c r="F392" s="10"/>
       <c r="G392" s="12"/>
     </row>
-    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="393" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A393" s="10">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -9448,7 +9449,7 @@
       <c r="F393" s="10"/>
       <c r="G393" s="12"/>
     </row>
-    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="394" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A394" s="10">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -9464,7 +9465,7 @@
       <c r="F394" s="10"/>
       <c r="G394" s="12"/>
     </row>
-    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="395" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A395" s="10">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -9480,7 +9481,7 @@
       <c r="F395" s="10"/>
       <c r="G395" s="12"/>
     </row>
-    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="396" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A396" s="10">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -9496,7 +9497,7 @@
       <c r="F396" s="10"/>
       <c r="G396" s="12"/>
     </row>
-    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="397" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A397" s="10">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -9512,7 +9513,7 @@
       <c r="F397" s="10"/>
       <c r="G397" s="12"/>
     </row>
-    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="398" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A398" s="10">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -9528,7 +9529,7 @@
       <c r="F398" s="10"/>
       <c r="G398" s="12"/>
     </row>
-    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="399" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A399" s="10">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -9544,7 +9545,7 @@
       <c r="F399" s="10"/>
       <c r="G399" s="12"/>
     </row>
-    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="400" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A400" s="10">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -9560,7 +9561,7 @@
       <c r="F400" s="10"/>
       <c r="G400" s="12"/>
     </row>
-    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="401" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A401" s="10">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -9576,7 +9577,7 @@
       <c r="F401" s="10"/>
       <c r="G401" s="12"/>
     </row>
-    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="402" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A402" s="10">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -9592,7 +9593,7 @@
       <c r="F402" s="10"/>
       <c r="G402" s="12"/>
     </row>
-    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="403" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A403" s="10">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -9608,7 +9609,7 @@
       <c r="F403" s="10"/>
       <c r="G403" s="12"/>
     </row>
-    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="404" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A404" s="10">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -9626,7 +9627,7 @@
       <c r="F404" s="10"/>
       <c r="G404" s="12"/>
     </row>
-    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="405" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A405" s="10">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -9642,7 +9643,7 @@
       <c r="F405" s="10"/>
       <c r="G405" s="12"/>
     </row>
-    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="406" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A406" s="10">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -9674,7 +9675,7 @@
       <c r="F407" s="10"/>
       <c r="G407" s="12"/>
     </row>
-    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="408" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A408" s="10">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -9690,7 +9691,7 @@
       <c r="F408" s="10"/>
       <c r="G408" s="12"/>
     </row>
-    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="409" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A409" s="10">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -9706,7 +9707,7 @@
       <c r="F409" s="10"/>
       <c r="G409" s="12"/>
     </row>
-    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="410" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A410" s="10">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -9722,7 +9723,7 @@
       <c r="F410" s="10"/>
       <c r="G410" s="12"/>
     </row>
-    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="411" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A411" s="10">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -9738,7 +9739,7 @@
       <c r="F411" s="10"/>
       <c r="G411" s="12"/>
     </row>
-    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="412" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A412" s="10">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -9754,7 +9755,7 @@
       <c r="F412" s="10"/>
       <c r="G412" s="12"/>
     </row>
-    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="413" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A413" s="10">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -9770,7 +9771,7 @@
       <c r="F413" s="10"/>
       <c r="G413" s="12"/>
     </row>
-    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="414" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A414" s="10">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -9802,7 +9803,7 @@
       <c r="F415" s="10"/>
       <c r="G415" s="12"/>
     </row>
-    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="416" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A416" s="10">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -9818,7 +9819,7 @@
       <c r="F416" s="10"/>
       <c r="G416" s="12"/>
     </row>
-    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="417" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A417" s="10">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -9834,7 +9835,7 @@
       <c r="F417" s="10"/>
       <c r="G417" s="12"/>
     </row>
-    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="418" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A418" s="10">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -9850,7 +9851,7 @@
       <c r="F418" s="10"/>
       <c r="G418" s="12"/>
     </row>
-    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="419" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A419" s="10">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -9866,7 +9867,7 @@
       <c r="F419" s="10"/>
       <c r="G419" s="12"/>
     </row>
-    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="420" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A420" s="10">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -9882,7 +9883,7 @@
       <c r="F420" s="10"/>
       <c r="G420" s="12"/>
     </row>
-    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="421" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A421" s="10">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -9898,7 +9899,7 @@
       <c r="F421" s="10"/>
       <c r="G421" s="12"/>
     </row>
-    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="422" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A422" s="10">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -9925,7 +9926,9 @@
       <c r="C423" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="D423" s="10"/>
+      <c r="D423" s="10" t="s">
+        <v>787</v>
+      </c>
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
       <c r="G423" s="12"/>
@@ -9948,7 +9951,7 @@
       <c r="F424" s="10"/>
       <c r="G424" s="12"/>
     </row>
-    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="425" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A425" s="10">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -9964,7 +9967,7 @@
       <c r="F425" s="10"/>
       <c r="G425" s="12"/>
     </row>
-    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="426" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A426" s="10">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -9980,7 +9983,7 @@
       <c r="F426" s="10"/>
       <c r="G426" s="12"/>
     </row>
-    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="427" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A427" s="10">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -9996,7 +9999,7 @@
       <c r="F427" s="10"/>
       <c r="G427" s="12"/>
     </row>
-    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="428" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A428" s="10">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -10012,7 +10015,7 @@
       <c r="F428" s="10"/>
       <c r="G428" s="12"/>
     </row>
-    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="429" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A429" s="10">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -10028,7 +10031,7 @@
       <c r="F429" s="10"/>
       <c r="G429" s="12"/>
     </row>
-    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="430" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A430" s="10">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -10060,7 +10063,7 @@
       <c r="F431" s="10"/>
       <c r="G431" s="12"/>
     </row>
-    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="432" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A432" s="10">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -10076,7 +10079,7 @@
       <c r="F432" s="10"/>
       <c r="G432" s="12"/>
     </row>
-    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="433" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A433" s="10">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -10092,7 +10095,7 @@
       <c r="F433" s="10"/>
       <c r="G433" s="12"/>
     </row>
-    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="434" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A434" s="10">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -10128,7 +10131,7 @@
       <c r="F435" s="10"/>
       <c r="G435" s="12"/>
     </row>
-    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="436" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A436" s="10">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -10144,7 +10147,7 @@
       <c r="F436" s="10"/>
       <c r="G436" s="12"/>
     </row>
-    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="437" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A437" s="10">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -10178,7 +10181,7 @@
       <c r="F438" s="10"/>
       <c r="G438" s="12"/>
     </row>
-    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="439" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A439" s="10">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -10196,7 +10199,7 @@
       <c r="F439" s="10"/>
       <c r="G439" s="12"/>
     </row>
-    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="440" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A440" s="10">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -10214,7 +10217,7 @@
       <c r="F440" s="10"/>
       <c r="G440" s="12"/>
     </row>
-    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="441" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A441" s="10">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -10230,7 +10233,7 @@
       <c r="F441" s="10"/>
       <c r="G441" s="12"/>
     </row>
-    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="442" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A442" s="10">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -10248,7 +10251,7 @@
       <c r="F442" s="10"/>
       <c r="G442" s="12"/>
     </row>
-    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="443" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A443" s="10">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -10268,7 +10271,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="444" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A444" s="10">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -10284,7 +10287,7 @@
       <c r="F444" s="10"/>
       <c r="G444" s="12"/>
     </row>
-    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="445" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A445" s="10">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -10316,7 +10319,7 @@
       <c r="F446" s="10"/>
       <c r="G446" s="12"/>
     </row>
-    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="447" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A447" s="10">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -10332,7 +10335,7 @@
       <c r="F447" s="10"/>
       <c r="G447" s="12"/>
     </row>
-    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="448" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A448" s="10">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -10348,7 +10351,7 @@
       <c r="F448" s="10"/>
       <c r="G448" s="12"/>
     </row>
-    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="449" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A449" s="10">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -10364,7 +10367,7 @@
       <c r="F449" s="10"/>
       <c r="G449" s="12"/>
     </row>
-    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="450" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A450" s="10">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -10380,7 +10383,7 @@
       <c r="F450" s="10"/>
       <c r="G450" s="12"/>
     </row>
-    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="451" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A451" s="10">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -10398,7 +10401,7 @@
       <c r="F451" s="10"/>
       <c r="G451" s="12"/>
     </row>
-    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="452" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A452" s="10">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -10414,7 +10417,7 @@
       <c r="F452" s="10"/>
       <c r="G452" s="12"/>
     </row>
-    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="453" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A453" s="10">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -10464,7 +10467,7 @@
       <c r="F455" s="10"/>
       <c r="G455" s="12"/>
     </row>
-    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="456" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A456" s="10">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -10480,7 +10483,7 @@
       <c r="F456" s="10"/>
       <c r="G456" s="12"/>
     </row>
-    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="457" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A457" s="10">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -10496,7 +10499,7 @@
       <c r="F457" s="10"/>
       <c r="G457" s="12"/>
     </row>
-    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="458" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A458" s="10">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -10512,7 +10515,7 @@
       <c r="F458" s="10"/>
       <c r="G458" s="12"/>
     </row>
-    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="459" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A459" s="10">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -10528,7 +10531,7 @@
       <c r="F459" s="10"/>
       <c r="G459" s="12"/>
     </row>
-    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="460" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A460" s="10">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -10544,7 +10547,7 @@
       <c r="F460" s="10"/>
       <c r="G460" s="12"/>
     </row>
-    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="461" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A461" s="10">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -10576,7 +10579,7 @@
       <c r="F462" s="10"/>
       <c r="G462" s="12"/>
     </row>
-    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="463" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A463" s="10">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -10592,7 +10595,7 @@
       <c r="F463" s="10"/>
       <c r="G463" s="12"/>
     </row>
-    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="464" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A464" s="10">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -10608,7 +10611,7 @@
       <c r="F464" s="10"/>
       <c r="G464" s="12"/>
     </row>
-    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="465" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A465" s="10">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -10624,7 +10627,7 @@
       <c r="F465" s="10"/>
       <c r="G465" s="12"/>
     </row>
-    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="466" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A466" s="10">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -10640,7 +10643,7 @@
       <c r="F466" s="10"/>
       <c r="G466" s="12"/>
     </row>
-    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="467" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A467" s="10">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -10656,7 +10659,7 @@
       <c r="F467" s="10"/>
       <c r="G467" s="12"/>
     </row>
-    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="468" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A468" s="10">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -10672,7 +10675,7 @@
       <c r="F468" s="10"/>
       <c r="G468" s="12"/>
     </row>
-    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="469" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A469" s="10">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -10688,7 +10691,7 @@
       <c r="F469" s="10"/>
       <c r="G469" s="12"/>
     </row>
-    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="470" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A470" s="10">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -10720,7 +10723,7 @@
       <c r="F471" s="10"/>
       <c r="G471" s="12"/>
     </row>
-    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="472" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A472" s="10">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -10738,7 +10741,7 @@
       <c r="F472" s="10"/>
       <c r="G472" s="12"/>
     </row>
-    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="473" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A473" s="10">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -10756,7 +10759,7 @@
       <c r="F473" s="10"/>
       <c r="G473" s="12"/>
     </row>
-    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="474" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A474" s="10">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -10774,7 +10777,7 @@
       <c r="F474" s="10"/>
       <c r="G474" s="12"/>
     </row>
-    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="475" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A475" s="10">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -10790,7 +10793,7 @@
       <c r="F475" s="10"/>
       <c r="G475" s="12"/>
     </row>
-    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="476" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A476" s="10">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -10806,7 +10809,7 @@
       <c r="F476" s="10"/>
       <c r="G476" s="12"/>
     </row>
-    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="477" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A477" s="10">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -10822,7 +10825,7 @@
       <c r="F477" s="10"/>
       <c r="G477" s="12"/>
     </row>
-    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="478" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A478" s="10">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -10838,7 +10841,7 @@
       <c r="F478" s="10"/>
       <c r="G478" s="12"/>
     </row>
-    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="479" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A479" s="10">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -10854,7 +10857,7 @@
       <c r="F479" s="10"/>
       <c r="G479" s="12"/>
     </row>
-    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="480" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A480" s="10">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -10870,7 +10873,7 @@
       <c r="F480" s="10"/>
       <c r="G480" s="12"/>
     </row>
-    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="481" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A481" s="10">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -10886,7 +10889,7 @@
       <c r="F481" s="10"/>
       <c r="G481" s="12"/>
     </row>
-    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="482" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A482" s="10">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -10902,7 +10905,7 @@
       <c r="F482" s="10"/>
       <c r="G482" s="12"/>
     </row>
-    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="483" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A483" s="10">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -10918,7 +10921,7 @@
       <c r="F483" s="10"/>
       <c r="G483" s="12"/>
     </row>
-    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="484" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A484" s="10">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -10934,7 +10937,7 @@
       <c r="F484" s="10"/>
       <c r="G484" s="12"/>
     </row>
-    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="485" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A485" s="10">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -10950,7 +10953,7 @@
       <c r="F485" s="10"/>
       <c r="G485" s="12"/>
     </row>
-    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="486" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A486" s="10">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -10966,7 +10969,7 @@
       <c r="F486" s="10"/>
       <c r="G486" s="12"/>
     </row>
-    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="487" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A487" s="10">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -10982,7 +10985,7 @@
       <c r="F487" s="10"/>
       <c r="G487" s="12"/>
     </row>
-    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="488" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A488" s="10">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -10998,7 +11001,7 @@
       <c r="F488" s="10"/>
       <c r="G488" s="12"/>
     </row>
-    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="489" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A489" s="10">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -11014,7 +11017,7 @@
       <c r="F489" s="10"/>
       <c r="G489" s="12"/>
     </row>
-    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="490" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A490" s="10">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -11030,7 +11033,7 @@
       <c r="F490" s="10"/>
       <c r="G490" s="12"/>
     </row>
-    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="491" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A491" s="10">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -11046,7 +11049,7 @@
       <c r="F491" s="10"/>
       <c r="G491" s="12"/>
     </row>
-    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="492" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A492" s="10">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -11062,7 +11065,7 @@
       <c r="F492" s="10"/>
       <c r="G492" s="12"/>
     </row>
-    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="493" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A493" s="10">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -11078,7 +11081,7 @@
       <c r="F493" s="10"/>
       <c r="G493" s="12"/>
     </row>
-    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="494" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A494" s="10">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -11112,7 +11115,7 @@
       <c r="F495" s="10"/>
       <c r="G495" s="12"/>
     </row>
-    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="496" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A496" s="10">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -11128,7 +11131,7 @@
       <c r="F496" s="10"/>
       <c r="G496" s="12"/>
     </row>
-    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="497" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A497" s="10">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -11144,7 +11147,7 @@
       <c r="F497" s="10"/>
       <c r="G497" s="12"/>
     </row>
-    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="498" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A498" s="10">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -11160,7 +11163,7 @@
       <c r="F498" s="10"/>
       <c r="G498" s="12"/>
     </row>
-    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="499" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A499" s="10">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -11176,7 +11179,7 @@
       <c r="F499" s="10"/>
       <c r="G499" s="12"/>
     </row>
-    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="500" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A500" s="10">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -11208,7 +11211,7 @@
       <c r="F501" s="10"/>
       <c r="G501" s="12"/>
     </row>
-    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="502" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A502" s="10">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -11224,7 +11227,7 @@
       <c r="F502" s="10"/>
       <c r="G502" s="12"/>
     </row>
-    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="503" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A503" s="10">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -11240,7 +11243,7 @@
       <c r="F503" s="10"/>
       <c r="G503" s="12"/>
     </row>
-    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="504" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A504" s="10">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -11272,7 +11275,7 @@
       <c r="F505" s="10"/>
       <c r="G505" s="12"/>
     </row>
-    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="506" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A506" s="10">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -11288,7 +11291,7 @@
       <c r="F506" s="10"/>
       <c r="G506" s="12"/>
     </row>
-    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="507" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A507" s="10">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -11304,7 +11307,7 @@
       <c r="F507" s="10"/>
       <c r="G507" s="12"/>
     </row>
-    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="508" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A508" s="10">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -11320,7 +11323,7 @@
       <c r="F508" s="10"/>
       <c r="G508" s="12"/>
     </row>
-    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="509" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A509" s="10">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -11336,7 +11339,7 @@
       <c r="F509" s="10"/>
       <c r="G509" s="12"/>
     </row>
-    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="510" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A510" s="10">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -11368,7 +11371,7 @@
       <c r="F511" s="10"/>
       <c r="G511" s="12"/>
     </row>
-    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="512" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A512" s="10">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -11384,7 +11387,7 @@
       <c r="F512" s="10"/>
       <c r="G512" s="12"/>
     </row>
-    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="513" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A513" s="10">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -11400,7 +11403,7 @@
       <c r="F513" s="10"/>
       <c r="G513" s="12"/>
     </row>
-    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="514" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A514" s="10">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -11416,7 +11419,7 @@
       <c r="F514" s="10"/>
       <c r="G514" s="12"/>
     </row>
-    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="515" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A515" s="10">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -11434,7 +11437,7 @@
       <c r="F515" s="10"/>
       <c r="G515" s="12"/>
     </row>
-    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="516" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A516" s="10">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -11450,7 +11453,7 @@
       <c r="F516" s="10"/>
       <c r="G516" s="12"/>
     </row>
-    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="517" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A517" s="10">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -11468,7 +11471,7 @@
       <c r="F517" s="10"/>
       <c r="G517" s="12"/>
     </row>
-    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="518" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A518" s="10">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -11486,7 +11489,7 @@
       <c r="F518" s="10"/>
       <c r="G518" s="12"/>
     </row>
-    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="519" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A519" s="10">
         <f t="shared" ref="A519:A582" si="8">A518+1</f>
         <v>514</v>
@@ -11502,7 +11505,7 @@
       <c r="F519" s="10"/>
       <c r="G519" s="12"/>
     </row>
-    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="520" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A520" s="10">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -11518,7 +11521,7 @@
       <c r="F520" s="10"/>
       <c r="G520" s="12"/>
     </row>
-    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="521" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A521" s="10">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -11534,7 +11537,7 @@
       <c r="F521" s="10"/>
       <c r="G521" s="12"/>
     </row>
-    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="522" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A522" s="10">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -11550,7 +11553,7 @@
       <c r="F522" s="10"/>
       <c r="G522" s="12"/>
     </row>
-    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="523" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A523" s="10">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -11566,7 +11569,7 @@
       <c r="F523" s="10"/>
       <c r="G523" s="12"/>
     </row>
-    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="524" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A524" s="10">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -11582,7 +11585,7 @@
       <c r="F524" s="10"/>
       <c r="G524" s="12"/>
     </row>
-    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="525" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A525" s="10">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -11614,7 +11617,7 @@
       <c r="F526" s="10"/>
       <c r="G526" s="12"/>
     </row>
-    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="527" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A527" s="10">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -11630,7 +11633,7 @@
       <c r="F527" s="10"/>
       <c r="G527" s="12"/>
     </row>
-    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="528" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A528" s="10">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -11646,7 +11649,7 @@
       <c r="F528" s="10"/>
       <c r="G528" s="12"/>
     </row>
-    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="529" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A529" s="10">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -11664,7 +11667,7 @@
       <c r="F529" s="10"/>
       <c r="G529" s="12"/>
     </row>
-    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="530" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A530" s="10">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -11682,7 +11685,7 @@
       <c r="F530" s="10"/>
       <c r="G530" s="12"/>
     </row>
-    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="531" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A531" s="10">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -11698,7 +11701,7 @@
       <c r="F531" s="10"/>
       <c r="G531" s="12"/>
     </row>
-    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="532" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A532" s="10">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -11714,7 +11717,7 @@
       <c r="F532" s="10"/>
       <c r="G532" s="12"/>
     </row>
-    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="533" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A533" s="10">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -11732,7 +11735,7 @@
       <c r="F533" s="10"/>
       <c r="G533" s="12"/>
     </row>
-    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="534" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A534" s="10">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -11748,7 +11751,7 @@
       <c r="F534" s="10"/>
       <c r="G534" s="12"/>
     </row>
-    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="535" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A535" s="10">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -11764,7 +11767,7 @@
       <c r="F535" s="10"/>
       <c r="G535" s="12"/>
     </row>
-    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="536" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A536" s="10">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -11780,7 +11783,7 @@
       <c r="F536" s="10"/>
       <c r="G536" s="12"/>
     </row>
-    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="537" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A537" s="10">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -11796,7 +11799,7 @@
       <c r="F537" s="10"/>
       <c r="G537" s="12"/>
     </row>
-    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="538" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A538" s="10">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -11812,7 +11815,7 @@
       <c r="F538" s="10"/>
       <c r="G538" s="12"/>
     </row>
-    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="539" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A539" s="10">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -11828,7 +11831,7 @@
       <c r="F539" s="10"/>
       <c r="G539" s="12"/>
     </row>
-    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="540" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A540" s="10">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -11844,7 +11847,7 @@
       <c r="F540" s="10"/>
       <c r="G540" s="12"/>
     </row>
-    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="541" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A541" s="10">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -11862,7 +11865,7 @@
       <c r="F541" s="10"/>
       <c r="G541" s="12"/>
     </row>
-    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="542" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A542" s="10">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -11878,7 +11881,7 @@
       <c r="F542" s="10"/>
       <c r="G542" s="12"/>
     </row>
-    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="543" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A543" s="10">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -11894,7 +11897,7 @@
       <c r="F543" s="10"/>
       <c r="G543" s="12"/>
     </row>
-    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="544" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A544" s="10">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -11910,7 +11913,7 @@
       <c r="F544" s="10"/>
       <c r="G544" s="12"/>
     </row>
-    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="545" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A545" s="10">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -11926,7 +11929,7 @@
       <c r="F545" s="10"/>
       <c r="G545" s="12"/>
     </row>
-    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="546" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A546" s="10">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -11942,7 +11945,7 @@
       <c r="F546" s="10"/>
       <c r="G546" s="12"/>
     </row>
-    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="547" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A547" s="10">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -11958,7 +11961,7 @@
       <c r="F547" s="10"/>
       <c r="G547" s="12"/>
     </row>
-    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="548" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A548" s="10">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -11976,7 +11979,7 @@
       <c r="F548" s="10"/>
       <c r="G548" s="12"/>
     </row>
-    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="549" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A549" s="10">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -11992,7 +11995,7 @@
       <c r="F549" s="10"/>
       <c r="G549" s="12"/>
     </row>
-    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="550" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A550" s="10">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -12008,7 +12011,7 @@
       <c r="F550" s="10"/>
       <c r="G550" s="12"/>
     </row>
-    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="551" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A551" s="10">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -12026,7 +12029,7 @@
       <c r="F551" s="10"/>
       <c r="G551" s="12"/>
     </row>
-    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="552" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A552" s="10">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -12042,7 +12045,7 @@
       <c r="F552" s="10"/>
       <c r="G552" s="12"/>
     </row>
-    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="553" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A553" s="10">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -12058,7 +12061,7 @@
       <c r="F553" s="10"/>
       <c r="G553" s="12"/>
     </row>
-    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="554" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A554" s="10">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -12074,7 +12077,7 @@
       <c r="F554" s="10"/>
       <c r="G554" s="12"/>
     </row>
-    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="555" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A555" s="10">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -12090,7 +12093,7 @@
       <c r="F555" s="10"/>
       <c r="G555" s="12"/>
     </row>
-    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="556" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A556" s="10">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -12106,7 +12109,7 @@
       <c r="F556" s="10"/>
       <c r="G556" s="12"/>
     </row>
-    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="557" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A557" s="10">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -12122,7 +12125,7 @@
       <c r="F557" s="10"/>
       <c r="G557" s="12"/>
     </row>
-    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="558" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A558" s="10">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -12138,7 +12141,7 @@
       <c r="F558" s="10"/>
       <c r="G558" s="12"/>
     </row>
-    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="559" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A559" s="10">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -12156,7 +12159,7 @@
       <c r="F559" s="10"/>
       <c r="G559" s="12"/>
     </row>
-    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="560" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A560" s="10">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -12172,7 +12175,7 @@
       <c r="F560" s="10"/>
       <c r="G560" s="12"/>
     </row>
-    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="561" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A561" s="10">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -12188,7 +12191,7 @@
       <c r="F561" s="10"/>
       <c r="G561" s="12"/>
     </row>
-    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="562" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A562" s="10">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -12204,7 +12207,7 @@
       <c r="F562" s="10"/>
       <c r="G562" s="12"/>
     </row>
-    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="563" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A563" s="10">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -12220,7 +12223,7 @@
       <c r="F563" s="10"/>
       <c r="G563" s="12"/>
     </row>
-    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="564" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A564" s="10">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -12238,7 +12241,7 @@
       <c r="F564" s="10"/>
       <c r="G564" s="12"/>
     </row>
-    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="565" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A565" s="10">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -12254,7 +12257,7 @@
       <c r="F565" s="10"/>
       <c r="G565" s="12"/>
     </row>
-    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="566" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A566" s="10">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -12270,7 +12273,7 @@
       <c r="F566" s="10"/>
       <c r="G566" s="12"/>
     </row>
-    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="567" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A567" s="10">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -12286,7 +12289,7 @@
       <c r="F567" s="10"/>
       <c r="G567" s="12"/>
     </row>
-    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="568" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A568" s="10">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -12302,7 +12305,7 @@
       <c r="F568" s="10"/>
       <c r="G568" s="12"/>
     </row>
-    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="569" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A569" s="10">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -12318,7 +12321,7 @@
       <c r="F569" s="10"/>
       <c r="G569" s="12"/>
     </row>
-    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="570" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A570" s="10">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -12334,7 +12337,7 @@
       <c r="F570" s="10"/>
       <c r="G570" s="12"/>
     </row>
-    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="571" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A571" s="10">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -12350,7 +12353,7 @@
       <c r="F571" s="10"/>
       <c r="G571" s="12"/>
     </row>
-    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="572" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A572" s="10">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -12366,7 +12369,7 @@
       <c r="F572" s="10"/>
       <c r="G572" s="12"/>
     </row>
-    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="573" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A573" s="10">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -12382,7 +12385,7 @@
       <c r="F573" s="10"/>
       <c r="G573" s="12"/>
     </row>
-    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="574" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A574" s="10">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -12400,7 +12403,7 @@
       <c r="F574" s="10"/>
       <c r="G574" s="12"/>
     </row>
-    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="575" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A575" s="10">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -12418,7 +12421,7 @@
       <c r="F575" s="10"/>
       <c r="G575" s="12"/>
     </row>
-    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="576" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A576" s="10">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -12434,7 +12437,7 @@
       <c r="F576" s="10"/>
       <c r="G576" s="12"/>
     </row>
-    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="577" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A577" s="10">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -12452,7 +12455,7 @@
       <c r="F577" s="10"/>
       <c r="G577" s="12"/>
     </row>
-    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="578" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A578" s="10">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -12470,7 +12473,7 @@
       <c r="F578" s="10"/>
       <c r="G578" s="12"/>
     </row>
-    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="579" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A579" s="10">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -12488,7 +12491,7 @@
       <c r="F579" s="10"/>
       <c r="G579" s="12"/>
     </row>
-    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="580" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A580" s="10">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -12506,7 +12509,7 @@
       <c r="F580" s="10"/>
       <c r="G580" s="12"/>
     </row>
-    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="581" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A581" s="10">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -12522,7 +12525,7 @@
       <c r="F581" s="10"/>
       <c r="G581" s="12"/>
     </row>
-    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="582" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A582" s="10">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -12538,7 +12541,7 @@
       <c r="F582" s="10"/>
       <c r="G582" s="12"/>
     </row>
-    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="583" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A583" s="10">
         <f t="shared" ref="A583:A646" si="9">A582+1</f>
         <v>578</v>
@@ -12554,7 +12557,7 @@
       <c r="F583" s="10"/>
       <c r="G583" s="12"/>
     </row>
-    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="584" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A584" s="10">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -12570,7 +12573,7 @@
       <c r="F584" s="10"/>
       <c r="G584" s="12"/>
     </row>
-    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="585" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A585" s="10">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -12586,7 +12589,7 @@
       <c r="F585" s="10"/>
       <c r="G585" s="12"/>
     </row>
-    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="586" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A586" s="10">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -12602,7 +12605,7 @@
       <c r="F586" s="10"/>
       <c r="G586" s="12"/>
     </row>
-    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="587" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A587" s="10">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -12618,7 +12621,7 @@
       <c r="F587" s="10"/>
       <c r="G587" s="12"/>
     </row>
-    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="588" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A588" s="10">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -12634,7 +12637,7 @@
       <c r="F588" s="10"/>
       <c r="G588" s="12"/>
     </row>
-    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="589" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A589" s="10">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -12650,7 +12653,7 @@
       <c r="F589" s="10"/>
       <c r="G589" s="12"/>
     </row>
-    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="590" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A590" s="10">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -12666,7 +12669,7 @@
       <c r="F590" s="10"/>
       <c r="G590" s="12"/>
     </row>
-    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="591" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A591" s="10">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -12700,7 +12703,7 @@
       <c r="F592" s="10"/>
       <c r="G592" s="12"/>
     </row>
-    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="593" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A593" s="10">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -12716,7 +12719,7 @@
       <c r="F593" s="10"/>
       <c r="G593" s="12"/>
     </row>
-    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="594" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A594" s="10">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -12732,7 +12735,7 @@
       <c r="F594" s="10"/>
       <c r="G594" s="12"/>
     </row>
-    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="595" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A595" s="10">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -12748,7 +12751,7 @@
       <c r="F595" s="10"/>
       <c r="G595" s="12"/>
     </row>
-    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="596" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A596" s="10">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -12764,7 +12767,7 @@
       <c r="F596" s="10"/>
       <c r="G596" s="12"/>
     </row>
-    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="597" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A597" s="10">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -12780,7 +12783,7 @@
       <c r="F597" s="10"/>
       <c r="G597" s="12"/>
     </row>
-    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="598" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A598" s="10">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -12796,7 +12799,7 @@
       <c r="F598" s="10"/>
       <c r="G598" s="12"/>
     </row>
-    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="599" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A599" s="10">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -12812,7 +12815,7 @@
       <c r="F599" s="10"/>
       <c r="G599" s="12"/>
     </row>
-    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="600" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A600" s="10">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -12828,7 +12831,7 @@
       <c r="F600" s="10"/>
       <c r="G600" s="12"/>
     </row>
-    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="601" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A601" s="10">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -12844,7 +12847,7 @@
       <c r="F601" s="10"/>
       <c r="G601" s="12"/>
     </row>
-    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="602" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A602" s="10">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -12860,7 +12863,7 @@
       <c r="F602" s="10"/>
       <c r="G602" s="12"/>
     </row>
-    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="603" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A603" s="10">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -12876,7 +12879,7 @@
       <c r="F603" s="10"/>
       <c r="G603" s="12"/>
     </row>
-    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="604" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A604" s="10">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -12892,7 +12895,7 @@
       <c r="F604" s="10"/>
       <c r="G604" s="12"/>
     </row>
-    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="605" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A605" s="10">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -12908,7 +12911,7 @@
       <c r="F605" s="10"/>
       <c r="G605" s="12"/>
     </row>
-    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="606" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A606" s="10">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -12924,7 +12927,7 @@
       <c r="F606" s="10"/>
       <c r="G606" s="12"/>
     </row>
-    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="607" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A607" s="10">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -12940,7 +12943,7 @@
       <c r="F607" s="10"/>
       <c r="G607" s="12"/>
     </row>
-    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="608" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A608" s="10">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -12956,7 +12959,7 @@
       <c r="F608" s="10"/>
       <c r="G608" s="12"/>
     </row>
-    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="609" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A609" s="10">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -12972,7 +12975,7 @@
       <c r="F609" s="10"/>
       <c r="G609" s="12"/>
     </row>
-    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="610" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A610" s="10">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -12990,7 +12993,7 @@
       <c r="F610" s="10"/>
       <c r="G610" s="12"/>
     </row>
-    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="611" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A611" s="10">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -13006,7 +13009,7 @@
       <c r="F611" s="10"/>
       <c r="G611" s="12"/>
     </row>
-    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="612" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A612" s="10">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -13022,7 +13025,7 @@
       <c r="F612" s="10"/>
       <c r="G612" s="12"/>
     </row>
-    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="613" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A613" s="10">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -13038,7 +13041,7 @@
       <c r="F613" s="10"/>
       <c r="G613" s="12"/>
     </row>
-    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="614" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A614" s="10">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -13070,7 +13073,7 @@
       <c r="F615" s="10"/>
       <c r="G615" s="12"/>
     </row>
-    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="616" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A616" s="10">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -13086,7 +13089,7 @@
       <c r="F616" s="10"/>
       <c r="G616" s="12"/>
     </row>
-    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="617" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A617" s="10">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -13102,7 +13105,7 @@
       <c r="F617" s="10"/>
       <c r="G617" s="12"/>
     </row>
-    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="618" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A618" s="10">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -13118,7 +13121,7 @@
       <c r="F618" s="10"/>
       <c r="G618" s="12"/>
     </row>
-    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="619" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A619" s="10">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -13136,7 +13139,7 @@
       <c r="F619" s="10"/>
       <c r="G619" s="12"/>
     </row>
-    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="620" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A620" s="10">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -13152,7 +13155,7 @@
       <c r="F620" s="10"/>
       <c r="G620" s="12"/>
     </row>
-    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="621" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A621" s="10">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -13170,7 +13173,7 @@
       <c r="F621" s="10"/>
       <c r="G621" s="12"/>
     </row>
-    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="622" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A622" s="10">
         <f t="shared" si="9"/>
         <v>617</v>
@@ -13186,7 +13189,7 @@
       <c r="F622" s="10"/>
       <c r="G622" s="12"/>
     </row>
-    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="623" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A623" s="10">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -13202,7 +13205,7 @@
       <c r="F623" s="10"/>
       <c r="G623" s="12"/>
     </row>
-    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="624" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A624" s="10">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -13222,7 +13225,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="625" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A625" s="10">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -13238,7 +13241,7 @@
       <c r="F625" s="10"/>
       <c r="G625" s="12"/>
     </row>
-    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="626" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A626" s="10">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -13254,7 +13257,7 @@
       <c r="F626" s="10"/>
       <c r="G626" s="12"/>
     </row>
-    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="627" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A627" s="10">
         <f t="shared" si="9"/>
         <v>622</v>
@@ -13270,7 +13273,7 @@
       <c r="F627" s="10"/>
       <c r="G627" s="12"/>
     </row>
-    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="628" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A628" s="10">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -13286,7 +13289,7 @@
       <c r="F628" s="10"/>
       <c r="G628" s="12"/>
     </row>
-    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="629" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A629" s="10">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -13302,7 +13305,7 @@
       <c r="F629" s="10"/>
       <c r="G629" s="12"/>
     </row>
-    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="630" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A630" s="10">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -13318,7 +13321,7 @@
       <c r="F630" s="10"/>
       <c r="G630" s="12"/>
     </row>
-    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="631" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A631" s="10">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -13334,7 +13337,7 @@
       <c r="F631" s="10"/>
       <c r="G631" s="12"/>
     </row>
-    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="632" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A632" s="10">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -13350,7 +13353,7 @@
       <c r="F632" s="10"/>
       <c r="G632" s="12"/>
     </row>
-    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="633" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A633" s="10">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -13368,7 +13371,7 @@
       <c r="F633" s="10"/>
       <c r="G633" s="12"/>
     </row>
-    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="634" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A634" s="10">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -13400,7 +13403,7 @@
       <c r="F635" s="10"/>
       <c r="G635" s="12"/>
     </row>
-    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="636" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A636" s="10">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -13420,7 +13423,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="637" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A637" s="10">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -13436,7 +13439,7 @@
       <c r="F637" s="10"/>
       <c r="G637" s="12"/>
     </row>
-    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="638" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A638" s="10">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -13452,7 +13455,7 @@
       <c r="F638" s="10"/>
       <c r="G638" s="12"/>
     </row>
-    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="639" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A639" s="10">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -13468,7 +13471,7 @@
       <c r="F639" s="10"/>
       <c r="G639" s="12"/>
     </row>
-    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="640" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A640" s="10">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -13484,7 +13487,7 @@
       <c r="F640" s="10"/>
       <c r="G640" s="12"/>
     </row>
-    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="641" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A641" s="10">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -13502,7 +13505,7 @@
       <c r="F641" s="10"/>
       <c r="G641" s="12"/>
     </row>
-    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="642" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A642" s="10">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -13518,7 +13521,7 @@
       <c r="F642" s="10"/>
       <c r="G642" s="12"/>
     </row>
-    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="643" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A643" s="10">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -13536,7 +13539,7 @@
       <c r="F643" s="10"/>
       <c r="G643" s="12"/>
     </row>
-    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="644" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A644" s="10">
         <f t="shared" si="9"/>
         <v>639</v>
@@ -13552,7 +13555,7 @@
       <c r="F644" s="10"/>
       <c r="G644" s="12"/>
     </row>
-    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="645" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A645" s="10">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -13568,7 +13571,7 @@
       <c r="F645" s="10"/>
       <c r="G645" s="12"/>
     </row>
-    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="646" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A646" s="10">
         <f t="shared" si="9"/>
         <v>641</v>
@@ -13586,7 +13589,7 @@
       <c r="F646" s="10"/>
       <c r="G646" s="12"/>
     </row>
-    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="647" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A647" s="10">
         <f t="shared" ref="A647:A710" si="10">A646+1</f>
         <v>642</v>
@@ -13602,7 +13605,7 @@
       <c r="F647" s="10"/>
       <c r="G647" s="12"/>
     </row>
-    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="648" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A648" s="10">
         <f t="shared" si="10"/>
         <v>643</v>
@@ -13618,7 +13621,7 @@
       <c r="F648" s="10"/>
       <c r="G648" s="12"/>
     </row>
-    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="649" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A649" s="10">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -13634,7 +13637,7 @@
       <c r="F649" s="10"/>
       <c r="G649" s="12"/>
     </row>
-    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="650" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A650" s="10">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -13650,7 +13653,7 @@
       <c r="F650" s="10"/>
       <c r="G650" s="12"/>
     </row>
-    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="651" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A651" s="10">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -13666,7 +13669,7 @@
       <c r="F651" s="10"/>
       <c r="G651" s="12"/>
     </row>
-    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="652" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A652" s="10">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -13682,7 +13685,7 @@
       <c r="F652" s="10"/>
       <c r="G652" s="12"/>
     </row>
-    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="653" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A653" s="10">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -13698,7 +13701,7 @@
       <c r="F653" s="10"/>
       <c r="G653" s="12"/>
     </row>
-    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="654" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A654" s="10">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -13714,7 +13717,7 @@
       <c r="F654" s="10"/>
       <c r="G654" s="12"/>
     </row>
-    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="655" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A655" s="10">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -13730,7 +13733,7 @@
       <c r="F655" s="10"/>
       <c r="G655" s="12"/>
     </row>
-    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="656" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A656" s="10">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -13746,7 +13749,7 @@
       <c r="F656" s="10"/>
       <c r="G656" s="12"/>
     </row>
-    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="657" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A657" s="10">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -13762,7 +13765,7 @@
       <c r="F657" s="10"/>
       <c r="G657" s="12"/>
     </row>
-    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="658" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A658" s="10">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -13780,7 +13783,7 @@
       <c r="F658" s="10"/>
       <c r="G658" s="12"/>
     </row>
-    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="659" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A659" s="10">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -13796,7 +13799,7 @@
       <c r="F659" s="10"/>
       <c r="G659" s="12"/>
     </row>
-    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="660" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A660" s="10">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -13812,7 +13815,7 @@
       <c r="F660" s="10"/>
       <c r="G660" s="12"/>
     </row>
-    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="661" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A661" s="10">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -13846,7 +13849,7 @@
       <c r="F662" s="10"/>
       <c r="G662" s="12"/>
     </row>
-    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="663" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A663" s="10">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -13878,7 +13881,7 @@
       <c r="F664" s="10"/>
       <c r="G664" s="12"/>
     </row>
-    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="665" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A665" s="10">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -13894,7 +13897,7 @@
       <c r="F665" s="10"/>
       <c r="G665" s="12"/>
     </row>
-    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="666" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A666" s="10">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -13910,7 +13913,7 @@
       <c r="F666" s="10"/>
       <c r="G666" s="12"/>
     </row>
-    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="667" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A667" s="10">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -13928,7 +13931,7 @@
       <c r="F667" s="10"/>
       <c r="G667" s="12"/>
     </row>
-    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="668" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A668" s="10">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -13944,7 +13947,7 @@
       <c r="F668" s="10"/>
       <c r="G668" s="12"/>
     </row>
-    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="669" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A669" s="10">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -13960,7 +13963,7 @@
       <c r="F669" s="10"/>
       <c r="G669" s="12"/>
     </row>
-    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="670" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A670" s="10">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -13976,7 +13979,7 @@
       <c r="F670" s="10"/>
       <c r="G670" s="12"/>
     </row>
-    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="671" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A671" s="10">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -13992,7 +13995,7 @@
       <c r="F671" s="10"/>
       <c r="G671" s="12"/>
     </row>
-    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="672" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A672" s="10">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -14008,7 +14011,7 @@
       <c r="F672" s="10"/>
       <c r="G672" s="12"/>
     </row>
-    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="673" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A673" s="10">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -14026,7 +14029,7 @@
       <c r="F673" s="10"/>
       <c r="G673" s="12"/>
     </row>
-    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="674" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A674" s="10">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -14044,7 +14047,7 @@
       <c r="F674" s="10"/>
       <c r="G674" s="12"/>
     </row>
-    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="675" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A675" s="10">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -14060,7 +14063,7 @@
       <c r="F675" s="10"/>
       <c r="G675" s="12"/>
     </row>
-    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="676" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A676" s="10">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -14076,7 +14079,7 @@
       <c r="F676" s="10"/>
       <c r="G676" s="12"/>
     </row>
-    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="677" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A677" s="10">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -14092,7 +14095,7 @@
       <c r="F677" s="10"/>
       <c r="G677" s="12"/>
     </row>
-    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="678" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A678" s="10">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -14110,7 +14113,7 @@
       <c r="F678" s="10"/>
       <c r="G678" s="12"/>
     </row>
-    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="679" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A679" s="10">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -14126,7 +14129,7 @@
       <c r="F679" s="10"/>
       <c r="G679" s="12"/>
     </row>
-    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="680" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A680" s="10">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -14142,7 +14145,7 @@
       <c r="F680" s="10"/>
       <c r="G680" s="12"/>
     </row>
-    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="681" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A681" s="10">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -14158,7 +14161,7 @@
       <c r="F681" s="10"/>
       <c r="G681" s="12"/>
     </row>
-    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="682" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A682" s="10">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -14174,7 +14177,7 @@
       <c r="F682" s="10"/>
       <c r="G682" s="12"/>
     </row>
-    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="683" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A683" s="10">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -14190,7 +14193,7 @@
       <c r="F683" s="10"/>
       <c r="G683" s="12"/>
     </row>
-    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="684" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A684" s="10">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -14206,7 +14209,7 @@
       <c r="F684" s="10"/>
       <c r="G684" s="12"/>
     </row>
-    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="685" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A685" s="10">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -14222,7 +14225,7 @@
       <c r="F685" s="10"/>
       <c r="G685" s="12"/>
     </row>
-    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="686" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A686" s="10">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -14238,7 +14241,7 @@
       <c r="F686" s="10"/>
       <c r="G686" s="12"/>
     </row>
-    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="687" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A687" s="10">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -14254,7 +14257,7 @@
       <c r="F687" s="10"/>
       <c r="G687" s="12"/>
     </row>
-    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="688" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A688" s="10">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -14272,7 +14275,7 @@
       <c r="F688" s="10"/>
       <c r="G688" s="12"/>
     </row>
-    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="689" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A689" s="10">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -14290,7 +14293,7 @@
       <c r="F689" s="10"/>
       <c r="G689" s="12"/>
     </row>
-    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="690" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A690" s="10">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -14306,7 +14309,7 @@
       <c r="F690" s="10"/>
       <c r="G690" s="12"/>
     </row>
-    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="691" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A691" s="10">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -14322,7 +14325,7 @@
       <c r="F691" s="10"/>
       <c r="G691" s="12"/>
     </row>
-    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="692" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A692" s="10">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -14338,7 +14341,7 @@
       <c r="F692" s="10"/>
       <c r="G692" s="12"/>
     </row>
-    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="693" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A693" s="10">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -14354,7 +14357,7 @@
       <c r="F693" s="10"/>
       <c r="G693" s="12"/>
     </row>
-    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="694" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A694" s="10">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -14370,7 +14373,7 @@
       <c r="F694" s="10"/>
       <c r="G694" s="12"/>
     </row>
-    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="695" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A695" s="10">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -14386,7 +14389,7 @@
       <c r="F695" s="10"/>
       <c r="G695" s="12"/>
     </row>
-    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="696" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A696" s="10">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -14402,7 +14405,7 @@
       <c r="F696" s="10"/>
       <c r="G696" s="12"/>
     </row>
-    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="697" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A697" s="10">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -14418,7 +14421,7 @@
       <c r="F697" s="10"/>
       <c r="G697" s="12"/>
     </row>
-    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="698" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A698" s="10">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -14434,7 +14437,7 @@
       <c r="F698" s="10"/>
       <c r="G698" s="12"/>
     </row>
-    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="699" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A699" s="10">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -14450,7 +14453,7 @@
       <c r="F699" s="10"/>
       <c r="G699" s="12"/>
     </row>
-    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="700" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A700" s="10">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -14466,7 +14469,7 @@
       <c r="F700" s="10"/>
       <c r="G700" s="12"/>
     </row>
-    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="701" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A701" s="10">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -14482,7 +14485,7 @@
       <c r="F701" s="10"/>
       <c r="G701" s="12"/>
     </row>
-    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="702" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A702" s="10">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -14498,7 +14501,7 @@
       <c r="F702" s="10"/>
       <c r="G702" s="12"/>
     </row>
-    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="703" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A703" s="10">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -14514,7 +14517,7 @@
       <c r="F703" s="10"/>
       <c r="G703" s="12"/>
     </row>
-    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="704" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A704" s="10">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -14530,7 +14533,7 @@
       <c r="F704" s="10"/>
       <c r="G704" s="12"/>
     </row>
-    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="705" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A705" s="10">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -14546,7 +14549,7 @@
       <c r="F705" s="10"/>
       <c r="G705" s="12"/>
     </row>
-    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="706" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A706" s="10">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -14562,7 +14565,7 @@
       <c r="F706" s="10"/>
       <c r="G706" s="12"/>
     </row>
-    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="707" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A707" s="10">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -14578,7 +14581,7 @@
       <c r="F707" s="10"/>
       <c r="G707" s="12"/>
     </row>
-    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="708" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A708" s="10">
         <f t="shared" si="10"/>
         <v>703</v>
@@ -14594,7 +14597,7 @@
       <c r="F708" s="10"/>
       <c r="G708" s="12"/>
     </row>
-    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="709" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A709" s="10">
         <f t="shared" si="10"/>
         <v>704</v>
@@ -14610,7 +14613,7 @@
       <c r="F709" s="10"/>
       <c r="G709" s="12"/>
     </row>
-    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="710" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A710" s="10">
         <f t="shared" si="10"/>
         <v>705</v>
@@ -14626,7 +14629,7 @@
       <c r="F710" s="10"/>
       <c r="G710" s="12"/>
     </row>
-    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="711" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A711" s="10">
         <f t="shared" ref="A711:A774" si="11">A710+1</f>
         <v>706</v>
@@ -14642,7 +14645,7 @@
       <c r="F711" s="10"/>
       <c r="G711" s="12"/>
     </row>
-    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="712" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A712" s="10">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -14658,7 +14661,7 @@
       <c r="F712" s="10"/>
       <c r="G712" s="12"/>
     </row>
-    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="713" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A713" s="10">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -14674,7 +14677,7 @@
       <c r="F713" s="10"/>
       <c r="G713" s="12"/>
     </row>
-    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="714" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A714" s="10">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -14690,7 +14693,7 @@
       <c r="F714" s="10"/>
       <c r="G714" s="12"/>
     </row>
-    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="715" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A715" s="10">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -14706,7 +14709,7 @@
       <c r="F715" s="10"/>
       <c r="G715" s="12"/>
     </row>
-    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="716" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A716" s="10">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -14724,7 +14727,7 @@
       <c r="F716" s="10"/>
       <c r="G716" s="12"/>
     </row>
-    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="717" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A717" s="10">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -14742,7 +14745,7 @@
       <c r="F717" s="10"/>
       <c r="G717" s="12"/>
     </row>
-    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="718" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A718" s="10">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -14758,7 +14761,7 @@
       <c r="F718" s="10"/>
       <c r="G718" s="12"/>
     </row>
-    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="719" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A719" s="10">
         <f t="shared" si="11"/>
         <v>714</v>
@@ -14774,7 +14777,7 @@
       <c r="F719" s="10"/>
       <c r="G719" s="12"/>
     </row>
-    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="720" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A720" s="10">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -14790,7 +14793,7 @@
       <c r="F720" s="10"/>
       <c r="G720" s="12"/>
     </row>
-    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="721" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A721" s="10">
         <f t="shared" si="11"/>
         <v>716</v>
@@ -14808,7 +14811,7 @@
       <c r="F721" s="10"/>
       <c r="G721" s="12"/>
     </row>
-    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="722" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A722" s="10">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -14826,7 +14829,7 @@
       <c r="F722" s="10"/>
       <c r="G722" s="12"/>
     </row>
-    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="723" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A723" s="10">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -14844,7 +14847,7 @@
       <c r="F723" s="10"/>
       <c r="G723" s="12"/>
     </row>
-    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="724" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A724" s="10">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -14862,7 +14865,7 @@
       <c r="F724" s="10"/>
       <c r="G724" s="12"/>
     </row>
-    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="725" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A725" s="10">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -14880,7 +14883,7 @@
       <c r="F725" s="10"/>
       <c r="G725" s="12"/>
     </row>
-    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="726" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A726" s="10">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -14896,7 +14899,7 @@
       <c r="F726" s="10"/>
       <c r="G726" s="12"/>
     </row>
-    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="727" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A727" s="10">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -14912,7 +14915,7 @@
       <c r="F727" s="10"/>
       <c r="G727" s="12"/>
     </row>
-    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="728" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A728" s="10">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -14928,7 +14931,7 @@
       <c r="F728" s="10"/>
       <c r="G728" s="12"/>
     </row>
-    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="729" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A729" s="10">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -14944,7 +14947,7 @@
       <c r="F729" s="10"/>
       <c r="G729" s="12"/>
     </row>
-    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="730" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A730" s="10">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -14962,7 +14965,7 @@
       <c r="F730" s="10"/>
       <c r="G730" s="12"/>
     </row>
-    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="731" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A731" s="10">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -14978,7 +14981,7 @@
       <c r="F731" s="10"/>
       <c r="G731" s="12"/>
     </row>
-    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="732" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A732" s="10">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -14994,7 +14997,7 @@
       <c r="F732" s="10"/>
       <c r="G732" s="12"/>
     </row>
-    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="733" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A733" s="10">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -15010,7 +15013,7 @@
       <c r="F733" s="10"/>
       <c r="G733" s="12"/>
     </row>
-    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="734" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A734" s="10">
         <f t="shared" si="11"/>
         <v>729</v>
@@ -15026,7 +15029,7 @@
       <c r="F734" s="10"/>
       <c r="G734" s="12"/>
     </row>
-    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="735" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A735" s="10">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -15042,7 +15045,7 @@
       <c r="F735" s="10"/>
       <c r="G735" s="12"/>
     </row>
-    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="736" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A736" s="10">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -15058,7 +15061,7 @@
       <c r="F736" s="10"/>
       <c r="G736" s="12"/>
     </row>
-    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="737" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A737" s="10">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -15074,7 +15077,7 @@
       <c r="F737" s="10"/>
       <c r="G737" s="12"/>
     </row>
-    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="738" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A738" s="10">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -15090,7 +15093,7 @@
       <c r="F738" s="10"/>
       <c r="G738" s="12"/>
     </row>
-    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="739" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A739" s="10">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -15106,7 +15109,7 @@
       <c r="F739" s="10"/>
       <c r="G739" s="12"/>
     </row>
-    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="740" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A740" s="10">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -15122,7 +15125,7 @@
       <c r="F740" s="10"/>
       <c r="G740" s="12"/>
     </row>
-    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="741" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A741" s="10">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -15138,7 +15141,7 @@
       <c r="F741" s="10"/>
       <c r="G741" s="12"/>
     </row>
-    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="742" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A742" s="10">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -15156,7 +15159,7 @@
       <c r="F742" s="10"/>
       <c r="G742" s="12"/>
     </row>
-    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="743" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A743" s="10">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -15172,7 +15175,7 @@
       <c r="F743" s="10"/>
       <c r="G743" s="12"/>
     </row>
-    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="744" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A744" s="10">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -15188,7 +15191,7 @@
       <c r="F744" s="10"/>
       <c r="G744" s="12"/>
     </row>
-    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="745" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A745" s="10">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -15204,7 +15207,7 @@
       <c r="F745" s="10"/>
       <c r="G745" s="12"/>
     </row>
-    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="746" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A746" s="10">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -15220,7 +15223,7 @@
       <c r="F746" s="10"/>
       <c r="G746" s="12"/>
     </row>
-    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="747" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A747" s="10">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -15236,7 +15239,7 @@
       <c r="F747" s="10"/>
       <c r="G747" s="12"/>
     </row>
-    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="748" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A748" s="10">
         <f t="shared" si="11"/>
         <v>743</v>
@@ -15252,7 +15255,7 @@
       <c r="F748" s="10"/>
       <c r="G748" s="12"/>
     </row>
-    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="749" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A749" s="10">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -15270,7 +15273,7 @@
       <c r="F749" s="10"/>
       <c r="G749" s="12"/>
     </row>
-    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="750" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A750" s="10">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -15286,7 +15289,7 @@
       <c r="F750" s="10"/>
       <c r="G750" s="12"/>
     </row>
-    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="751" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A751" s="10">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -15302,7 +15305,7 @@
       <c r="F751" s="10"/>
       <c r="G751" s="12"/>
     </row>
-    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="752" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A752" s="10">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -15318,7 +15321,7 @@
       <c r="F752" s="10"/>
       <c r="G752" s="12"/>
     </row>
-    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="753" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A753" s="10">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -15334,7 +15337,7 @@
       <c r="F753" s="10"/>
       <c r="G753" s="12"/>
     </row>
-    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="754" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A754" s="10">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -15368,7 +15371,7 @@
       <c r="F755" s="10"/>
       <c r="G755" s="12"/>
     </row>
-    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="756" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A756" s="10">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -15384,7 +15387,7 @@
       <c r="F756" s="10"/>
       <c r="G756" s="12"/>
     </row>
-    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="757" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A757" s="10">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -15400,7 +15403,7 @@
       <c r="F757" s="10"/>
       <c r="G757" s="12"/>
     </row>
-    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="758" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A758" s="10">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -15416,7 +15419,7 @@
       <c r="F758" s="10"/>
       <c r="G758" s="12"/>
     </row>
-    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="759" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A759" s="10">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -15432,7 +15435,7 @@
       <c r="F759" s="10"/>
       <c r="G759" s="12"/>
     </row>
-    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="760" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A760" s="10">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -15448,7 +15451,7 @@
       <c r="F760" s="10"/>
       <c r="G760" s="12"/>
     </row>
-    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="761" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A761" s="10">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -15464,7 +15467,7 @@
       <c r="F761" s="10"/>
       <c r="G761" s="12"/>
     </row>
-    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="762" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A762" s="10">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -15480,7 +15483,7 @@
       <c r="F762" s="10"/>
       <c r="G762" s="12"/>
     </row>
-    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="763" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A763" s="10">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -15496,7 +15499,7 @@
       <c r="F763" s="10"/>
       <c r="G763" s="12"/>
     </row>
-    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="764" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A764" s="10">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -15512,7 +15515,7 @@
       <c r="F764" s="10"/>
       <c r="G764" s="12"/>
     </row>
-    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="765" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A765" s="10">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -15528,7 +15531,7 @@
       <c r="F765" s="10"/>
       <c r="G765" s="12"/>
     </row>
-    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="766" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A766" s="10">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -15544,7 +15547,7 @@
       <c r="F766" s="10"/>
       <c r="G766" s="12"/>
     </row>
-    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="767" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A767" s="10">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -15560,7 +15563,7 @@
       <c r="F767" s="10"/>
       <c r="G767" s="12"/>
     </row>
-    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="768" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A768" s="10">
         <f t="shared" si="11"/>
         <v>763</v>
@@ -15578,7 +15581,7 @@
       <c r="F768" s="10"/>
       <c r="G768" s="12"/>
     </row>
-    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="769" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A769" s="10">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -15594,7 +15597,7 @@
       <c r="F769" s="10"/>
       <c r="G769" s="12"/>
     </row>
-    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="770" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A770" s="10">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -15614,7 +15617,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="771" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A771" s="10">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -15630,7 +15633,7 @@
       <c r="F771" s="10"/>
       <c r="G771" s="12"/>
     </row>
-    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="772" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A772" s="10">
         <f t="shared" si="11"/>
         <v>767</v>
@@ -15646,7 +15649,7 @@
       <c r="F772" s="10"/>
       <c r="G772" s="12"/>
     </row>
-    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="773" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A773" s="10">
         <f t="shared" si="11"/>
         <v>768</v>
@@ -15662,7 +15665,7 @@
       <c r="F773" s="10"/>
       <c r="G773" s="12"/>
     </row>
-    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="774" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A774" s="10">
         <f t="shared" si="11"/>
         <v>769</v>
@@ -15678,7 +15681,7 @@
       <c r="F774" s="10"/>
       <c r="G774" s="12"/>
     </row>
-    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="775" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A775" s="10">
         <f t="shared" ref="A775:A783" si="12">A774+1</f>
         <v>770</v>
@@ -15698,7 +15701,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="776" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A776" s="10">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -15714,7 +15717,7 @@
       <c r="F776" s="10"/>
       <c r="G776" s="12"/>
     </row>
-    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="777" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A777" s="10">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -15730,7 +15733,7 @@
       <c r="F777" s="10"/>
       <c r="G777" s="12"/>
     </row>
-    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="778" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A778" s="10">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -15746,7 +15749,7 @@
       <c r="F778" s="10"/>
       <c r="G778" s="12"/>
     </row>
-    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="779" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A779" s="10">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -15762,7 +15765,7 @@
       <c r="F779" s="10"/>
       <c r="G779" s="12"/>
     </row>
-    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="780" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A780" s="10">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -15778,7 +15781,7 @@
       <c r="F780" s="10"/>
       <c r="G780" s="12"/>
     </row>
-    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="781" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A781" s="10">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -15794,7 +15797,7 @@
       <c r="F781" s="10"/>
       <c r="G781" s="12"/>
     </row>
-    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="782" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A782" s="10">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -15810,7 +15813,7 @@
       <c r="F782" s="10"/>
       <c r="G782" s="12"/>
     </row>
-    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" customHeight="1">
+    <row r="783" spans="1:7" s="9" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="A783" s="10">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -15828,7 +15831,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A5:G783">
-    <filterColumn colId="2"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Arithmetic"/>
+        <filter val="Operator"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A6:G783">
       <sortCondition ref="B5:B783"/>
     </sortState>
